--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.30828061272019</v>
+        <v>21.30828061272015</v>
       </c>
       <c r="C2">
-        <v>18.57785808908983</v>
+        <v>18.57785808908982</v>
       </c>
       <c r="D2">
-        <v>7.305018310385601</v>
+        <v>7.305018310385582</v>
       </c>
       <c r="E2">
-        <v>6.544548262266474</v>
+        <v>6.544548262266554</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.17772751058032</v>
+        <v>36.17772751058037</v>
       </c>
       <c r="H2">
-        <v>30.00284510680384</v>
+        <v>30.0028451068039</v>
       </c>
       <c r="I2">
-        <v>4.92114776718868</v>
+        <v>4.921147767188781</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.09675979017338</v>
+        <v>10.0967597901734</v>
       </c>
       <c r="L2">
-        <v>15.5166845697287</v>
+        <v>15.51668456972862</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75415997942972</v>
+        <v>19.75415997942969</v>
       </c>
       <c r="C3">
         <v>17.20593455913074</v>
       </c>
       <c r="D3">
-        <v>6.909185290574514</v>
+        <v>6.909185290574489</v>
       </c>
       <c r="E3">
-        <v>6.466069375850843</v>
+        <v>6.466069375850799</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>28.78752806942905</v>
       </c>
       <c r="I3">
-        <v>4.925937746279574</v>
+        <v>4.925937746279577</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.628731761437175</v>
+        <v>9.628731761437168</v>
       </c>
       <c r="L3">
-        <v>14.40642700054452</v>
+        <v>14.40642700054453</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75465944004856</v>
+        <v>18.75465944004855</v>
       </c>
       <c r="C4">
-        <v>16.32550201333939</v>
+        <v>16.3255020133395</v>
       </c>
       <c r="D4">
-        <v>6.662701586178746</v>
+        <v>6.662701586178725</v>
       </c>
       <c r="E4">
-        <v>6.421427175267477</v>
+        <v>6.421427175267571</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.32907961101026</v>
+        <v>33.32907961101019</v>
       </c>
       <c r="H4">
-        <v>28.04612409661761</v>
+        <v>28.04612409661756</v>
       </c>
       <c r="I4">
-        <v>4.929143338933394</v>
+        <v>4.92914333893346</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.340808640106085</v>
+        <v>9.340808640106109</v>
       </c>
       <c r="L4">
         <v>13.70728973850011</v>
@@ -529,34 +529,34 @@
         <v>18.33571665781425</v>
       </c>
       <c r="C5">
-        <v>15.95689529979736</v>
+        <v>15.95689529979742</v>
       </c>
       <c r="D5">
-        <v>6.561461652262802</v>
+        <v>6.561461652262772</v>
       </c>
       <c r="E5">
-        <v>6.404088624742943</v>
+        <v>6.404088624742841</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.884981333219</v>
+        <v>32.88498133321903</v>
       </c>
       <c r="H5">
-        <v>27.74529510594619</v>
+        <v>27.74529510594623</v>
       </c>
       <c r="I5">
-        <v>4.930511766347393</v>
+        <v>4.930511766347426</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.223424283667937</v>
+        <v>9.223424283667914</v>
       </c>
       <c r="L5">
-        <v>13.49400060400053</v>
+        <v>13.49400060400052</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26544159431462</v>
+        <v>18.26544159431454</v>
       </c>
       <c r="C6">
-        <v>15.89508827237141</v>
+        <v>15.89508827237135</v>
       </c>
       <c r="D6">
-        <v>6.544605322951483</v>
+        <v>6.544605322951506</v>
       </c>
       <c r="E6">
         <v>6.401260053314838</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.81117968378064</v>
+        <v>32.81117968378069</v>
       </c>
       <c r="H6">
-        <v>27.69542475712454</v>
+        <v>27.6954247571246</v>
       </c>
       <c r="I6">
-        <v>4.930742628241838</v>
+        <v>4.93074262824187</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>9.203932487141715</v>
       </c>
       <c r="L6">
-        <v>13.45847503096638</v>
+        <v>13.45847503096642</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74905687466769</v>
+        <v>18.74905687466771</v>
       </c>
       <c r="C7">
-        <v>16.32057094236068</v>
+        <v>16.32057094236063</v>
       </c>
       <c r="D7">
-        <v>6.66133933988486</v>
+        <v>6.661339339884853</v>
       </c>
       <c r="E7">
-        <v>6.421189934161577</v>
+        <v>6.42118993416169</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.32309453407377</v>
+        <v>33.32309453407386</v>
       </c>
       <c r="H7">
-        <v>28.04206159471445</v>
+        <v>28.04206159471451</v>
       </c>
       <c r="I7">
-        <v>4.929161547836111</v>
+        <v>4.929161547836312</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.339225637249495</v>
+        <v>9.339225637249564</v>
       </c>
       <c r="L7">
-        <v>13.70442069470111</v>
+        <v>13.70442069470112</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.78165201555486</v>
+        <v>20.78165201555475</v>
       </c>
       <c r="C8">
-        <v>18.11255974586241</v>
+        <v>18.11255974586256</v>
       </c>
       <c r="D8">
-        <v>7.169282261030297</v>
+        <v>7.169282261030285</v>
       </c>
       <c r="E8">
-        <v>6.51672980263769</v>
+        <v>6.51672980263777</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.57154052844233</v>
+        <v>35.57154052844247</v>
       </c>
       <c r="H8">
-        <v>29.58284366038531</v>
+        <v>29.5828436603855</v>
       </c>
       <c r="I8">
-        <v>4.922741592514791</v>
+        <v>4.922741592514825</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>9.935540903671376</v>
       </c>
       <c r="L8">
-        <v>15.1404065326599</v>
+        <v>15.14040653265986</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.42146249275559</v>
+        <v>24.42146249275567</v>
       </c>
       <c r="C9">
-        <v>21.3374841428818</v>
+        <v>21.33748414288186</v>
       </c>
       <c r="D9">
-        <v>8.136500804975897</v>
+        <v>8.136500804975832</v>
       </c>
       <c r="E9">
-        <v>6.734041759277384</v>
+        <v>6.734041759277432</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.93407406205031</v>
+        <v>39.93407406205029</v>
       </c>
       <c r="H9">
-        <v>32.64182927978491</v>
+        <v>32.64182927978485</v>
       </c>
       <c r="I9">
-        <v>4.912489819021781</v>
+        <v>4.912489819021851</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.09836745838853</v>
+        <v>11.09836745838852</v>
       </c>
       <c r="L9">
-        <v>17.74245689675283</v>
+        <v>17.7424568967529</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.90547704119563</v>
+        <v>26.90547704119559</v>
       </c>
       <c r="C10">
-        <v>23.55124894863624</v>
+        <v>23.55124894863615</v>
       </c>
       <c r="D10">
-        <v>8.829692901919083</v>
+        <v>8.829692901919081</v>
       </c>
       <c r="E10">
-        <v>6.914822949046341</v>
+        <v>6.914822949046235</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>43.11536067754577</v>
       </c>
       <c r="H10">
-        <v>34.91748675108738</v>
+        <v>34.91748675108739</v>
       </c>
       <c r="I10">
-        <v>4.906796639320905</v>
+        <v>4.906796639320806</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.94842713048211</v>
+        <v>11.9484271304821</v>
       </c>
       <c r="L10">
-        <v>19.52035972878851</v>
+        <v>19.52035972878849</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.99977963397804</v>
+        <v>27.99977963397798</v>
       </c>
       <c r="C11">
-        <v>24.5301195456882</v>
+        <v>24.53011954568824</v>
       </c>
       <c r="D11">
-        <v>9.141968915574644</v>
+        <v>9.141968915574642</v>
       </c>
       <c r="E11">
-        <v>7.002402353466181</v>
+        <v>7.002402353466208</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.56152198469687</v>
+        <v>44.5615219846968</v>
       </c>
       <c r="H11">
-        <v>35.96208905180899</v>
+        <v>35.96208905180895</v>
       </c>
       <c r="I11">
-        <v>4.904728973861782</v>
+        <v>4.904728973861849</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.33498622118031</v>
+        <v>12.33498622118029</v>
       </c>
       <c r="L11">
-        <v>20.30419965275367</v>
+        <v>20.30419965275365</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.40958382883629</v>
+        <v>28.40958382883634</v>
       </c>
       <c r="C12">
-        <v>24.89729634050808</v>
+        <v>24.8972963405081</v>
       </c>
       <c r="D12">
-        <v>9.259885798630393</v>
+        <v>9.259885798630412</v>
       </c>
       <c r="E12">
-        <v>7.036409434024033</v>
+        <v>7.03640943402408</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.10957139992919</v>
+        <v>45.10957139992927</v>
       </c>
       <c r="H12">
-        <v>36.35943600082147</v>
+        <v>36.35943600082153</v>
       </c>
       <c r="I12">
-        <v>4.90403454546706</v>
+        <v>4.904034545467093</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.51572911958206</v>
+        <v>12.51572911958202</v>
       </c>
       <c r="L12">
-        <v>20.59783828120964</v>
+        <v>20.59783828120968</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.32151934511151</v>
+        <v>28.32151934511157</v>
       </c>
       <c r="C13">
-        <v>24.81836409514352</v>
+        <v>24.81836409514356</v>
       </c>
       <c r="D13">
-        <v>9.234503088503585</v>
+        <v>9.234503088503642</v>
       </c>
       <c r="E13">
         <v>7.029046590308659</v>
@@ -845,22 +845,22 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.99150922984153</v>
+        <v>44.99150922984162</v>
       </c>
       <c r="H13">
-        <v>36.27377265016904</v>
+        <v>36.27377265016909</v>
       </c>
       <c r="I13">
-        <v>4.904179915455305</v>
+        <v>4.904179915455343</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.47617705712012</v>
+        <v>12.47617705712019</v>
       </c>
       <c r="L13">
-        <v>20.53473247206416</v>
+        <v>20.53473247206426</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.0335828863902</v>
+        <v>28.03358288639036</v>
       </c>
       <c r="C14">
-        <v>24.56039404712962</v>
+        <v>24.56039404712972</v>
       </c>
       <c r="D14">
-        <v>9.151675980865887</v>
+        <v>9.151675980865981</v>
       </c>
       <c r="E14">
-        <v>7.005182773126399</v>
+        <v>7.005182773126392</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.60659794361032</v>
+        <v>44.60659794361051</v>
       </c>
       <c r="H14">
-        <v>35.99474037788103</v>
+        <v>35.99474037788116</v>
       </c>
       <c r="I14">
-        <v>4.904669979502977</v>
+        <v>4.90466997950298</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.3470347081619</v>
+        <v>12.34703470816195</v>
       </c>
       <c r="L14">
-        <v>20.32841876598421</v>
+        <v>20.32841876598437</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.85663426909919</v>
+        <v>27.85663426909911</v>
       </c>
       <c r="C15">
-        <v>24.40194211859138</v>
+        <v>24.40194211859132</v>
       </c>
       <c r="D15">
-        <v>9.100902133607638</v>
+        <v>9.100902133607674</v>
       </c>
       <c r="E15">
-        <v>6.990677676174865</v>
+        <v>6.990677676174845</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.37090365502028</v>
+        <v>44.37090365502029</v>
       </c>
       <c r="H15">
-        <v>35.82407200002159</v>
+        <v>35.82407200002163</v>
       </c>
       <c r="I15">
-        <v>4.904982143946696</v>
+        <v>4.904982143946661</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.28403480314777</v>
+        <v>12.28403480314779</v>
       </c>
       <c r="L15">
         <v>20.20164398144554</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8332884386549</v>
+        <v>26.83328843865492</v>
       </c>
       <c r="C16">
-        <v>23.48675547536189</v>
+        <v>23.48675547536202</v>
       </c>
       <c r="D16">
-        <v>8.809231391206286</v>
+        <v>8.809231391206335</v>
       </c>
       <c r="E16">
-        <v>6.90921299302441</v>
+        <v>6.909212993024521</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.0208738665462</v>
+        <v>43.02087386654637</v>
       </c>
       <c r="H16">
-        <v>34.84944175328017</v>
+        <v>34.84944175328031</v>
       </c>
       <c r="I16">
-        <v>4.906943354534916</v>
+        <v>4.906943354535018</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.92317121687826</v>
+        <v>11.9231712168783</v>
       </c>
       <c r="L16">
-        <v>19.46866500481184</v>
+        <v>19.46866500481192</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.19672061808405</v>
+        <v>26.19672061808386</v>
       </c>
       <c r="C17">
-        <v>22.91846469032165</v>
+        <v>22.91846469032162</v>
       </c>
       <c r="D17">
-        <v>8.62957904875435</v>
+        <v>8.629579048754316</v>
       </c>
       <c r="E17">
-        <v>6.860654209642846</v>
+        <v>6.860654209642774</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.19275255198821</v>
+        <v>42.1927525519881</v>
       </c>
       <c r="H17">
-        <v>34.25420210707627</v>
+        <v>34.2542021070762</v>
       </c>
       <c r="I17">
-        <v>4.908288874076896</v>
+        <v>4.90828887407686</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.70182965603853</v>
+        <v>11.70182965603852</v>
       </c>
       <c r="L17">
-        <v>19.01288510424006</v>
+        <v>19.01288510423996</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82718699924526</v>
+        <v>25.82718699924531</v>
       </c>
       <c r="C18">
-        <v>22.58890824895355</v>
+        <v>22.58890824895336</v>
       </c>
       <c r="D18">
-        <v>8.525951105563038</v>
+        <v>8.525951105563056</v>
       </c>
       <c r="E18">
-        <v>6.833222080740109</v>
+        <v>6.833222080740075</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.71629745300368</v>
+        <v>41.71629745300381</v>
       </c>
       <c r="H18">
-        <v>33.91268634141962</v>
+        <v>33.91268634141971</v>
       </c>
       <c r="I18">
-        <v>4.909110965543792</v>
+        <v>4.909110965543692</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.57449644103957</v>
+        <v>11.57449644103958</v>
       </c>
       <c r="L18">
-        <v>18.7483579315699</v>
+        <v>18.74835793156993</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.70147062608303</v>
+        <v>25.701470626083</v>
       </c>
       <c r="C19">
-        <v>22.47684862883769</v>
+        <v>22.47684862883756</v>
       </c>
       <c r="D19">
-        <v>8.490810965256085</v>
+        <v>8.49081096525606</v>
       </c>
       <c r="E19">
-        <v>6.824017427238241</v>
+        <v>6.824017427238275</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.55493963257282</v>
+        <v>41.55493963257276</v>
       </c>
       <c r="H19">
-        <v>33.79719037541475</v>
+        <v>33.7971903754147</v>
       </c>
       <c r="I19">
-        <v>4.909397226250253</v>
+        <v>4.909397226250252</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.53137666120652</v>
+        <v>11.53137666120651</v>
       </c>
       <c r="L19">
-        <v>18.65837452532406</v>
+        <v>18.65837452532396</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.26483220580369</v>
+        <v>26.2648322058037</v>
       </c>
       <c r="C20">
-        <v>22.97923497500801</v>
+        <v>22.97923497500809</v>
       </c>
       <c r="D20">
-        <v>8.648733419418358</v>
+        <v>8.648733419418406</v>
       </c>
       <c r="E20">
-        <v>6.865771375799923</v>
+        <v>6.86577137579991</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.28091867995188</v>
+        <v>42.28091867995181</v>
       </c>
       <c r="H20">
-        <v>34.31747575211467</v>
+        <v>34.31747575211462</v>
       </c>
       <c r="I20">
-        <v>4.90814056665157</v>
+        <v>4.908140566651669</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.72539353583747</v>
+        <v>11.72539353583746</v>
       </c>
       <c r="L20">
-        <v>19.06164671413136</v>
+        <v>19.06164671413141</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.11827640317404</v>
+        <v>28.11827640317396</v>
       </c>
       <c r="C21">
-        <v>24.63625622194863</v>
+        <v>24.6362562219487</v>
       </c>
       <c r="D21">
-        <v>9.17601236952893</v>
+        <v>9.17601236952895</v>
       </c>
       <c r="E21">
-        <v>7.012168623887679</v>
+        <v>7.012168623887659</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.71963878130195</v>
+        <v>44.719638781302</v>
       </c>
       <c r="H21">
-        <v>36.07664647262278</v>
+        <v>36.07664647262283</v>
       </c>
       <c r="I21">
-        <v>4.904523509223112</v>
+        <v>4.904523509223111</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.384916250921</v>
+        <v>12.38491625092103</v>
       </c>
       <c r="L21">
-        <v>20.38910100030132</v>
+        <v>20.3891010003013</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.30321247020843</v>
+        <v>29.30321247020846</v>
       </c>
       <c r="C22">
-        <v>25.69914302670991</v>
+        <v>25.69914302670987</v>
       </c>
       <c r="D22">
-        <v>9.529041237515335</v>
+        <v>9.529041237515296</v>
       </c>
       <c r="E22">
-        <v>7.112804367979166</v>
+        <v>7.112804367979167</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.31634804523505</v>
+        <v>46.31634804523482</v>
       </c>
       <c r="H22">
-        <v>37.23704862935717</v>
+        <v>37.23704862935696</v>
       </c>
       <c r="I22">
-        <v>4.902684452571775</v>
+        <v>4.902684452571738</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.91739080044237</v>
+        <v>12.91739080044233</v>
       </c>
       <c r="L22">
-        <v>21.23834457000566</v>
+        <v>21.23834457000563</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.67299906560458</v>
+        <v>28.67299906560461</v>
       </c>
       <c r="C23">
-        <v>25.13348834782157</v>
+        <v>25.13348834782174</v>
       </c>
       <c r="D23">
-        <v>9.335947927740396</v>
+        <v>9.335947927740387</v>
       </c>
       <c r="E23">
-        <v>7.058611310074261</v>
+        <v>7.058611310074268</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46364885138093</v>
+        <v>45.46364885138095</v>
       </c>
       <c r="H23">
-        <v>36.616559869143</v>
+        <v>36.61655986914299</v>
       </c>
       <c r="I23">
-        <v>4.90361262825923</v>
+        <v>4.903612628259162</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.6340684855387</v>
+        <v>12.63406848553872</v>
       </c>
       <c r="L23">
-        <v>20.78661320307589</v>
+        <v>20.7866132030759</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.23405009274222</v>
+        <v>26.23405009274219</v>
       </c>
       <c r="C24">
-        <v>22.95176961080906</v>
+        <v>22.95176961080908</v>
       </c>
       <c r="D24">
-        <v>8.640074805411553</v>
+        <v>8.640074805411508</v>
       </c>
       <c r="E24">
-        <v>6.863456399846117</v>
+        <v>6.863456399846061</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.24105992581531</v>
+        <v>42.24105992581526</v>
       </c>
       <c r="H24">
-        <v>34.28886760131545</v>
+        <v>34.28886760131542</v>
       </c>
       <c r="I24">
-        <v>4.908207466220513</v>
+        <v>4.908207466220481</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.71474056666643</v>
+        <v>11.71474056666641</v>
       </c>
       <c r="L24">
         <v>19.03960938545978</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.47186533404416</v>
+        <v>23.47186533404415</v>
       </c>
       <c r="C25">
-        <v>20.4940492497952</v>
+        <v>20.49404924979526</v>
       </c>
       <c r="D25">
-        <v>7.878029532143296</v>
+        <v>7.878029532143305</v>
       </c>
       <c r="E25">
-        <v>6.671770507254744</v>
+        <v>6.671770507254707</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.75893079222036</v>
+        <v>38.7589307922204</v>
       </c>
       <c r="H25">
         <v>31.81005279371072</v>
       </c>
       <c r="I25">
-        <v>4.914975342480363</v>
+        <v>4.914975342480298</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.78465945252102</v>
+        <v>10.784659452521</v>
       </c>
       <c r="L25">
-        <v>17.06327078127528</v>
+        <v>17.06327078127533</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -412,37 +412,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.30828061272015</v>
+        <v>21.30828061272019</v>
       </c>
       <c r="C2">
-        <v>18.57785808908982</v>
+        <v>18.57785808908983</v>
       </c>
       <c r="D2">
-        <v>7.305018310385582</v>
+        <v>7.305018310385601</v>
       </c>
       <c r="E2">
-        <v>6.544548262266554</v>
+        <v>6.544548262266474</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.17772751058037</v>
+        <v>36.17772751058032</v>
       </c>
       <c r="H2">
-        <v>30.0028451068039</v>
+        <v>30.00284510680384</v>
       </c>
       <c r="I2">
-        <v>4.921147767188781</v>
+        <v>4.92114776718868</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.0967597901734</v>
+        <v>10.09675979017338</v>
       </c>
       <c r="L2">
-        <v>15.51668456972862</v>
+        <v>15.5166845697287</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75415997942969</v>
+        <v>19.75415997942972</v>
       </c>
       <c r="C3">
         <v>17.20593455913074</v>
       </c>
       <c r="D3">
-        <v>6.909185290574489</v>
+        <v>6.909185290574514</v>
       </c>
       <c r="E3">
-        <v>6.466069375850799</v>
+        <v>6.466069375850843</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -471,16 +471,16 @@
         <v>28.78752806942905</v>
       </c>
       <c r="I3">
-        <v>4.925937746279577</v>
+        <v>4.925937746279574</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.628731761437168</v>
+        <v>9.628731761437175</v>
       </c>
       <c r="L3">
-        <v>14.40642700054453</v>
+        <v>14.40642700054452</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75465944004855</v>
+        <v>18.75465944004856</v>
       </c>
       <c r="C4">
-        <v>16.3255020133395</v>
+        <v>16.32550201333939</v>
       </c>
       <c r="D4">
-        <v>6.662701586178725</v>
+        <v>6.662701586178746</v>
       </c>
       <c r="E4">
-        <v>6.421427175267571</v>
+        <v>6.421427175267477</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.32907961101019</v>
+        <v>33.32907961101026</v>
       </c>
       <c r="H4">
-        <v>28.04612409661756</v>
+        <v>28.04612409661761</v>
       </c>
       <c r="I4">
-        <v>4.92914333893346</v>
+        <v>4.929143338933394</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.340808640106109</v>
+        <v>9.340808640106085</v>
       </c>
       <c r="L4">
         <v>13.70728973850011</v>
@@ -529,34 +529,34 @@
         <v>18.33571665781425</v>
       </c>
       <c r="C5">
-        <v>15.95689529979742</v>
+        <v>15.95689529979736</v>
       </c>
       <c r="D5">
-        <v>6.561461652262772</v>
+        <v>6.561461652262802</v>
       </c>
       <c r="E5">
-        <v>6.404088624742841</v>
+        <v>6.404088624742943</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.88498133321903</v>
+        <v>32.884981333219</v>
       </c>
       <c r="H5">
-        <v>27.74529510594623</v>
+        <v>27.74529510594619</v>
       </c>
       <c r="I5">
-        <v>4.930511766347426</v>
+        <v>4.930511766347393</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.223424283667914</v>
+        <v>9.223424283667937</v>
       </c>
       <c r="L5">
-        <v>13.49400060400052</v>
+        <v>13.49400060400053</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26544159431454</v>
+        <v>18.26544159431462</v>
       </c>
       <c r="C6">
-        <v>15.89508827237135</v>
+        <v>15.89508827237141</v>
       </c>
       <c r="D6">
-        <v>6.544605322951506</v>
+        <v>6.544605322951483</v>
       </c>
       <c r="E6">
         <v>6.401260053314838</v>
@@ -579,13 +579,13 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.81117968378069</v>
+        <v>32.81117968378064</v>
       </c>
       <c r="H6">
-        <v>27.6954247571246</v>
+        <v>27.69542475712454</v>
       </c>
       <c r="I6">
-        <v>4.93074262824187</v>
+        <v>4.930742628241838</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>9.203932487141715</v>
       </c>
       <c r="L6">
-        <v>13.45847503096642</v>
+        <v>13.45847503096638</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74905687466771</v>
+        <v>18.74905687466769</v>
       </c>
       <c r="C7">
-        <v>16.32057094236063</v>
+        <v>16.32057094236068</v>
       </c>
       <c r="D7">
-        <v>6.661339339884853</v>
+        <v>6.66133933988486</v>
       </c>
       <c r="E7">
-        <v>6.42118993416169</v>
+        <v>6.421189934161577</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.32309453407386</v>
+        <v>33.32309453407377</v>
       </c>
       <c r="H7">
-        <v>28.04206159471451</v>
+        <v>28.04206159471445</v>
       </c>
       <c r="I7">
-        <v>4.929161547836312</v>
+        <v>4.929161547836111</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.339225637249564</v>
+        <v>9.339225637249495</v>
       </c>
       <c r="L7">
-        <v>13.70442069470112</v>
+        <v>13.70442069470111</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,28 +640,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.78165201555475</v>
+        <v>20.78165201555486</v>
       </c>
       <c r="C8">
-        <v>18.11255974586256</v>
+        <v>18.11255974586241</v>
       </c>
       <c r="D8">
-        <v>7.169282261030285</v>
+        <v>7.169282261030297</v>
       </c>
       <c r="E8">
-        <v>6.51672980263777</v>
+        <v>6.51672980263769</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.57154052844247</v>
+        <v>35.57154052844233</v>
       </c>
       <c r="H8">
-        <v>29.5828436603855</v>
+        <v>29.58284366038531</v>
       </c>
       <c r="I8">
-        <v>4.922741592514825</v>
+        <v>4.922741592514791</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>9.935540903671376</v>
       </c>
       <c r="L8">
-        <v>15.14040653265986</v>
+        <v>15.1404065326599</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,37 +678,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.42146249275567</v>
+        <v>24.42146249275559</v>
       </c>
       <c r="C9">
-        <v>21.33748414288186</v>
+        <v>21.3374841428818</v>
       </c>
       <c r="D9">
-        <v>8.136500804975832</v>
+        <v>8.136500804975897</v>
       </c>
       <c r="E9">
-        <v>6.734041759277432</v>
+        <v>6.734041759277384</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.93407406205029</v>
+        <v>39.93407406205031</v>
       </c>
       <c r="H9">
-        <v>32.64182927978485</v>
+        <v>32.64182927978491</v>
       </c>
       <c r="I9">
-        <v>4.912489819021851</v>
+        <v>4.912489819021781</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.09836745838852</v>
+        <v>11.09836745838853</v>
       </c>
       <c r="L9">
-        <v>17.7424568967529</v>
+        <v>17.74245689675283</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.90547704119559</v>
+        <v>26.90547704119563</v>
       </c>
       <c r="C10">
-        <v>23.55124894863615</v>
+        <v>23.55124894863624</v>
       </c>
       <c r="D10">
-        <v>8.829692901919081</v>
+        <v>8.829692901919083</v>
       </c>
       <c r="E10">
-        <v>6.914822949046235</v>
+        <v>6.914822949046341</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,19 +734,19 @@
         <v>43.11536067754577</v>
       </c>
       <c r="H10">
-        <v>34.91748675108739</v>
+        <v>34.91748675108738</v>
       </c>
       <c r="I10">
-        <v>4.906796639320806</v>
+        <v>4.906796639320905</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>11.9484271304821</v>
+        <v>11.94842713048211</v>
       </c>
       <c r="L10">
-        <v>19.52035972878849</v>
+        <v>19.52035972878851</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.99977963397798</v>
+        <v>27.99977963397804</v>
       </c>
       <c r="C11">
-        <v>24.53011954568824</v>
+        <v>24.5301195456882</v>
       </c>
       <c r="D11">
-        <v>9.141968915574642</v>
+        <v>9.141968915574644</v>
       </c>
       <c r="E11">
-        <v>7.002402353466208</v>
+        <v>7.002402353466181</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.5615219846968</v>
+        <v>44.56152198469687</v>
       </c>
       <c r="H11">
-        <v>35.96208905180895</v>
+        <v>35.96208905180899</v>
       </c>
       <c r="I11">
-        <v>4.904728973861849</v>
+        <v>4.904728973861782</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>12.33498622118029</v>
+        <v>12.33498622118031</v>
       </c>
       <c r="L11">
-        <v>20.30419965275365</v>
+        <v>20.30419965275367</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.40958382883634</v>
+        <v>28.40958382883629</v>
       </c>
       <c r="C12">
-        <v>24.8972963405081</v>
+        <v>24.89729634050808</v>
       </c>
       <c r="D12">
-        <v>9.259885798630412</v>
+        <v>9.259885798630393</v>
       </c>
       <c r="E12">
-        <v>7.03640943402408</v>
+        <v>7.036409434024033</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.10957139992927</v>
+        <v>45.10957139992919</v>
       </c>
       <c r="H12">
-        <v>36.35943600082153</v>
+        <v>36.35943600082147</v>
       </c>
       <c r="I12">
-        <v>4.904034545467093</v>
+        <v>4.90403454546706</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>12.51572911958202</v>
+        <v>12.51572911958206</v>
       </c>
       <c r="L12">
-        <v>20.59783828120968</v>
+        <v>20.59783828120964</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.32151934511157</v>
+        <v>28.32151934511151</v>
       </c>
       <c r="C13">
-        <v>24.81836409514356</v>
+        <v>24.81836409514352</v>
       </c>
       <c r="D13">
-        <v>9.234503088503642</v>
+        <v>9.234503088503585</v>
       </c>
       <c r="E13">
         <v>7.029046590308659</v>
@@ -845,22 +845,22 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.99150922984162</v>
+        <v>44.99150922984153</v>
       </c>
       <c r="H13">
-        <v>36.27377265016909</v>
+        <v>36.27377265016904</v>
       </c>
       <c r="I13">
-        <v>4.904179915455343</v>
+        <v>4.904179915455305</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>12.47617705712019</v>
+        <v>12.47617705712012</v>
       </c>
       <c r="L13">
-        <v>20.53473247206426</v>
+        <v>20.53473247206416</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,37 +868,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.03358288639036</v>
+        <v>28.0335828863902</v>
       </c>
       <c r="C14">
-        <v>24.56039404712972</v>
+        <v>24.56039404712962</v>
       </c>
       <c r="D14">
-        <v>9.151675980865981</v>
+        <v>9.151675980865887</v>
       </c>
       <c r="E14">
-        <v>7.005182773126392</v>
+        <v>7.005182773126399</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.60659794361051</v>
+        <v>44.60659794361032</v>
       </c>
       <c r="H14">
-        <v>35.99474037788116</v>
+        <v>35.99474037788103</v>
       </c>
       <c r="I14">
-        <v>4.90466997950298</v>
+        <v>4.904669979502977</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>12.34703470816195</v>
+        <v>12.3470347081619</v>
       </c>
       <c r="L14">
-        <v>20.32841876598437</v>
+        <v>20.32841876598421</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,34 +906,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.85663426909911</v>
+        <v>27.85663426909919</v>
       </c>
       <c r="C15">
-        <v>24.40194211859132</v>
+        <v>24.40194211859138</v>
       </c>
       <c r="D15">
-        <v>9.100902133607674</v>
+        <v>9.100902133607638</v>
       </c>
       <c r="E15">
-        <v>6.990677676174845</v>
+        <v>6.990677676174865</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.37090365502029</v>
+        <v>44.37090365502028</v>
       </c>
       <c r="H15">
-        <v>35.82407200002163</v>
+        <v>35.82407200002159</v>
       </c>
       <c r="I15">
-        <v>4.904982143946661</v>
+        <v>4.904982143946696</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>12.28403480314779</v>
+        <v>12.28403480314777</v>
       </c>
       <c r="L15">
         <v>20.20164398144554</v>
@@ -944,37 +944,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.83328843865492</v>
+        <v>26.8332884386549</v>
       </c>
       <c r="C16">
-        <v>23.48675547536202</v>
+        <v>23.48675547536189</v>
       </c>
       <c r="D16">
-        <v>8.809231391206335</v>
+        <v>8.809231391206286</v>
       </c>
       <c r="E16">
-        <v>6.909212993024521</v>
+        <v>6.90921299302441</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.02087386654637</v>
+        <v>43.0208738665462</v>
       </c>
       <c r="H16">
-        <v>34.84944175328031</v>
+        <v>34.84944175328017</v>
       </c>
       <c r="I16">
-        <v>4.906943354535018</v>
+        <v>4.906943354534916</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.9231712168783</v>
+        <v>11.92317121687826</v>
       </c>
       <c r="L16">
-        <v>19.46866500481192</v>
+        <v>19.46866500481184</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.19672061808386</v>
+        <v>26.19672061808405</v>
       </c>
       <c r="C17">
-        <v>22.91846469032162</v>
+        <v>22.91846469032165</v>
       </c>
       <c r="D17">
-        <v>8.629579048754316</v>
+        <v>8.62957904875435</v>
       </c>
       <c r="E17">
-        <v>6.860654209642774</v>
+        <v>6.860654209642846</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.1927525519881</v>
+        <v>42.19275255198821</v>
       </c>
       <c r="H17">
-        <v>34.2542021070762</v>
+        <v>34.25420210707627</v>
       </c>
       <c r="I17">
-        <v>4.90828887407686</v>
+        <v>4.908288874076896</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.70182965603852</v>
+        <v>11.70182965603853</v>
       </c>
       <c r="L17">
-        <v>19.01288510423996</v>
+        <v>19.01288510424006</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82718699924531</v>
+        <v>25.82718699924526</v>
       </c>
       <c r="C18">
-        <v>22.58890824895336</v>
+        <v>22.58890824895355</v>
       </c>
       <c r="D18">
-        <v>8.525951105563056</v>
+        <v>8.525951105563038</v>
       </c>
       <c r="E18">
-        <v>6.833222080740075</v>
+        <v>6.833222080740109</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.71629745300381</v>
+        <v>41.71629745300368</v>
       </c>
       <c r="H18">
-        <v>33.91268634141971</v>
+        <v>33.91268634141962</v>
       </c>
       <c r="I18">
-        <v>4.909110965543692</v>
+        <v>4.909110965543792</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.57449644103958</v>
+        <v>11.57449644103957</v>
       </c>
       <c r="L18">
-        <v>18.74835793156993</v>
+        <v>18.7483579315699</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,37 +1058,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.701470626083</v>
+        <v>25.70147062608303</v>
       </c>
       <c r="C19">
-        <v>22.47684862883756</v>
+        <v>22.47684862883769</v>
       </c>
       <c r="D19">
-        <v>8.49081096525606</v>
+        <v>8.490810965256085</v>
       </c>
       <c r="E19">
-        <v>6.824017427238275</v>
+        <v>6.824017427238241</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.55493963257276</v>
+        <v>41.55493963257282</v>
       </c>
       <c r="H19">
-        <v>33.7971903754147</v>
+        <v>33.79719037541475</v>
       </c>
       <c r="I19">
-        <v>4.909397226250252</v>
+        <v>4.909397226250253</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>11.53137666120651</v>
+        <v>11.53137666120652</v>
       </c>
       <c r="L19">
-        <v>18.65837452532396</v>
+        <v>18.65837452532406</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.2648322058037</v>
+        <v>26.26483220580369</v>
       </c>
       <c r="C20">
-        <v>22.97923497500809</v>
+        <v>22.97923497500801</v>
       </c>
       <c r="D20">
-        <v>8.648733419418406</v>
+        <v>8.648733419418358</v>
       </c>
       <c r="E20">
-        <v>6.86577137579991</v>
+        <v>6.865771375799923</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.28091867995181</v>
+        <v>42.28091867995188</v>
       </c>
       <c r="H20">
-        <v>34.31747575211462</v>
+        <v>34.31747575211467</v>
       </c>
       <c r="I20">
-        <v>4.908140566651669</v>
+        <v>4.90814056665157</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>11.72539353583746</v>
+        <v>11.72539353583747</v>
       </c>
       <c r="L20">
-        <v>19.06164671413141</v>
+        <v>19.06164671413136</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,37 +1134,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.11827640317396</v>
+        <v>28.11827640317404</v>
       </c>
       <c r="C21">
-        <v>24.6362562219487</v>
+        <v>24.63625622194863</v>
       </c>
       <c r="D21">
-        <v>9.17601236952895</v>
+        <v>9.17601236952893</v>
       </c>
       <c r="E21">
-        <v>7.012168623887659</v>
+        <v>7.012168623887679</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.719638781302</v>
+        <v>44.71963878130195</v>
       </c>
       <c r="H21">
-        <v>36.07664647262283</v>
+        <v>36.07664647262278</v>
       </c>
       <c r="I21">
-        <v>4.904523509223111</v>
+        <v>4.904523509223112</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.38491625092103</v>
+        <v>12.384916250921</v>
       </c>
       <c r="L21">
-        <v>20.3891010003013</v>
+        <v>20.38910100030132</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.30321247020846</v>
+        <v>29.30321247020843</v>
       </c>
       <c r="C22">
-        <v>25.69914302670987</v>
+        <v>25.69914302670991</v>
       </c>
       <c r="D22">
-        <v>9.529041237515296</v>
+        <v>9.529041237515335</v>
       </c>
       <c r="E22">
-        <v>7.112804367979167</v>
+        <v>7.112804367979166</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.31634804523482</v>
+        <v>46.31634804523505</v>
       </c>
       <c r="H22">
-        <v>37.23704862935696</v>
+        <v>37.23704862935717</v>
       </c>
       <c r="I22">
-        <v>4.902684452571738</v>
+        <v>4.902684452571775</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.91739080044233</v>
+        <v>12.91739080044237</v>
       </c>
       <c r="L22">
-        <v>21.23834457000563</v>
+        <v>21.23834457000566</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,37 +1210,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.67299906560461</v>
+        <v>28.67299906560458</v>
       </c>
       <c r="C23">
-        <v>25.13348834782174</v>
+        <v>25.13348834782157</v>
       </c>
       <c r="D23">
-        <v>9.335947927740387</v>
+        <v>9.335947927740396</v>
       </c>
       <c r="E23">
-        <v>7.058611310074268</v>
+        <v>7.058611310074261</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46364885138095</v>
+        <v>45.46364885138093</v>
       </c>
       <c r="H23">
-        <v>36.61655986914299</v>
+        <v>36.616559869143</v>
       </c>
       <c r="I23">
-        <v>4.903612628259162</v>
+        <v>4.90361262825923</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.63406848553872</v>
+        <v>12.6340684855387</v>
       </c>
       <c r="L23">
-        <v>20.7866132030759</v>
+        <v>20.78661320307589</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,34 +1248,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.23405009274219</v>
+        <v>26.23405009274222</v>
       </c>
       <c r="C24">
-        <v>22.95176961080908</v>
+        <v>22.95176961080906</v>
       </c>
       <c r="D24">
-        <v>8.640074805411508</v>
+        <v>8.640074805411553</v>
       </c>
       <c r="E24">
-        <v>6.863456399846061</v>
+        <v>6.863456399846117</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.24105992581526</v>
+        <v>42.24105992581531</v>
       </c>
       <c r="H24">
-        <v>34.28886760131542</v>
+        <v>34.28886760131545</v>
       </c>
       <c r="I24">
-        <v>4.908207466220481</v>
+        <v>4.908207466220513</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>11.71474056666641</v>
+        <v>11.71474056666643</v>
       </c>
       <c r="L24">
         <v>19.03960938545978</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.47186533404415</v>
+        <v>23.47186533404416</v>
       </c>
       <c r="C25">
-        <v>20.49404924979526</v>
+        <v>20.4940492497952</v>
       </c>
       <c r="D25">
-        <v>7.878029532143305</v>
+        <v>7.878029532143296</v>
       </c>
       <c r="E25">
-        <v>6.671770507254707</v>
+        <v>6.671770507254744</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.7589307922204</v>
+        <v>38.75893079222036</v>
       </c>
       <c r="H25">
         <v>31.81005279371072</v>
       </c>
       <c r="I25">
-        <v>4.914975342480298</v>
+        <v>4.914975342480363</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>10.784659452521</v>
+        <v>10.78465945252102</v>
       </c>
       <c r="L25">
-        <v>17.06327078127533</v>
+        <v>17.06327078127528</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.30828061272019</v>
+        <v>21.30758261378395</v>
       </c>
       <c r="C2">
-        <v>18.57785808908983</v>
+        <v>18.56827001997542</v>
       </c>
       <c r="D2">
-        <v>7.305018310385601</v>
+        <v>7.305197402736383</v>
       </c>
       <c r="E2">
-        <v>6.544548262266474</v>
+        <v>6.545345381131323</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.17772751058032</v>
+        <v>35.0883630056121</v>
       </c>
       <c r="H2">
-        <v>30.00284510680384</v>
+        <v>36.21826578950149</v>
       </c>
       <c r="I2">
-        <v>4.92114776718868</v>
+        <v>29.96365365159825</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4.920921375115203</v>
       </c>
       <c r="K2">
-        <v>10.09675979017338</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.5166845697287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>10.09493559019284</v>
+      </c>
+      <c r="M2">
+        <v>15.51513577156822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75415997942972</v>
+        <v>19.75380416046352</v>
       </c>
       <c r="C3">
-        <v>17.20593455913074</v>
+        <v>17.19720757039395</v>
       </c>
       <c r="D3">
-        <v>6.909185290574514</v>
+        <v>6.909392313320271</v>
       </c>
       <c r="E3">
-        <v>6.466069375850843</v>
+        <v>6.466927314976026</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>34.41610517161207</v>
+        <v>33.10060720524864</v>
       </c>
       <c r="H3">
-        <v>28.78752806942905</v>
+        <v>34.45535453457885</v>
       </c>
       <c r="I3">
-        <v>4.925937746279574</v>
+        <v>28.75134714155736</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>4.925864514871941</v>
       </c>
       <c r="K3">
-        <v>9.628731761437175</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.40642700054452</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>9.627053842085278</v>
+      </c>
+      <c r="M3">
+        <v>14.40517247283161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75465944004856</v>
+        <v>18.75449591803906</v>
       </c>
       <c r="C4">
-        <v>16.32550201333939</v>
+        <v>16.31730304488908</v>
       </c>
       <c r="D4">
-        <v>6.662701586178746</v>
+        <v>6.662921907410589</v>
       </c>
       <c r="E4">
-        <v>6.421427175267477</v>
+        <v>6.422328305101453</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>33.32907961101026</v>
+        <v>31.86059055514375</v>
       </c>
       <c r="H4">
-        <v>28.04612409661761</v>
+        <v>33.36759296626725</v>
       </c>
       <c r="I4">
-        <v>4.929143338933394</v>
+        <v>28.01186443854233</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>4.929165770612352</v>
       </c>
       <c r="K4">
-        <v>9.340808640106085</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.70728973850011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>9.339215673493243</v>
+      </c>
+      <c r="M4">
+        <v>13.70647348673847</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33571665781425</v>
+        <v>18.33562745071378</v>
       </c>
       <c r="C5">
-        <v>15.95689529979736</v>
+        <v>15.94891176950655</v>
       </c>
       <c r="D5">
-        <v>6.561461652262802</v>
+        <v>6.561686556844936</v>
       </c>
       <c r="E5">
-        <v>6.404088624742943</v>
+        <v>6.405008817885303</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>32.884981333219</v>
+        <v>31.35058963700111</v>
       </c>
       <c r="H5">
-        <v>27.74529510594619</v>
+        <v>32.92320967265178</v>
       </c>
       <c r="I5">
-        <v>4.930511766347393</v>
+        <v>27.7118364454584</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4.930573647325853</v>
       </c>
       <c r="K5">
-        <v>9.223424283667937</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.49400060400053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>9.221864863332929</v>
+      </c>
+      <c r="M5">
+        <v>13.4931860889654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26544159431462</v>
+        <v>18.26536449330841</v>
       </c>
       <c r="C6">
-        <v>15.89508827237141</v>
+        <v>15.88714054210958</v>
       </c>
       <c r="D6">
-        <v>6.544605322951483</v>
+        <v>6.54483094168791</v>
       </c>
       <c r="E6">
-        <v>6.401260053314838</v>
+        <v>6.40218349985232</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>32.81117968378064</v>
+        <v>31.26563063838444</v>
       </c>
       <c r="H6">
-        <v>27.69542475712454</v>
+        <v>32.84936162552317</v>
       </c>
       <c r="I6">
-        <v>4.930742628241838</v>
+        <v>27.66210017992645</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>4.93081108945416</v>
       </c>
       <c r="K6">
-        <v>9.203932487141715</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.45847503096638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>9.202378576236708</v>
+      </c>
+      <c r="M6">
+        <v>13.45766044709824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74905687466769</v>
+        <v>18.74889437078991</v>
       </c>
       <c r="C7">
-        <v>16.32057094236068</v>
+        <v>16.31237487781245</v>
       </c>
       <c r="D7">
-        <v>6.66133933988486</v>
+        <v>6.661559726150284</v>
       </c>
       <c r="E7">
-        <v>6.421189934161577</v>
+        <v>6.422091315184042</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>33.32309453407377</v>
+        <v>31.853731074576</v>
       </c>
       <c r="H7">
-        <v>28.04206159471445</v>
+        <v>33.36160398384217</v>
       </c>
       <c r="I7">
-        <v>4.929161547836111</v>
+        <v>28.00781266656583</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>4.92918450958401</v>
       </c>
       <c r="K7">
-        <v>9.339225637249495</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.70442069470111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>9.337633127217732</v>
+      </c>
+      <c r="M7">
+        <v>13.70360449038409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.78165201555486</v>
+        <v>20.78107598589188</v>
       </c>
       <c r="C8">
-        <v>18.11255974586241</v>
+        <v>18.10326901992202</v>
       </c>
       <c r="D8">
-        <v>7.169282261030297</v>
+        <v>7.169471868138307</v>
       </c>
       <c r="E8">
-        <v>6.51672980263769</v>
+        <v>6.51754667748342</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>35.57154052844233</v>
+        <v>34.40713127366013</v>
       </c>
       <c r="H8">
-        <v>29.58284366038531</v>
+        <v>35.61162348985494</v>
       </c>
       <c r="I8">
-        <v>4.922741592514791</v>
+        <v>29.54467507752993</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4.922567710702531</v>
       </c>
       <c r="K8">
-        <v>9.935540903671376</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>15.1404065326599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>9.933768250710875</v>
+      </c>
+      <c r="M8">
+        <v>15.13896050787452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.42146249275559</v>
+        <v>24.4199089289114</v>
       </c>
       <c r="C9">
-        <v>21.3374841428818</v>
+        <v>21.32601489095791</v>
       </c>
       <c r="D9">
-        <v>8.136500804975897</v>
+        <v>8.13659244709215</v>
       </c>
       <c r="E9">
-        <v>6.734041759277384</v>
+        <v>6.734739027932967</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.93407406205031</v>
+        <v>39.25683405789779</v>
       </c>
       <c r="H9">
-        <v>32.64182927978491</v>
+        <v>39.97763797472638</v>
       </c>
       <c r="I9">
-        <v>4.912489819021781</v>
+        <v>32.59654562858885</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>4.911939766585517</v>
       </c>
       <c r="K9">
-        <v>11.09836745838853</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.74245689675283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>11.09619431926228</v>
+      </c>
+      <c r="M9">
+        <v>17.74022836599711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.90547704119563</v>
+        <v>26.90305748008627</v>
       </c>
       <c r="C10">
-        <v>23.55124894863624</v>
+        <v>23.53811095549026</v>
       </c>
       <c r="D10">
-        <v>8.829692901919083</v>
+        <v>8.829677493722837</v>
       </c>
       <c r="E10">
-        <v>6.914822949046341</v>
+        <v>6.915458874767633</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.11536067754577</v>
+        <v>42.73165744843029</v>
       </c>
       <c r="H10">
-        <v>34.91748675108738</v>
+        <v>43.16166233133985</v>
       </c>
       <c r="I10">
-        <v>4.906796639320905</v>
+        <v>34.86728928488239</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.90597118711027</v>
       </c>
       <c r="K10">
-        <v>11.94842713048211</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.52035972878851</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>11.94591519679507</v>
+      </c>
+      <c r="M10">
+        <v>19.51748504074861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.99977963397804</v>
+        <v>27.99691974443885</v>
       </c>
       <c r="C11">
-        <v>24.5301195456882</v>
+        <v>24.51619247955489</v>
       </c>
       <c r="D11">
-        <v>9.141968915574644</v>
+        <v>9.141893548935233</v>
       </c>
       <c r="E11">
-        <v>7.002402353466181</v>
+        <v>7.003015341346422</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.56152198469687</v>
+        <v>44.29830447388169</v>
       </c>
       <c r="H11">
-        <v>35.96208905180899</v>
+        <v>44.60909451361027</v>
       </c>
       <c r="I11">
-        <v>4.904728973861782</v>
+        <v>35.9097085772932</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4.903777028506748</v>
       </c>
       <c r="K11">
-        <v>12.33498622118031</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.30419965275367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>12.33230553360535</v>
+      </c>
+      <c r="M11">
+        <v>20.30100553212102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.40958382883629</v>
+        <v>28.40654894077491</v>
       </c>
       <c r="C12">
-        <v>24.89729634050808</v>
+        <v>24.88306448330354</v>
       </c>
       <c r="D12">
-        <v>9.259885798630393</v>
+        <v>9.259785703146676</v>
       </c>
       <c r="E12">
-        <v>7.036409434024033</v>
+        <v>7.037014341808853</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>45.10957139992919</v>
+        <v>44.8901885750147</v>
       </c>
       <c r="H12">
-        <v>36.35943600082147</v>
+        <v>45.15762755550392</v>
       </c>
       <c r="I12">
-        <v>4.90403454546706</v>
+        <v>36.30623444846057</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>4.903034377102524</v>
       </c>
       <c r="K12">
-        <v>12.51572911958206</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.59783828120964</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>12.51271732580493</v>
+      </c>
+      <c r="M12">
+        <v>20.59451844191923</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.32151934511151</v>
+        <v>28.31852254294351</v>
       </c>
       <c r="C13">
-        <v>24.81836409514352</v>
+        <v>24.80419817778196</v>
       </c>
       <c r="D13">
-        <v>9.234503088503585</v>
+        <v>9.234408416422909</v>
       </c>
       <c r="E13">
-        <v>7.029046590308659</v>
+        <v>7.02965321351714</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.99150922984153</v>
+        <v>44.76276405375405</v>
       </c>
       <c r="H13">
-        <v>36.27377265016904</v>
+        <v>45.03946114479437</v>
       </c>
       <c r="I13">
-        <v>4.904179915455305</v>
+        <v>36.22074772086118</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4.903190149844439</v>
       </c>
       <c r="K13">
-        <v>12.47617705712012</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.53473247206416</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>12.47318147318052</v>
+      </c>
+      <c r="M13">
+        <v>20.53143994036505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.0335828863902</v>
+        <v>28.03070877560934</v>
       </c>
       <c r="C14">
-        <v>24.56039404712962</v>
+        <v>24.54644203677764</v>
       </c>
       <c r="D14">
-        <v>9.151675980865887</v>
+        <v>9.151598623027004</v>
       </c>
       <c r="E14">
-        <v>7.005182773126399</v>
+        <v>7.005795084878574</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.60659794361032</v>
+        <v>44.34702212112125</v>
       </c>
       <c r="H14">
-        <v>35.99474037788103</v>
+        <v>44.65421022125093</v>
       </c>
       <c r="I14">
-        <v>4.904669979502977</v>
+        <v>35.94229225423829</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4.903714074245417</v>
       </c>
       <c r="K14">
-        <v>12.3470347081619</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.32841876598421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>12.3443486011158</v>
+      </c>
+      <c r="M14">
+        <v>20.3252144049369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.85663426909919</v>
+        <v>27.85383418125886</v>
       </c>
       <c r="C15">
-        <v>24.40194211859138</v>
+        <v>24.38812029576967</v>
       </c>
       <c r="D15">
-        <v>9.100902133607638</v>
+        <v>9.100835103875564</v>
       </c>
       <c r="E15">
-        <v>6.990677676174865</v>
+        <v>6.991293547312594</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.37090365502028</v>
+        <v>44.09221258702763</v>
       </c>
       <c r="H15">
-        <v>35.82407200002159</v>
+        <v>44.41830816282248</v>
       </c>
       <c r="I15">
-        <v>4.904982143946696</v>
+        <v>35.77197784533811</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>4.904046932149922</v>
       </c>
       <c r="K15">
-        <v>12.28403480314777</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.20164398144554</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>12.2813769246616</v>
+      </c>
+      <c r="M15">
+        <v>20.1984929711195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.8332884386549</v>
+        <v>26.83089659396171</v>
       </c>
       <c r="C16">
-        <v>23.48675547536189</v>
+        <v>23.47366831306656</v>
       </c>
       <c r="D16">
-        <v>8.809231391206286</v>
+        <v>8.809219642543395</v>
       </c>
       <c r="E16">
-        <v>6.90921299302441</v>
+        <v>6.909850509396448</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.0208738665462</v>
+        <v>42.62904128501832</v>
       </c>
       <c r="H16">
-        <v>34.84944175328017</v>
+        <v>43.06709287179252</v>
       </c>
       <c r="I16">
-        <v>4.906943354534916</v>
+        <v>34.79938785163153</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.906126132554802</v>
       </c>
       <c r="K16">
-        <v>11.92317121687826</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.46866500481184</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>11.92066997255095</v>
+      </c>
+      <c r="M16">
+        <v>19.46581059206011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.19672061808405</v>
+        <v>26.19456632778611</v>
       </c>
       <c r="C17">
-        <v>22.91846469032165</v>
+        <v>22.90581947744414</v>
       </c>
       <c r="D17">
-        <v>8.62957904875435</v>
+        <v>8.629598071881473</v>
       </c>
       <c r="E17">
-        <v>6.860654209642846</v>
+        <v>6.861306212115509</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.19275255198821</v>
+        <v>41.72822916163387</v>
       </c>
       <c r="H17">
-        <v>34.25420210707627</v>
+        <v>42.23824994553913</v>
       </c>
       <c r="I17">
-        <v>4.908288874076896</v>
+        <v>34.20541202966791</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.907543628190087</v>
       </c>
       <c r="K17">
-        <v>11.70182965603853</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>19.01288510424006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>11.69942039895973</v>
+      </c>
+      <c r="M17">
+        <v>19.01020541731426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82718699924526</v>
+        <v>25.82516509332637</v>
       </c>
       <c r="C18">
-        <v>22.58890824895355</v>
+        <v>22.5765145361026</v>
       </c>
       <c r="D18">
-        <v>8.525951105563038</v>
+        <v>8.525986797252839</v>
       </c>
       <c r="E18">
-        <v>6.833222080740109</v>
+        <v>6.833882891361494</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.71629745300368</v>
+        <v>41.2087308568414</v>
       </c>
       <c r="H18">
-        <v>33.91268634141962</v>
+        <v>41.7613822754265</v>
       </c>
       <c r="I18">
-        <v>4.909110965543792</v>
+        <v>33.86462825397751</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.908407014759177</v>
       </c>
       <c r="K18">
-        <v>11.57449644103957</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.7483579315699</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>11.57213875621581</v>
+      </c>
+      <c r="M18">
+        <v>18.74577642126586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.70147062608303</v>
+        <v>25.69949285534524</v>
       </c>
       <c r="C19">
-        <v>22.47684862883769</v>
+        <v>22.46453965087651</v>
       </c>
       <c r="D19">
-        <v>8.490810965256085</v>
+        <v>8.490852134364541</v>
       </c>
       <c r="E19">
-        <v>6.824017427238241</v>
+        <v>6.824681304584314</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.55493963257282</v>
+        <v>41.0325849920179</v>
       </c>
       <c r="H19">
-        <v>33.79719037541475</v>
+        <v>41.5998852281836</v>
       </c>
       <c r="I19">
-        <v>4.909397226250253</v>
+        <v>33.74938104814763</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.90870724351478</v>
       </c>
       <c r="K19">
-        <v>11.53137666120652</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.65837452532406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>11.52903622310368</v>
+      </c>
+      <c r="M19">
+        <v>18.65582588645647</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.26483220580369</v>
+        <v>26.262653077613</v>
       </c>
       <c r="C20">
-        <v>22.97923497500801</v>
+        <v>22.9665430059043</v>
       </c>
       <c r="D20">
-        <v>8.648733419418358</v>
+        <v>8.648749276104951</v>
       </c>
       <c r="E20">
-        <v>6.865771375799923</v>
+        <v>6.866421787582104</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.28091867995188</v>
+        <v>41.82426039661535</v>
       </c>
       <c r="H20">
-        <v>34.31747575211467</v>
+        <v>42.32649264232808</v>
       </c>
       <c r="I20">
-        <v>4.90814056665157</v>
+        <v>34.26855062578097</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.907387670491815</v>
       </c>
       <c r="K20">
-        <v>11.72539353583747</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>19.06164671413136</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>11.72297462846645</v>
+      </c>
+      <c r="M20">
+        <v>19.05894867464826</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.11827640317404</v>
+        <v>28.11536649367877</v>
       </c>
       <c r="C21">
-        <v>24.63625622194863</v>
+        <v>24.62224155991004</v>
       </c>
       <c r="D21">
-        <v>9.17601236952893</v>
+        <v>9.175929984756854</v>
       </c>
       <c r="E21">
-        <v>7.012168623887679</v>
+        <v>7.012779249403877</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.71963878130195</v>
+        <v>44.46916656212296</v>
       </c>
       <c r="H21">
-        <v>36.07664647262278</v>
+        <v>44.76735076541638</v>
       </c>
       <c r="I21">
-        <v>4.904523509223112</v>
+        <v>36.02402879420953</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>4.903557668461767</v>
       </c>
       <c r="K21">
-        <v>12.384916250921</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.38910100030132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>12.38195774563296</v>
+      </c>
+      <c r="M21">
+        <v>20.38587088051724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.30321247020843</v>
+        <v>29.29977577884492</v>
       </c>
       <c r="C22">
-        <v>25.69914302670991</v>
+        <v>25.68422790076607</v>
       </c>
       <c r="D22">
-        <v>9.529041237515335</v>
+        <v>9.528849802365343</v>
       </c>
       <c r="E22">
-        <v>7.112804367979166</v>
+        <v>7.113392439723773</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.31634804523505</v>
+        <v>46.19023571053171</v>
       </c>
       <c r="H22">
-        <v>37.23704862935717</v>
+        <v>46.36547043019235</v>
       </c>
       <c r="I22">
-        <v>4.902684452571775</v>
+        <v>37.18204881641623</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>4.901577464947557</v>
       </c>
       <c r="K22">
-        <v>12.91739080044237</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.23834457000566</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>12.91420941873866</v>
+      </c>
+      <c r="M22">
+        <v>21.23473826331533</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.67299906560458</v>
+        <v>28.6698486633802</v>
       </c>
       <c r="C23">
-        <v>25.13348834782157</v>
+        <v>25.11905778468433</v>
       </c>
       <c r="D23">
-        <v>9.335947927740396</v>
+        <v>9.335831244989384</v>
       </c>
       <c r="E23">
-        <v>7.058611310074261</v>
+        <v>7.059211151053843</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.46364885138093</v>
+        <v>45.27208509214896</v>
       </c>
       <c r="H23">
-        <v>36.616559869143</v>
+        <v>45.51201776223895</v>
       </c>
       <c r="I23">
-        <v>4.90361262825923</v>
+        <v>36.56282940102217</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>4.902581211949682</v>
       </c>
       <c r="K23">
-        <v>12.6340684855387</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.78661320307589</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>12.63100767773187</v>
+      </c>
+      <c r="M23">
+        <v>20.78321071177439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.23405009274222</v>
+        <v>26.23188220669505</v>
       </c>
       <c r="C24">
-        <v>22.95176961080906</v>
+        <v>22.93909878811375</v>
       </c>
       <c r="D24">
-        <v>8.640074805411553</v>
+        <v>8.640092096801768</v>
       </c>
       <c r="E24">
-        <v>6.863456399846117</v>
+        <v>6.864107529277069</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.24105992581531</v>
+        <v>41.78084973440679</v>
       </c>
       <c r="H24">
-        <v>34.28886760131545</v>
+        <v>42.28659926424695</v>
       </c>
       <c r="I24">
-        <v>4.908207466220513</v>
+        <v>34.24000351362662</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.907458029002218</v>
       </c>
       <c r="K24">
-        <v>11.71474056666643</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>19.03960938545978</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>11.71232602623938</v>
+      </c>
+      <c r="M24">
+        <v>19.03691965017617</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.47186533404416</v>
+        <v>23.4705981711936</v>
       </c>
       <c r="C25">
-        <v>20.4940492497952</v>
+        <v>20.48317708431452</v>
       </c>
       <c r="D25">
-        <v>7.878029532143296</v>
+        <v>7.878152806824479</v>
       </c>
       <c r="E25">
-        <v>6.671770507254744</v>
+        <v>6.672495290393993</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>38.75893079222036</v>
+        <v>37.96149144911993</v>
       </c>
       <c r="H25">
-        <v>31.81005279371072</v>
+        <v>38.80151689474865</v>
       </c>
       <c r="I25">
-        <v>4.914975342480363</v>
+        <v>31.7666350034271</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>4.914526468852614</v>
       </c>
       <c r="K25">
-        <v>10.78465945252102</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>17.06327078127528</v>
+        <v>10.78260110769184</v>
+      </c>
+      <c r="M25">
+        <v>17.06126358867884</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.30758261378395</v>
+        <v>27.17072153947061</v>
       </c>
       <c r="C2">
-        <v>18.56827001997542</v>
+        <v>12.38519271888365</v>
       </c>
       <c r="D2">
-        <v>7.305197402736383</v>
+        <v>8.497495030248354</v>
       </c>
       <c r="E2">
-        <v>6.545345381131323</v>
+        <v>7.184305131955533</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>35.0883630056121</v>
+        <v>2.151940756747887</v>
       </c>
       <c r="H2">
-        <v>36.21826578950149</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>29.96365365159825</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.920921375115203</v>
+        <v>4.613007649600636</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.51503513019414</v>
       </c>
       <c r="L2">
-        <v>10.09493559019284</v>
+        <v>9.215030123028335</v>
       </c>
       <c r="M2">
-        <v>15.51513577156822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>17.23709173010684</v>
+      </c>
+      <c r="O2">
+        <v>37.11076063277405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.75380416046352</v>
+        <v>25.78368505807874</v>
       </c>
       <c r="C3">
-        <v>17.19720757039395</v>
+        <v>11.47984013591204</v>
       </c>
       <c r="D3">
-        <v>6.909392313320271</v>
+        <v>8.333217219248439</v>
       </c>
       <c r="E3">
-        <v>6.466927314976026</v>
+        <v>7.201958207873822</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>33.10060720524864</v>
+        <v>2.164836085536427</v>
       </c>
       <c r="H3">
-        <v>34.45535453457885</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.75134714155736</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.925864514871941</v>
+        <v>4.613943161895947</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.42645129785828</v>
       </c>
       <c r="L3">
-        <v>9.627053842085278</v>
+        <v>9.036615902344295</v>
       </c>
       <c r="M3">
-        <v>14.40517247283161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>17.37016338989381</v>
+      </c>
+      <c r="O3">
+        <v>36.19148216982505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.75449591803906</v>
+        <v>24.92070242768047</v>
       </c>
       <c r="C4">
-        <v>16.31730304488908</v>
+        <v>10.89838655257173</v>
       </c>
       <c r="D4">
-        <v>6.662921907410589</v>
+        <v>8.237126185790968</v>
       </c>
       <c r="E4">
-        <v>6.422328305101453</v>
+        <v>7.215642269103995</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>31.86059055514375</v>
+        <v>2.172913840844282</v>
       </c>
       <c r="H4">
-        <v>33.36759296626725</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>28.01186443854233</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4.929165770612352</v>
+        <v>4.614803400394297</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.74987604135851</v>
       </c>
       <c r="L4">
-        <v>9.339215673493243</v>
+        <v>8.932268306551389</v>
       </c>
       <c r="M4">
-        <v>13.70647348673847</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>17.45734980360814</v>
+      </c>
+      <c r="O4">
+        <v>35.64914799896465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.33562745071378</v>
+        <v>24.56650518204479</v>
       </c>
       <c r="C5">
-        <v>15.94891176950655</v>
+        <v>10.65489482734464</v>
       </c>
       <c r="D5">
-        <v>6.561686556844936</v>
+        <v>8.199155487237464</v>
       </c>
       <c r="E5">
-        <v>6.405008817885303</v>
+        <v>7.221914521640406</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>31.35058963700111</v>
+        <v>2.17624952610472</v>
       </c>
       <c r="H5">
-        <v>32.92320967265178</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>27.7118364454584</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4.930573647325853</v>
+        <v>4.615222603914137</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.47236563560826</v>
       </c>
       <c r="L5">
-        <v>9.221864863332929</v>
+        <v>8.891038570381268</v>
       </c>
       <c r="M5">
-        <v>13.4931860889654</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>17.49420302593758</v>
+      </c>
+      <c r="O5">
+        <v>35.43361808686728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.26536449330841</v>
+        <v>24.50754971418137</v>
       </c>
       <c r="C6">
-        <v>15.88714054210958</v>
+        <v>10.61611936340801</v>
       </c>
       <c r="D6">
-        <v>6.54483094168791</v>
+        <v>8.19292179141063</v>
       </c>
       <c r="E6">
-        <v>6.40218349985232</v>
+        <v>7.222997509005546</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>31.26563063838444</v>
+        <v>2.176806170009809</v>
       </c>
       <c r="H6">
-        <v>32.84936162552317</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>27.66210017992645</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>4.93081108945416</v>
+        <v>4.615296270968519</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.42618530883562</v>
       </c>
       <c r="L6">
-        <v>9.202378576236708</v>
+        <v>8.884270070435619</v>
       </c>
       <c r="M6">
-        <v>13.45766044709824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>17.50040098899496</v>
+      </c>
+      <c r="O6">
+        <v>35.3981579543027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.74889437078991</v>
+        <v>24.91593532849921</v>
       </c>
       <c r="C7">
-        <v>16.31237487781245</v>
+        <v>10.89512937822927</v>
       </c>
       <c r="D7">
-        <v>6.661559726150284</v>
+        <v>8.23660931057837</v>
       </c>
       <c r="E7">
-        <v>6.422091315184042</v>
+        <v>7.215724066075414</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>31.853731074576</v>
+        <v>2.172958644501943</v>
       </c>
       <c r="H7">
-        <v>33.36160398384217</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>28.00781266656583</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.92918450958401</v>
+        <v>4.614808779964996</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.74614034055837</v>
       </c>
       <c r="L7">
-        <v>9.337633127217732</v>
+        <v>8.931707052265981</v>
       </c>
       <c r="M7">
-        <v>13.70360449038409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>17.45784152460485</v>
+      </c>
+      <c r="O7">
+        <v>35.64621921970069</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.78107598589188</v>
+        <v>26.69499243383214</v>
       </c>
       <c r="C8">
-        <v>18.10326901992202</v>
+        <v>12.07825695713036</v>
       </c>
       <c r="D8">
-        <v>7.169471868138307</v>
+        <v>8.439851986022122</v>
       </c>
       <c r="E8">
-        <v>6.51754667748342</v>
+        <v>7.189789254203856</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>34.40713127366013</v>
+        <v>2.156356202197009</v>
       </c>
       <c r="H8">
-        <v>35.61162348985494</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.54467507752993</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.922567710702531</v>
+        <v>4.613268832878735</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>21.14152177748887</v>
       </c>
       <c r="L8">
-        <v>9.933768250710875</v>
+        <v>9.15242438238506</v>
       </c>
       <c r="M8">
-        <v>15.13896050787452</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>17.28180298611481</v>
+      </c>
+      <c r="O8">
+        <v>36.78915107877886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.4199089289114</v>
+        <v>30.08417849884136</v>
       </c>
       <c r="C9">
-        <v>21.32601489095791</v>
+        <v>14.20178847449893</v>
       </c>
       <c r="D9">
-        <v>8.13659244709215</v>
+        <v>8.877065376503451</v>
       </c>
       <c r="E9">
-        <v>6.734739027932967</v>
+        <v>7.16246288194059</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>39.25683405789779</v>
+        <v>2.124881321214316</v>
       </c>
       <c r="H9">
-        <v>39.97763797472638</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>32.59654562858885</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>4.911939766585517</v>
+        <v>4.612684067001213</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>23.80539492438215</v>
       </c>
       <c r="L9">
-        <v>11.09619431926228</v>
+        <v>9.627327334015897</v>
       </c>
       <c r="M9">
-        <v>17.74022836599711</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>16.98287727032822</v>
+      </c>
+      <c r="O9">
+        <v>39.21066178623025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.90305748008627</v>
+        <v>32.50766573308643</v>
       </c>
       <c r="C10">
-        <v>23.53811095549026</v>
+        <v>15.6523837274128</v>
       </c>
       <c r="D10">
-        <v>8.829677493722837</v>
+        <v>9.223275148641489</v>
       </c>
       <c r="E10">
-        <v>6.915458874767633</v>
+        <v>7.158202437993817</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>42.73165744843029</v>
+        <v>2.102121102741642</v>
       </c>
       <c r="H10">
-        <v>43.16166233133985</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>34.86728928488239</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4.90597118711027</v>
+        <v>4.614012006412426</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.71376279275055</v>
       </c>
       <c r="L10">
-        <v>11.94591519679507</v>
+        <v>10.0034597366598</v>
       </c>
       <c r="M10">
-        <v>19.51748504074861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>16.79606035534154</v>
+      </c>
+      <c r="O10">
+        <v>41.10895608704527</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.99691974443885</v>
+        <v>33.59650207570792</v>
       </c>
       <c r="C11">
-        <v>24.51619247955489</v>
+        <v>16.29127483519605</v>
       </c>
       <c r="D11">
-        <v>9.141893548935233</v>
+        <v>9.386664328888775</v>
       </c>
       <c r="E11">
-        <v>7.003015341346422</v>
+        <v>7.160071110174621</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.29830447388169</v>
+        <v>2.091768327059924</v>
       </c>
       <c r="H11">
-        <v>44.60909451361027</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>35.9097085772932</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4.903777028506748</v>
+        <v>4.615072807917931</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.57197089445472</v>
       </c>
       <c r="L11">
-        <v>12.33230553360535</v>
+        <v>10.1810005637916</v>
       </c>
       <c r="M11">
-        <v>20.30100553212102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>16.71945544952928</v>
+      </c>
+      <c r="O11">
+        <v>42.00151153453234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.40654894077491</v>
+        <v>34.00705714451425</v>
       </c>
       <c r="C12">
-        <v>24.88306448330354</v>
+        <v>16.53046104741881</v>
       </c>
       <c r="D12">
-        <v>9.259785703146676</v>
+        <v>9.449436376393166</v>
       </c>
       <c r="E12">
-        <v>7.037014341808853</v>
+        <v>7.161361726981191</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.8901885750147</v>
+        <v>2.087840508545366</v>
       </c>
       <c r="H12">
-        <v>45.15762755550392</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>36.30623444846057</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4.903034377102524</v>
+        <v>4.615547845946341</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.89568649120891</v>
       </c>
       <c r="L12">
-        <v>12.51271732580493</v>
+        <v>10.24921567067839</v>
       </c>
       <c r="M12">
-        <v>20.59451844191923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>16.69178041332852</v>
+      </c>
+      <c r="O12">
+        <v>42.34402388404299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.31852254294351</v>
+        <v>33.91871090437422</v>
       </c>
       <c r="C13">
-        <v>24.80419817778196</v>
+        <v>16.47906546807987</v>
       </c>
       <c r="D13">
-        <v>9.234408416422909</v>
+        <v>9.435876265113757</v>
       </c>
       <c r="E13">
-        <v>7.02965321351714</v>
+        <v>7.161057225526944</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.76276405375405</v>
+        <v>2.088686899086069</v>
       </c>
       <c r="H13">
-        <v>45.03946114479437</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>36.22074772086118</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4.903190149844439</v>
+        <v>4.615442139422687</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.82602153311829</v>
       </c>
       <c r="L13">
-        <v>12.47318147318052</v>
+        <v>10.2344794305852</v>
       </c>
       <c r="M13">
-        <v>20.53143994036505</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>16.69767913036975</v>
+      </c>
+      <c r="O13">
+        <v>42.27005002940196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.03070877560934</v>
+        <v>33.6303125203677</v>
       </c>
       <c r="C14">
-        <v>24.54644203677764</v>
+        <v>16.31100620119009</v>
       </c>
       <c r="D14">
-        <v>9.151598623027004</v>
+        <v>9.391810230335034</v>
       </c>
       <c r="E14">
-        <v>7.005795084878574</v>
+        <v>7.160165386032544</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.34702212112125</v>
+        <v>2.091445379916184</v>
       </c>
       <c r="H14">
-        <v>44.65421022125093</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>35.94229225423829</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4.903714074245417</v>
+        <v>4.615110370996469</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.59862738941381</v>
       </c>
       <c r="L14">
-        <v>12.3443486011158</v>
+        <v>10.18659253790147</v>
       </c>
       <c r="M14">
-        <v>20.3252144049369</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>16.71715106523013</v>
+      </c>
+      <c r="O14">
+        <v>42.02959727405229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.85383418125886</v>
+        <v>33.45343818973333</v>
       </c>
       <c r="C15">
-        <v>24.38812029576967</v>
+        <v>16.20771592990049</v>
       </c>
       <c r="D15">
-        <v>9.100835103875564</v>
+        <v>9.364937538710802</v>
       </c>
       <c r="E15">
-        <v>6.991293547312594</v>
+        <v>7.159696164030366</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>44.09221258702763</v>
+        <v>2.093133814395266</v>
       </c>
       <c r="H15">
-        <v>44.41830816282248</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>35.77197784533811</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4.904046932149922</v>
+        <v>4.614916954587684</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.45918280944587</v>
       </c>
       <c r="L15">
-        <v>12.2813769246616</v>
+        <v>10.15739064692643</v>
       </c>
       <c r="M15">
-        <v>20.1984929711195</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>16.72925605104345</v>
+      </c>
+      <c r="O15">
+        <v>41.88291381039728</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.83089659396171</v>
+        <v>32.43624780518218</v>
       </c>
       <c r="C16">
-        <v>23.47366831306656</v>
+        <v>15.61023047886516</v>
       </c>
       <c r="D16">
-        <v>8.809219642543395</v>
+        <v>9.212720065111219</v>
       </c>
       <c r="E16">
-        <v>6.909850509396448</v>
+        <v>7.158159859791883</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>42.62904128501832</v>
+        <v>2.102797077516229</v>
       </c>
       <c r="H16">
-        <v>43.06709287179252</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>34.79938785163153</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.906126132554802</v>
+        <v>4.61395249518658</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.65748871001631</v>
       </c>
       <c r="L16">
-        <v>11.92066997255095</v>
+        <v>9.99199118222406</v>
       </c>
       <c r="M16">
-        <v>19.46581059206011</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>16.80124578930108</v>
+      </c>
+      <c r="O16">
+        <v>41.05123696694207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.19456632778611</v>
+        <v>31.80885027756428</v>
       </c>
       <c r="C17">
-        <v>22.90581947744414</v>
+        <v>15.2384958343679</v>
       </c>
       <c r="D17">
-        <v>8.629598071881473</v>
+        <v>9.120882488504222</v>
       </c>
       <c r="E17">
-        <v>6.861306212115509</v>
+        <v>7.158216356772089</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.72822916163387</v>
+        <v>2.108720372552258</v>
       </c>
       <c r="H17">
-        <v>42.23824994553913</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>34.20541202966791</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4.907543628190087</v>
+        <v>4.613482844724941</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>25.16321917989313</v>
       </c>
       <c r="L17">
-        <v>11.69942039895973</v>
+        <v>9.892209138041824</v>
       </c>
       <c r="M17">
-        <v>19.01020541731426</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>16.84764021917267</v>
+      </c>
+      <c r="O17">
+        <v>40.54868002313761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.82516509332637</v>
+        <v>31.44668758782205</v>
       </c>
       <c r="C18">
-        <v>22.5765145361026</v>
+        <v>15.02268957592856</v>
       </c>
       <c r="D18">
-        <v>8.525986797252839</v>
+        <v>9.068611061690426</v>
       </c>
       <c r="E18">
-        <v>6.833882891361494</v>
+        <v>7.158604794116704</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.2087308568414</v>
+        <v>2.112127900957824</v>
       </c>
       <c r="H18">
-        <v>41.7613822754265</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>33.86462825397751</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4.908407014759177</v>
+        <v>4.613255171686355</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.87798022857949</v>
       </c>
       <c r="L18">
-        <v>11.57213875621581</v>
+        <v>9.835418563380671</v>
       </c>
       <c r="M18">
-        <v>18.74577642126586</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>16.87510487189656</v>
+      </c>
+      <c r="O18">
+        <v>40.26232729926104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.69949285534524</v>
+        <v>31.32383805005961</v>
       </c>
       <c r="C19">
-        <v>22.46453965087651</v>
+        <v>14.94927117137751</v>
       </c>
       <c r="D19">
-        <v>8.490852134364541</v>
+        <v>9.051006153380817</v>
       </c>
       <c r="E19">
-        <v>6.824681304584314</v>
+        <v>7.158796431797211</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.0325849920179</v>
+        <v>2.11328194865243</v>
       </c>
       <c r="H19">
-        <v>41.5998852281836</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>33.74938104814763</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4.90870724351478</v>
+        <v>4.613185165649345</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.78123701417541</v>
       </c>
       <c r="L19">
-        <v>11.52903622310368</v>
+        <v>9.816292021517507</v>
       </c>
       <c r="M19">
-        <v>18.65582588645647</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>16.88453428472914</v>
+      </c>
+      <c r="O19">
+        <v>40.16582861079098</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.262653077613</v>
+        <v>31.87577132063655</v>
       </c>
       <c r="C20">
-        <v>22.9665430059043</v>
+        <v>15.2782721970393</v>
       </c>
       <c r="D20">
-        <v>8.648749276104951</v>
+        <v>9.130601385270044</v>
       </c>
       <c r="E20">
-        <v>6.866421787582104</v>
+        <v>7.158173260163723</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.82426039661535</v>
+        <v>2.10808981635212</v>
       </c>
       <c r="H20">
-        <v>42.32649264232808</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>34.26855062578097</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>4.907387670491815</v>
+        <v>4.613528394406607</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>25.21593229216136</v>
       </c>
       <c r="L20">
-        <v>11.72297462846645</v>
+        <v>9.902768490212393</v>
       </c>
       <c r="M20">
-        <v>19.05894867464826</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>16.84261988191105</v>
+      </c>
+      <c r="O20">
+        <v>40.60189591127497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.11536649367877</v>
+        <v>33.71506787364775</v>
       </c>
       <c r="C21">
-        <v>24.62224155991004</v>
+        <v>16.36044149353646</v>
       </c>
       <c r="D21">
-        <v>9.175929984756854</v>
+        <v>9.40472857269928</v>
       </c>
       <c r="E21">
-        <v>7.012779249403877</v>
+        <v>7.160411212618784</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.46916656212296</v>
+        <v>2.09063541558189</v>
       </c>
       <c r="H21">
-        <v>44.76735076541638</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>36.02402879420953</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4.903557668461767</v>
+        <v>4.61520576116154</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.66545131063424</v>
       </c>
       <c r="L21">
-        <v>12.38195774563296</v>
+        <v>10.20063081293385</v>
       </c>
       <c r="M21">
-        <v>20.38587088051724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>16.71139435809335</v>
+      </c>
+      <c r="O21">
+        <v>42.10009810746026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.29977577884492</v>
+        <v>34.90704680524997</v>
       </c>
       <c r="C22">
-        <v>25.68422790076607</v>
+        <v>17.05184203753418</v>
       </c>
       <c r="D22">
-        <v>9.528849802365343</v>
+        <v>9.58916895890043</v>
       </c>
       <c r="E22">
-        <v>7.113392439723773</v>
+        <v>7.165291905743241</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>46.19023571053171</v>
+        <v>2.079180142948865</v>
       </c>
       <c r="H22">
-        <v>46.36547043019235</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>37.18204881641623</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4.901577464947557</v>
+        <v>4.616734089771596</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.61122567209292</v>
       </c>
       <c r="L22">
-        <v>12.91420941873866</v>
+        <v>10.40107853391371</v>
       </c>
       <c r="M22">
-        <v>21.23473826331533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>16.63348038547877</v>
+      </c>
+      <c r="O22">
+        <v>43.10584874457988</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.6698486633802</v>
+        <v>34.2716961601422</v>
       </c>
       <c r="C23">
-        <v>25.11905778468433</v>
+        <v>16.68417882422909</v>
       </c>
       <c r="D23">
-        <v>9.335831244989384</v>
+        <v>9.490224923248627</v>
       </c>
       <c r="E23">
-        <v>7.059211151053843</v>
+        <v>7.162361253655797</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>45.27208509214896</v>
+        <v>2.085301234440034</v>
       </c>
       <c r="H23">
-        <v>45.51201776223895</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>36.56282940102217</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4.902581211949682</v>
+        <v>4.615875948230717</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>27.10438396261407</v>
       </c>
       <c r="L23">
-        <v>12.63100767773187</v>
+        <v>10.2935430578964</v>
       </c>
       <c r="M23">
-        <v>20.78321071177439</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>16.67429784412004</v>
+      </c>
+      <c r="O23">
+        <v>42.56648570554029</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.23188220669505</v>
+        <v>31.84552088879578</v>
       </c>
       <c r="C24">
-        <v>22.93909878811375</v>
+        <v>15.26029583649633</v>
       </c>
       <c r="D24">
-        <v>8.640092096801768</v>
+        <v>9.126205833586258</v>
       </c>
       <c r="E24">
-        <v>6.864107529277069</v>
+        <v>7.158191638043719</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.78084973440679</v>
+        <v>2.108374883565923</v>
       </c>
       <c r="H24">
-        <v>42.28659926424695</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>34.24000351362662</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4.907458029002218</v>
+        <v>4.613507670087836</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>25.19210405882928</v>
       </c>
       <c r="L24">
-        <v>11.71232602623938</v>
+        <v>9.897992818880654</v>
       </c>
       <c r="M24">
-        <v>19.03691965017617</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>16.84488711935225</v>
+      </c>
+      <c r="O24">
+        <v>40.57782901600159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.4705981711936</v>
+        <v>29.17893190828176</v>
       </c>
       <c r="C25">
-        <v>20.48317708431452</v>
+        <v>13.64739232936644</v>
       </c>
       <c r="D25">
-        <v>7.878152806824479</v>
+        <v>8.75452397910753</v>
       </c>
       <c r="E25">
-        <v>6.672495290393993</v>
+        <v>7.167193276851953</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>37.96149144911993</v>
+        <v>2.133308512499751</v>
       </c>
       <c r="H25">
-        <v>38.80151689474865</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>31.7666350034271</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4.914526468852614</v>
+        <v>4.612555916478044</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>23.09326222713392</v>
       </c>
       <c r="L25">
-        <v>10.78260110769184</v>
+        <v>9.494211833290535</v>
       </c>
       <c r="M25">
-        <v>17.06126358867884</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>17.05835932781776</v>
+      </c>
+      <c r="O25">
+        <v>38.53547494314697</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>27.17072153947061</v>
+        <v>13.12993979380437</v>
       </c>
       <c r="C2">
-        <v>12.38519271888365</v>
+        <v>8.547239825355922</v>
       </c>
       <c r="D2">
-        <v>8.497495030248354</v>
+        <v>7.044795757356575</v>
       </c>
       <c r="E2">
-        <v>7.184305131955533</v>
+        <v>8.389458022454335</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.151940756747887</v>
+        <v>27.31994223500631</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.24721326450424</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.613007649600636</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.51503513019414</v>
+        <v>11.11621778233484</v>
       </c>
       <c r="L2">
-        <v>9.215030123028335</v>
+        <v>6.190990103525314</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.461161712149982</v>
       </c>
       <c r="N2">
-        <v>17.23709173010684</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>37.11076063277405</v>
+        <v>17.23679565841829</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.78368505807874</v>
+        <v>12.25120420826562</v>
       </c>
       <c r="C3">
-        <v>11.47984013591204</v>
+        <v>8.579077728046007</v>
       </c>
       <c r="D3">
-        <v>8.333217219248439</v>
+        <v>6.560185199513595</v>
       </c>
       <c r="E3">
-        <v>7.201958207873822</v>
+        <v>8.412014632958268</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.164836085536427</v>
+        <v>27.07700146100197</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.30811629602596</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.613943161895947</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>20.42645129785828</v>
+        <v>10.55246741139171</v>
       </c>
       <c r="L3">
-        <v>9.036615902344295</v>
+        <v>6.112033086110047</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.131020450593663</v>
       </c>
       <c r="N3">
-        <v>17.37016338989381</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>36.19148216982505</v>
+        <v>17.25821635834652</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.92070242768047</v>
+        <v>11.67977599402754</v>
       </c>
       <c r="C4">
-        <v>10.89838655257173</v>
+        <v>8.599923028378889</v>
       </c>
       <c r="D4">
-        <v>8.237126185790968</v>
+        <v>6.259416762903526</v>
       </c>
       <c r="E4">
-        <v>7.215642269103995</v>
+        <v>8.430068188201274</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.172913840844282</v>
+        <v>26.95362344820683</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.35130029083943</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.614803400394297</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>19.74987604135851</v>
+        <v>10.1900712096739</v>
       </c>
       <c r="L4">
-        <v>8.932268306551389</v>
+        <v>6.065763605442762</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>8.92575028132423</v>
       </c>
       <c r="N4">
-        <v>17.45734980360814</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>35.64914799896465</v>
+        <v>17.2842953301081</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.56650518204479</v>
+        <v>11.43885362640987</v>
       </c>
       <c r="C5">
-        <v>10.65489482734464</v>
+        <v>8.608741972044502</v>
       </c>
       <c r="D5">
-        <v>8.199155487237464</v>
+        <v>6.147403269733783</v>
       </c>
       <c r="E5">
-        <v>7.221914521640406</v>
+        <v>8.438456431867184</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.17624952610472</v>
+        <v>26.90966075176264</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.37030769792649</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.615222603914137</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>19.47236563560826</v>
+        <v>10.03838381529301</v>
       </c>
       <c r="L5">
-        <v>8.891038570381268</v>
+        <v>6.047473344435927</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8.841578842144164</v>
       </c>
       <c r="N5">
-        <v>17.49420302593758</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>35.43361808686728</v>
+        <v>17.29805647179761</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.50754971418137</v>
+        <v>11.39836054208858</v>
       </c>
       <c r="C6">
-        <v>10.61611936340801</v>
+        <v>8.610225891101333</v>
       </c>
       <c r="D6">
-        <v>8.19292179141063</v>
+        <v>6.128652030351025</v>
       </c>
       <c r="E6">
-        <v>7.222997509005546</v>
+        <v>8.439910832184649</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.176806170009809</v>
+        <v>26.90273688227985</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.3735476837734</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.615296270968519</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>19.42618530883562</v>
+        <v>10.01295681503173</v>
       </c>
       <c r="L6">
-        <v>8.884270070435619</v>
+        <v>6.044470623694142</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>8.82757447287004</v>
       </c>
       <c r="N6">
-        <v>17.50040098899496</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>35.3981579543027</v>
+        <v>17.30052736551662</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.91593532849921</v>
+        <v>11.67655952579176</v>
       </c>
       <c r="C7">
-        <v>10.89512937822927</v>
+        <v>8.600040652766545</v>
       </c>
       <c r="D7">
-        <v>8.23660931057837</v>
+        <v>6.257916336528711</v>
       </c>
       <c r="E7">
-        <v>7.215724066075414</v>
+        <v>8.430177173208644</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.172958644501943</v>
+        <v>26.95300522029432</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.3515509836899</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.614808779964996</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>19.74614034055837</v>
+        <v>10.18804161183017</v>
       </c>
       <c r="L7">
-        <v>8.931707052265981</v>
+        <v>6.065514638039944</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>8.92461706110053</v>
       </c>
       <c r="N7">
-        <v>17.45784152460485</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>35.64621921970069</v>
+        <v>17.28446838312244</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>26.69499243383214</v>
+        <v>12.8335417214916</v>
       </c>
       <c r="C8">
-        <v>12.07825695713036</v>
+        <v>8.557947294614703</v>
       </c>
       <c r="D8">
-        <v>8.439851986022122</v>
+        <v>6.881203185815983</v>
       </c>
       <c r="E8">
-        <v>7.189789254203856</v>
+        <v>8.396347450142635</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.156356202197009</v>
+        <v>27.23072698697028</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.26698269890994</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.613268832878735</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>21.14152177748887</v>
+        <v>10.92525127008749</v>
       </c>
       <c r="L8">
-        <v>9.15242438238506</v>
+        <v>6.163312723441909</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.347930694710453</v>
       </c>
       <c r="N8">
-        <v>17.28180298611481</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>36.78915107877886</v>
+        <v>17.24142827158477</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>30.08417849884136</v>
+        <v>14.8514753956016</v>
       </c>
       <c r="C9">
-        <v>14.20178847449893</v>
+        <v>8.48577908654266</v>
       </c>
       <c r="D9">
-        <v>8.877065376503451</v>
+        <v>7.997765013338228</v>
       </c>
       <c r="E9">
-        <v>7.16246288194059</v>
+        <v>8.364533838634967</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.124881321214316</v>
+        <v>27.98664855875823</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>10.14924713349829</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.612684067001213</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>23.80539492438215</v>
+        <v>12.23938000238451</v>
       </c>
       <c r="L9">
-        <v>9.627327334015897</v>
+        <v>6.372191369425351</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.15291796343053</v>
       </c>
       <c r="N9">
-        <v>16.98287727032822</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>39.21066178623025</v>
+        <v>17.2648228560515</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.50766573308643</v>
+        <v>16.18403809877374</v>
       </c>
       <c r="C10">
-        <v>15.6523837274128</v>
+        <v>8.439219387292814</v>
       </c>
       <c r="D10">
-        <v>9.223275148641489</v>
+        <v>8.738848713828848</v>
       </c>
       <c r="E10">
-        <v>7.158202437993817</v>
+        <v>8.36384124967133</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.102121102741642</v>
+        <v>28.67870744980383</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>10.09519781369206</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.614012006412426</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.71376279275055</v>
+        <v>13.12224331022496</v>
       </c>
       <c r="L10">
-        <v>10.0034597366598</v>
+        <v>6.535447916439107</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.72341197271121</v>
       </c>
       <c r="N10">
-        <v>16.79606035534154</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>41.10895608704527</v>
+        <v>17.35486685003049</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.59650207570792</v>
+        <v>16.7583431309533</v>
       </c>
       <c r="C11">
-        <v>16.29127483519605</v>
+        <v>8.41947606723333</v>
       </c>
       <c r="D11">
-        <v>9.386664328888775</v>
+        <v>9.059208652743649</v>
       </c>
       <c r="E11">
-        <v>7.160071110174621</v>
+        <v>8.368808906519824</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.091768327059924</v>
+        <v>29.02454651782466</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>10.07837527270486</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.615072807917931</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>26.57197089445472</v>
+        <v>13.50566795680671</v>
       </c>
       <c r="L11">
-        <v>10.1810005637916</v>
+        <v>6.611704045710494</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>10.97897657763916</v>
       </c>
       <c r="N11">
-        <v>16.71945544952928</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>42.00151153453234</v>
+        <v>17.41316646263485</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.00705714451425</v>
+        <v>16.97128768007396</v>
       </c>
       <c r="C12">
-        <v>16.53046104741881</v>
+        <v>8.412209727304534</v>
       </c>
       <c r="D12">
-        <v>9.449436376393166</v>
+        <v>9.178146155253476</v>
       </c>
       <c r="E12">
-        <v>7.161361726981191</v>
+        <v>8.371479517871217</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.087840508545366</v>
+        <v>29.1600526594957</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>10.07318421431304</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.615547845946341</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>26.89568649120891</v>
+        <v>13.64823403223199</v>
       </c>
       <c r="L12">
-        <v>10.24921567067839</v>
+        <v>6.64085452402655</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.10811594791899</v>
       </c>
       <c r="N12">
-        <v>16.69178041332852</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>42.34402388404299</v>
+        <v>17.43785889200527</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.91871090437422</v>
+        <v>16.92562697974572</v>
       </c>
       <c r="C13">
-        <v>16.47906546807987</v>
+        <v>8.413765265029138</v>
       </c>
       <c r="D13">
-        <v>9.435876265113757</v>
+        <v>9.152635939043732</v>
       </c>
       <c r="E13">
-        <v>7.161057225526944</v>
+        <v>8.370868763236821</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.088686899086069</v>
+        <v>29.13066567272225</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>10.0742487271593</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.615442139422687</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>26.82602153311829</v>
+        <v>13.61764688710459</v>
       </c>
       <c r="L13">
-        <v>10.2344794305852</v>
+        <v>6.63456445302829</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.08041589378646</v>
       </c>
       <c r="N13">
-        <v>16.69767913036975</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>42.27005002940196</v>
+        <v>17.43242267129381</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.6303125203677</v>
+        <v>16.77595273354896</v>
       </c>
       <c r="C14">
-        <v>16.31100620119009</v>
+        <v>8.418874031197586</v>
       </c>
       <c r="D14">
-        <v>9.391810230335034</v>
+        <v>9.069041125901109</v>
       </c>
       <c r="E14">
-        <v>7.160165386032544</v>
+        <v>8.369012625044789</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.091445379916184</v>
+        <v>29.035603177875</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>10.07792419846259</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.615110370996469</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>26.59862738941381</v>
+        <v>13.51744967333205</v>
       </c>
       <c r="L14">
-        <v>10.18659253790147</v>
+        <v>6.614096851333354</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>10.98965163772229</v>
       </c>
       <c r="N14">
-        <v>16.71715106523013</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>42.02959727405229</v>
+        <v>17.41514480659204</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>33.45343818973333</v>
+        <v>16.68368428829037</v>
       </c>
       <c r="C15">
-        <v>16.20771592990049</v>
+        <v>8.422030756096454</v>
       </c>
       <c r="D15">
-        <v>9.364937538710802</v>
+        <v>9.017528529814339</v>
       </c>
       <c r="E15">
-        <v>7.159696164030366</v>
+        <v>8.367979390355252</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.093133814395266</v>
+        <v>28.97796874059128</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>10.08033101203915</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.614916954587684</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>26.45918280944587</v>
+        <v>13.45573345683167</v>
       </c>
       <c r="L15">
-        <v>10.15739064692643</v>
+        <v>6.601595174103434</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>10.94416170084023</v>
       </c>
       <c r="N15">
-        <v>16.72925605104345</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>41.88291381039728</v>
+        <v>17.40490585610599</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.43624780518218</v>
+        <v>16.14586877859967</v>
       </c>
       <c r="C16">
-        <v>15.61023047886516</v>
+        <v>8.440538857516463</v>
       </c>
       <c r="D16">
-        <v>9.212720065111219</v>
+        <v>8.717578061365483</v>
       </c>
       <c r="E16">
-        <v>7.158159859791883</v>
+        <v>8.363625443689431</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.102797077516229</v>
+        <v>28.65673770423137</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>10.09645875519047</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.61395249518658</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>25.65748871001631</v>
+        <v>13.0968182555245</v>
       </c>
       <c r="L16">
-        <v>9.99199118222406</v>
+        <v>6.530503388354261</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.70669404073785</v>
       </c>
       <c r="N16">
-        <v>16.80124578930108</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>41.05123696694207</v>
+        <v>17.35141621978457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31.80885027756428</v>
+        <v>15.80780693118183</v>
       </c>
       <c r="C17">
-        <v>15.2384958343679</v>
+        <v>8.452263326544159</v>
       </c>
       <c r="D17">
-        <v>9.120882488504222</v>
+        <v>8.529299089121412</v>
       </c>
       <c r="E17">
-        <v>7.158216356772089</v>
+        <v>8.362328564835659</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.108720372552258</v>
+        <v>28.46768144662733</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>10.10838515212686</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.613482844724941</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>25.16321917989313</v>
+        <v>12.87196400081045</v>
       </c>
       <c r="L17">
-        <v>9.892209138041824</v>
+        <v>6.487391741498984</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.55955920160886</v>
       </c>
       <c r="N17">
-        <v>16.84764021917267</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>40.54868002313761</v>
+        <v>17.32313033717916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.44668758782205</v>
+        <v>15.61035833393999</v>
       </c>
       <c r="C18">
-        <v>15.02268957592856</v>
+        <v>8.459141958378579</v>
       </c>
       <c r="D18">
-        <v>9.068611061690426</v>
+        <v>8.419426078006316</v>
       </c>
       <c r="E18">
-        <v>7.158604794116704</v>
+        <v>8.362078062287491</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.112127900957824</v>
+        <v>28.3618567641809</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>10.11597184726931</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.613255171686355</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>24.87798022857949</v>
+        <v>12.74092139722456</v>
       </c>
       <c r="L18">
-        <v>9.835418563380671</v>
+        <v>6.462783078604349</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.4744177977358</v>
       </c>
       <c r="N18">
-        <v>16.87510487189656</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>40.26232729926104</v>
+        <v>17.30848575653518</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.32383805005961</v>
+        <v>15.54298805335438</v>
       </c>
       <c r="C19">
-        <v>14.94927117137751</v>
+        <v>8.461494037610475</v>
       </c>
       <c r="D19">
-        <v>9.051006153380817</v>
+        <v>8.381952574587809</v>
       </c>
       <c r="E19">
-        <v>7.158796431797211</v>
+        <v>8.362077434292649</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.11328194865243</v>
+        <v>28.32652429839803</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>10.11866355694016</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.613185165649345</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>24.78123701417541</v>
+        <v>12.69625903127993</v>
       </c>
       <c r="L19">
-        <v>9.816292021517507</v>
+        <v>6.454483678316969</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.44550440329085</v>
       </c>
       <c r="N19">
-        <v>16.88453428472914</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>40.16582861079098</v>
+        <v>17.30380264476887</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31.87577132063655</v>
+        <v>15.84410475631454</v>
       </c>
       <c r="C20">
-        <v>15.2782721970393</v>
+        <v>8.451001238378945</v>
       </c>
       <c r="D20">
-        <v>9.130601385270044</v>
+        <v>8.549504976389589</v>
       </c>
       <c r="E20">
-        <v>7.158173260163723</v>
+        <v>8.362415130130586</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.10808981635212</v>
+        <v>28.48750441630036</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>10.10703988449069</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.613528394406607</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>25.21593229216136</v>
+        <v>12.89607746034021</v>
       </c>
       <c r="L20">
-        <v>9.902768490212393</v>
+        <v>6.491961680694567</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.57527559709258</v>
       </c>
       <c r="N20">
-        <v>16.84261988191105</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>40.60189591127497</v>
+        <v>17.32597237479439</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>33.71506787364775</v>
+        <v>16.82003826500384</v>
       </c>
       <c r="C21">
-        <v>16.36044149353646</v>
+        <v>8.417367733967993</v>
       </c>
       <c r="D21">
-        <v>9.40472857269928</v>
+        <v>9.093659147227326</v>
       </c>
       <c r="E21">
-        <v>7.160411212618784</v>
+        <v>8.369536152350534</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.09063541558189</v>
+        <v>29.06340139786022</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>10.0768121057778</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.61520576116154</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>26.66545131063424</v>
+        <v>13.5469514169854</v>
       </c>
       <c r="L21">
-        <v>10.20063081293385</v>
+        <v>6.620101342594227</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.01637993424918</v>
       </c>
       <c r="N21">
-        <v>16.71139435809335</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>42.10009810746026</v>
+        <v>17.42014777855488</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.90704680524997</v>
+        <v>17.43147520133229</v>
       </c>
       <c r="C22">
-        <v>17.05184203753418</v>
+        <v>8.396612304583281</v>
       </c>
       <c r="D22">
-        <v>9.58916895890043</v>
+        <v>9.435463984012554</v>
       </c>
       <c r="E22">
-        <v>7.165291905743241</v>
+        <v>8.378805884893042</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.079180142948865</v>
+        <v>29.46630196926394</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>10.06396114264903</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.616734089771596</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>27.61122567209292</v>
+        <v>13.95701418771845</v>
       </c>
       <c r="L22">
-        <v>10.40107853391371</v>
+        <v>6.705439451195456</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.38756555909918</v>
       </c>
       <c r="N22">
-        <v>16.63348038547877</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>43.10584874457988</v>
+        <v>17.49699844769181</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>34.2716961601422</v>
+        <v>17.10753682134587</v>
       </c>
       <c r="C23">
-        <v>16.68417882422909</v>
+        <v>8.407576479490517</v>
       </c>
       <c r="D23">
-        <v>9.490224923248627</v>
+        <v>9.254290135439561</v>
       </c>
       <c r="E23">
-        <v>7.162361253655797</v>
+        <v>8.373426161727743</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.085301234440034</v>
+        <v>29.2488153519761</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>10.07016678013198</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.615875948230717</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>27.10438396261407</v>
+        <v>13.73955976184702</v>
       </c>
       <c r="L23">
-        <v>10.2935430578964</v>
+        <v>6.659751183948403</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.19080128045997</v>
       </c>
       <c r="N23">
-        <v>16.67429784412004</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>42.56648570554029</v>
+        <v>17.45454165085349</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31.84552088879578</v>
+        <v>15.82770414547738</v>
       </c>
       <c r="C24">
-        <v>15.26029583649633</v>
+        <v>8.451571398608468</v>
       </c>
       <c r="D24">
-        <v>9.126205833586258</v>
+        <v>8.540374971088832</v>
       </c>
       <c r="E24">
-        <v>7.158191638043719</v>
+        <v>8.362374454118033</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.108374883565923</v>
+        <v>28.4785335303941</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>10.10764581076098</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.613507670087836</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>25.19210405882928</v>
+        <v>12.8851812802188</v>
       </c>
       <c r="L24">
-        <v>9.897992818880654</v>
+        <v>6.489895059566934</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.56817192775038</v>
       </c>
       <c r="N24">
-        <v>16.84488711935225</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>40.57782901600159</v>
+        <v>17.32468246119637</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>29.17893190828176</v>
+        <v>14.33213306253181</v>
       </c>
       <c r="C25">
-        <v>13.64739232936644</v>
+        <v>8.504178458087267</v>
       </c>
       <c r="D25">
-        <v>8.75452397910753</v>
+        <v>7.709765795967296</v>
       </c>
       <c r="E25">
-        <v>7.167193276851953</v>
+        <v>8.369276768964964</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.133308512499751</v>
+        <v>27.75864878678719</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.17563391756309</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.612555916478044</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>23.09326222713392</v>
+        <v>11.89825597305725</v>
       </c>
       <c r="L25">
-        <v>9.494211833290535</v>
+        <v>6.313916818206058</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>9.93846121075963</v>
       </c>
       <c r="N25">
-        <v>17.05835932781776</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>38.53547494314697</v>
+        <v>17.24621470108433</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.12993979380437</v>
+        <v>11.75984487686059</v>
       </c>
       <c r="C2">
-        <v>8.547239825355922</v>
+        <v>11.25766534996142</v>
       </c>
       <c r="D2">
-        <v>7.044795757356575</v>
+        <v>6.003545107623809</v>
       </c>
       <c r="E2">
-        <v>8.389458022454335</v>
+        <v>13.43050152248331</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.31994223500631</v>
+        <v>36.61453259059855</v>
       </c>
       <c r="H2">
-        <v>10.24721326450424</v>
+        <v>16.33255314349849</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.11621778233484</v>
+        <v>8.163292196487014</v>
       </c>
       <c r="L2">
-        <v>6.190990103525314</v>
+        <v>9.944229855399318</v>
       </c>
       <c r="M2">
-        <v>9.461161712149982</v>
+        <v>13.81078491062013</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.23679565841829</v>
+        <v>25.8940832894901</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.25120420826562</v>
+        <v>11.53013456289844</v>
       </c>
       <c r="C3">
-        <v>8.579077728046007</v>
+        <v>11.26755525584063</v>
       </c>
       <c r="D3">
-        <v>6.560185199513595</v>
+        <v>5.887808091363695</v>
       </c>
       <c r="E3">
-        <v>8.412014632958268</v>
+        <v>13.46358376077121</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.07700146100197</v>
+        <v>36.69210125673893</v>
       </c>
       <c r="H3">
-        <v>10.30811629602596</v>
+        <v>16.38002733073477</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.55246741139171</v>
+        <v>7.980981521310334</v>
       </c>
       <c r="L3">
-        <v>6.112033086110047</v>
+        <v>9.951702718769191</v>
       </c>
       <c r="M3">
-        <v>9.131020450593663</v>
+        <v>13.77837831260453</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.25821635834652</v>
+        <v>25.96953070275308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.67977599402754</v>
+        <v>11.38884136864393</v>
       </c>
       <c r="C4">
-        <v>8.599923028378889</v>
+        <v>11.27417789836512</v>
       </c>
       <c r="D4">
-        <v>6.259416762903526</v>
+        <v>5.817322312425629</v>
       </c>
       <c r="E4">
-        <v>8.430068188201274</v>
+        <v>13.48574196875131</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.95362344820683</v>
+        <v>36.74940450299063</v>
       </c>
       <c r="H4">
-        <v>10.35130029083943</v>
+        <v>16.41157924747806</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.1900712096739</v>
+        <v>7.868044384719405</v>
       </c>
       <c r="L4">
-        <v>6.065763605442762</v>
+        <v>9.957612756420435</v>
       </c>
       <c r="M4">
-        <v>8.92575028132423</v>
+        <v>13.76042088930586</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.2842953301081</v>
+        <v>26.02077372946392</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.43885362640987</v>
+        <v>11.33128010793875</v>
       </c>
       <c r="C5">
-        <v>8.608741972044502</v>
+        <v>11.27701547338697</v>
       </c>
       <c r="D5">
-        <v>6.147403269733783</v>
+        <v>5.788788126726148</v>
       </c>
       <c r="E5">
-        <v>8.438456431867184</v>
+        <v>13.49523592726935</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.90966075176264</v>
+        <v>36.77518212331665</v>
       </c>
       <c r="H5">
-        <v>10.37030769792649</v>
+        <v>16.42504110842975</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.03838381529301</v>
+        <v>7.821835246801857</v>
       </c>
       <c r="L5">
-        <v>6.047473344435927</v>
+        <v>9.960354030462163</v>
       </c>
       <c r="M5">
-        <v>8.841578842144164</v>
+        <v>13.75359627839503</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.29805647179761</v>
+        <v>26.04289066905024</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.39836054208858</v>
+        <v>11.32172548606094</v>
       </c>
       <c r="C6">
-        <v>8.610225891101333</v>
+        <v>11.27749504641391</v>
       </c>
       <c r="D6">
-        <v>6.128652030351025</v>
+        <v>5.784062780616382</v>
       </c>
       <c r="E6">
-        <v>8.439910832184649</v>
+        <v>13.49684044129009</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.90273688227985</v>
+        <v>36.7796087880248</v>
       </c>
       <c r="H6">
-        <v>10.3735476837734</v>
+        <v>16.42731293379129</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.01295681503173</v>
+        <v>7.814152932158462</v>
       </c>
       <c r="L6">
-        <v>6.044470623694142</v>
+        <v>9.960829336984659</v>
       </c>
       <c r="M6">
-        <v>8.82757447287004</v>
+        <v>13.75249299083396</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.30052736551662</v>
+        <v>26.04663770953776</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67655952579176</v>
+        <v>11.38806490246525</v>
       </c>
       <c r="C7">
-        <v>8.600040652766545</v>
+        <v>11.27421560433277</v>
       </c>
       <c r="D7">
-        <v>6.257916336528711</v>
+        <v>5.816936665128004</v>
       </c>
       <c r="E7">
-        <v>8.430177173208644</v>
+        <v>13.48586812733572</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.95300522029432</v>
+        <v>36.74974233568998</v>
       </c>
       <c r="H7">
-        <v>10.3515509836899</v>
+        <v>16.41175835240531</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.18804161183017</v>
+        <v>7.867421859599949</v>
       </c>
       <c r="L7">
-        <v>6.065514638039944</v>
+        <v>9.957648377688585</v>
       </c>
       <c r="M7">
-        <v>8.92461706110053</v>
+        <v>13.76032684664346</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.28446838312244</v>
+        <v>26.02106700811865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.8335417214916</v>
+        <v>11.68073997079394</v>
       </c>
       <c r="C8">
-        <v>8.557947294614703</v>
+        <v>11.26096145994407</v>
       </c>
       <c r="D8">
-        <v>6.881203185815983</v>
+        <v>5.963545564203976</v>
       </c>
       <c r="E8">
-        <v>8.396347450142635</v>
+        <v>13.44152536585524</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.23072698697028</v>
+        <v>36.63926609865904</v>
       </c>
       <c r="H8">
-        <v>10.26698269890994</v>
+        <v>16.34842362281221</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.92525127008749</v>
+        <v>8.100676487973546</v>
       </c>
       <c r="L8">
-        <v>6.163312723441909</v>
+        <v>9.946532528010888</v>
       </c>
       <c r="M8">
-        <v>9.347930694710453</v>
+        <v>13.79921165794972</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.24142827158477</v>
+        <v>25.9190758379073</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.8514753956016</v>
+        <v>12.24928770342155</v>
       </c>
       <c r="C9">
-        <v>8.48577908654266</v>
+        <v>11.239316399204</v>
       </c>
       <c r="D9">
-        <v>7.997765013338228</v>
+        <v>6.253712474446947</v>
       </c>
       <c r="E9">
-        <v>8.364533838634967</v>
+        <v>13.36920309100168</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.98664855875823</v>
+        <v>36.49967452783036</v>
       </c>
       <c r="H9">
-        <v>10.14924713349829</v>
+        <v>16.24328530793875</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.23938000238451</v>
+        <v>8.547469410355896</v>
       </c>
       <c r="L9">
-        <v>6.372191369425351</v>
+        <v>9.935195797227211</v>
       </c>
       <c r="M9">
-        <v>10.15291796343053</v>
+        <v>13.8906149423153</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.2648228560515</v>
+        <v>25.75816627420974</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.18403809877374</v>
+        <v>12.65934234957739</v>
       </c>
       <c r="C10">
-        <v>8.439219387292814</v>
+        <v>11.22603755718194</v>
       </c>
       <c r="D10">
-        <v>8.738848713828848</v>
+        <v>6.466033415426374</v>
       </c>
       <c r="E10">
-        <v>8.36384124967133</v>
+        <v>13.32497494498386</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.67870744980383</v>
+        <v>36.44442202024636</v>
       </c>
       <c r="H10">
-        <v>10.09519781369206</v>
+        <v>16.17765664783385</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.12224331022496</v>
+        <v>8.865846460581373</v>
       </c>
       <c r="L10">
-        <v>6.535447916439107</v>
+        <v>9.9332075928361</v>
       </c>
       <c r="M10">
-        <v>10.72341197271121</v>
+        <v>13.96665558145867</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.35486685003049</v>
+        <v>25.6638744765734</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.7583431309533</v>
+        <v>12.84336162808595</v>
       </c>
       <c r="C11">
-        <v>8.41947606723333</v>
+        <v>11.22056097546352</v>
       </c>
       <c r="D11">
-        <v>9.059208652743649</v>
+        <v>6.561937210918146</v>
       </c>
       <c r="E11">
-        <v>8.368808906519824</v>
+        <v>13.30678528180057</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.02454651782466</v>
+        <v>36.42961088292196</v>
       </c>
       <c r="H11">
-        <v>10.07837527270486</v>
+        <v>16.15032210250898</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.50566795680671</v>
+        <v>9.007883942235797</v>
       </c>
       <c r="L11">
-        <v>6.611704045710494</v>
+        <v>9.933670812102156</v>
       </c>
       <c r="M11">
-        <v>10.97897657763916</v>
+        <v>14.00309668214421</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.41316646263485</v>
+        <v>25.62619304317847</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.97128768007396</v>
+        <v>12.91261612541975</v>
       </c>
       <c r="C12">
-        <v>8.412209727304534</v>
+        <v>11.21856780552615</v>
       </c>
       <c r="D12">
-        <v>9.178146155253476</v>
+        <v>6.598116345797635</v>
       </c>
       <c r="E12">
-        <v>8.371479517871217</v>
+        <v>13.30017458457236</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.1600526594957</v>
+        <v>36.42548947872058</v>
       </c>
       <c r="H12">
-        <v>10.07318421431304</v>
+        <v>16.14033360230207</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.64823403223199</v>
+        <v>9.061218323828852</v>
       </c>
       <c r="L12">
-        <v>6.64085452402655</v>
+        <v>9.934041974371976</v>
       </c>
       <c r="M12">
-        <v>11.10811594791899</v>
+        <v>14.01715455088374</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.43785889200527</v>
+        <v>25.61267495952634</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.92562697974572</v>
+        <v>12.89772107292905</v>
       </c>
       <c r="C13">
-        <v>8.413765265029138</v>
+        <v>11.21899348807164</v>
       </c>
       <c r="D13">
-        <v>9.152635939043732</v>
+        <v>6.590331245382942</v>
       </c>
       <c r="E13">
-        <v>8.370868763236821</v>
+        <v>13.30158598522643</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.13066567272225</v>
+        <v>36.42631091802006</v>
       </c>
       <c r="H13">
-        <v>10.0742487271593</v>
+        <v>16.14246868097375</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.61764688710459</v>
+        <v>9.049752682248558</v>
       </c>
       <c r="L13">
-        <v>6.63456445302829</v>
+        <v>9.933953347257027</v>
       </c>
       <c r="M13">
-        <v>11.08041589378646</v>
+        <v>14.01411556829536</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.43242267129381</v>
+        <v>25.61555289427508</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77595273354896</v>
+        <v>12.84906822093311</v>
       </c>
       <c r="C14">
-        <v>8.418874031197586</v>
+        <v>11.22039538133356</v>
       </c>
       <c r="D14">
-        <v>9.069041125901109</v>
+        <v>6.564916665430053</v>
       </c>
       <c r="E14">
-        <v>8.369012625044789</v>
+        <v>13.30623585873264</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.035603177875</v>
+        <v>36.42924199365819</v>
       </c>
       <c r="H14">
-        <v>10.07792419846259</v>
+        <v>16.14949307708846</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.51744967333205</v>
+        <v>9.012281130798115</v>
       </c>
       <c r="L14">
-        <v>6.614096851333354</v>
+        <v>9.933697430221146</v>
       </c>
       <c r="M14">
-        <v>10.98965163772229</v>
+        <v>14.00424809698942</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.41514480659204</v>
+        <v>25.62506584170134</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68368428829037</v>
+        <v>12.81920905483675</v>
       </c>
       <c r="C15">
-        <v>8.422030756096454</v>
+        <v>11.22126457776186</v>
       </c>
       <c r="D15">
-        <v>9.017528529814339</v>
+        <v>6.549330452647768</v>
       </c>
       <c r="E15">
-        <v>8.367979390355252</v>
+        <v>13.3091201515979</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.97796874059128</v>
+        <v>36.43123111039716</v>
       </c>
       <c r="H15">
-        <v>10.08033101203915</v>
+        <v>16.15384293308544</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.45573345683167</v>
+        <v>8.98926841029359</v>
       </c>
       <c r="L15">
-        <v>6.601595174103434</v>
+        <v>9.933566137724448</v>
       </c>
       <c r="M15">
-        <v>10.94416170084023</v>
+        <v>13.99823740873758</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.40490585610599</v>
+        <v>25.63099064965311</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.14586877859967</v>
+        <v>12.64725973599892</v>
       </c>
       <c r="C16">
-        <v>8.440538857516463</v>
+        <v>11.22640677894092</v>
       </c>
       <c r="D16">
-        <v>8.717578061365483</v>
+        <v>6.459748730263826</v>
       </c>
       <c r="E16">
-        <v>8.363625443689431</v>
+        <v>13.32620250177164</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.65673770423137</v>
+        <v>36.44559795589913</v>
       </c>
       <c r="H16">
-        <v>10.09645875519047</v>
+        <v>16.17949374647215</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.0968182555245</v>
+        <v>8.856503367672266</v>
       </c>
       <c r="L16">
-        <v>6.530503388354261</v>
+        <v>9.933204764573254</v>
       </c>
       <c r="M16">
-        <v>10.70669404073785</v>
+        <v>13.96431065145031</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.35141621978457</v>
+        <v>25.66644206627086</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.80780693118183</v>
+        <v>12.54108038674736</v>
       </c>
       <c r="C17">
-        <v>8.452263326544159</v>
+        <v>11.22970551893088</v>
       </c>
       <c r="D17">
-        <v>8.529299089121412</v>
+        <v>6.404589811904566</v>
       </c>
       <c r="E17">
-        <v>8.362328564835659</v>
+        <v>13.33717614496787</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.46768144662733</v>
+        <v>36.45705792020408</v>
       </c>
       <c r="H17">
-        <v>10.10838515212686</v>
+        <v>16.19587525414943</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.87196400081045</v>
+        <v>8.774303737523631</v>
       </c>
       <c r="L17">
-        <v>6.487391741498984</v>
+        <v>9.933332736620413</v>
       </c>
       <c r="M17">
-        <v>10.55955920160886</v>
+        <v>13.94396616956331</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.32313033717916</v>
+        <v>25.6895264997917</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.61035833393999</v>
+        <v>12.4797757588071</v>
       </c>
       <c r="C18">
-        <v>8.459141958378579</v>
+        <v>11.23165598069973</v>
       </c>
       <c r="D18">
-        <v>8.419426078006316</v>
+        <v>6.372801895688156</v>
       </c>
       <c r="E18">
-        <v>8.362078062287491</v>
+        <v>13.34366956199095</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.3618567641809</v>
+        <v>36.46462098482562</v>
       </c>
       <c r="H18">
-        <v>10.11597184726931</v>
+        <v>16.2055346781224</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.74092139722456</v>
+        <v>8.726764495838349</v>
       </c>
       <c r="L18">
-        <v>6.462783078604349</v>
+        <v>9.93353513334608</v>
       </c>
       <c r="M18">
-        <v>10.4744177977358</v>
+        <v>13.93243915076289</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.30848575653518</v>
+        <v>25.70329458546221</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54298805335438</v>
+        <v>12.45898116285258</v>
       </c>
       <c r="C19">
-        <v>8.461494037610475</v>
+        <v>11.23232550854564</v>
       </c>
       <c r="D19">
-        <v>8.381952574587809</v>
+        <v>6.362029647539716</v>
       </c>
       <c r="E19">
-        <v>8.362077434292649</v>
+        <v>13.34589932853806</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.32652429839803</v>
+        <v>36.467348481045</v>
       </c>
       <c r="H19">
-        <v>10.11866355694016</v>
+        <v>16.20884593205209</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.69625903127993</v>
+        <v>8.710625432946371</v>
       </c>
       <c r="L19">
-        <v>6.454483678316969</v>
+        <v>9.933625808017657</v>
       </c>
       <c r="M19">
-        <v>10.44550440329085</v>
+        <v>13.92856651230464</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.30380264476887</v>
+        <v>25.70804042332421</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.84410475631454</v>
+        <v>12.5524079852841</v>
       </c>
       <c r="C20">
-        <v>8.451001238378945</v>
+        <v>11.22934886836047</v>
       </c>
       <c r="D20">
-        <v>8.549504976389589</v>
+        <v>6.410468278667603</v>
       </c>
       <c r="E20">
-        <v>8.362415130130586</v>
+        <v>13.33598918131653</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.48750441630036</v>
+        <v>36.45573740776047</v>
       </c>
       <c r="H20">
-        <v>10.10703988449069</v>
+        <v>16.19410686325777</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.89607746034021</v>
+        <v>8.783081333589337</v>
       </c>
       <c r="L20">
-        <v>6.491961680694567</v>
+        <v>9.933305790841603</v>
       </c>
       <c r="M20">
-        <v>10.57527559709258</v>
+        <v>13.94611385907984</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.32597237479439</v>
+        <v>25.68701834297437</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.82003826500384</v>
+        <v>12.86337092224328</v>
       </c>
       <c r="C21">
-        <v>8.417367733967993</v>
+        <v>11.21998142461086</v>
       </c>
       <c r="D21">
-        <v>9.093659147227326</v>
+        <v>6.572385580818585</v>
       </c>
       <c r="E21">
-        <v>8.369536152350534</v>
+        <v>13.30486255301631</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.06340139786022</v>
+        <v>36.4283406852537</v>
       </c>
       <c r="H21">
-        <v>10.0768121057778</v>
+        <v>16.14742000289181</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.5469514169854</v>
+        <v>9.023300087775796</v>
       </c>
       <c r="L21">
-        <v>6.620101342594227</v>
+        <v>9.933767294310366</v>
       </c>
       <c r="M21">
-        <v>11.01637993424918</v>
+        <v>14.00713946117532</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.42014777855488</v>
+        <v>25.62225126342727</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.43147520133229</v>
+        <v>13.06407052257598</v>
       </c>
       <c r="C22">
-        <v>8.396612304583281</v>
+        <v>11.21432940713268</v>
       </c>
       <c r="D22">
-        <v>9.435463984012554</v>
+        <v>6.677389351076005</v>
       </c>
       <c r="E22">
-        <v>8.378805884893042</v>
+        <v>13.28613591350909</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.46630196926394</v>
+        <v>36.41910473875808</v>
       </c>
       <c r="H22">
-        <v>10.06396114264903</v>
+        <v>16.11902039731285</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.95701418771845</v>
+        <v>9.177640786816896</v>
       </c>
       <c r="L22">
-        <v>6.705439451195456</v>
+        <v>9.93520942245981</v>
       </c>
       <c r="M22">
-        <v>11.38756555909918</v>
+        <v>14.0485257300272</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.49699844769181</v>
+        <v>25.58430058925865</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.10753682134587</v>
+        <v>12.95720643891705</v>
       </c>
       <c r="C23">
-        <v>8.407576479490517</v>
+        <v>11.21730311275257</v>
       </c>
       <c r="D23">
-        <v>9.254290135439561</v>
+        <v>6.621434248802038</v>
       </c>
       <c r="E23">
-        <v>8.373426161727743</v>
+        <v>13.29598283880749</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.2488153519761</v>
+        <v>36.42324024346298</v>
       </c>
       <c r="H23">
-        <v>10.07016678013198</v>
+        <v>16.13398443835685</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.73955976184702</v>
+        <v>9.09552498496029</v>
       </c>
       <c r="L23">
-        <v>6.659751183948403</v>
+        <v>9.934335697372438</v>
       </c>
       <c r="M23">
-        <v>11.19080128045997</v>
+        <v>14.02630220379002</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.45454165085349</v>
+        <v>25.60415448695599</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.82770414547738</v>
+        <v>12.54728758483349</v>
       </c>
       <c r="C24">
-        <v>8.451571398608468</v>
+        <v>11.22950994193423</v>
       </c>
       <c r="D24">
-        <v>8.540374971088832</v>
+        <v>6.407810858549054</v>
       </c>
       <c r="E24">
-        <v>8.362374454118033</v>
+        <v>13.33652523280074</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.4785335303941</v>
+        <v>36.45633137589118</v>
       </c>
       <c r="H24">
-        <v>10.10764581076098</v>
+        <v>16.19490560058899</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.8851812802188</v>
+        <v>8.779113855598284</v>
       </c>
       <c r="L24">
-        <v>6.489895059566934</v>
+        <v>9.933317571689741</v>
       </c>
       <c r="M24">
-        <v>10.56817192775038</v>
+        <v>13.94514236074252</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.32468246119637</v>
+        <v>25.68815073408915</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33213306253181</v>
+        <v>12.09652057481058</v>
       </c>
       <c r="C25">
-        <v>8.504178458087267</v>
+        <v>11.24470934242761</v>
       </c>
       <c r="D25">
-        <v>7.709765795967296</v>
+        <v>6.175191431766942</v>
       </c>
       <c r="E25">
-        <v>8.369276768964964</v>
+        <v>13.38720294245529</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.75864878678719</v>
+        <v>36.52915094179532</v>
       </c>
       <c r="H25">
-        <v>10.17563391756309</v>
+        <v>16.26968776122887</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.89825597305725</v>
+        <v>8.428101451402945</v>
       </c>
       <c r="L25">
-        <v>6.313916818206058</v>
+        <v>9.937146221302276</v>
       </c>
       <c r="M25">
-        <v>9.93846121075963</v>
+        <v>13.86430066223908</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.24621470108433</v>
+        <v>25.79750097638654</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.75984487686059</v>
+        <v>13.12993979380431</v>
       </c>
       <c r="C2">
-        <v>11.25766534996142</v>
+        <v>8.547239825356053</v>
       </c>
       <c r="D2">
-        <v>6.003545107623809</v>
+        <v>7.04479575735659</v>
       </c>
       <c r="E2">
-        <v>13.43050152248331</v>
+        <v>8.389458022454276</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>36.61453259059855</v>
+        <v>27.31994223500641</v>
       </c>
       <c r="H2">
-        <v>16.33255314349849</v>
+        <v>10.24721326450429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.163292196487014</v>
+        <v>11.1162177823348</v>
       </c>
       <c r="L2">
-        <v>9.944229855399318</v>
+        <v>6.190990103525343</v>
       </c>
       <c r="M2">
-        <v>13.81078491062013</v>
+        <v>9.461161712150012</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.8940832894901</v>
+        <v>17.23679565841833</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.53013456289844</v>
+        <v>12.25120420826565</v>
       </c>
       <c r="C3">
-        <v>11.26755525584063</v>
+        <v>8.579077728046137</v>
       </c>
       <c r="D3">
-        <v>5.887808091363695</v>
+        <v>6.560185199513622</v>
       </c>
       <c r="E3">
-        <v>13.46358376077121</v>
+        <v>8.412014632958392</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>36.69210125673893</v>
+        <v>27.07700146100198</v>
       </c>
       <c r="H3">
-        <v>16.38002733073477</v>
+        <v>10.30811629602591</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.980981521310334</v>
+        <v>10.55246741139173</v>
       </c>
       <c r="L3">
-        <v>9.951702718769191</v>
+        <v>6.112033086110098</v>
       </c>
       <c r="M3">
-        <v>13.77837831260453</v>
+        <v>9.131020450593683</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.96953070275308</v>
+        <v>17.25821635834653</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.38884136864393</v>
+        <v>11.67977599402753</v>
       </c>
       <c r="C4">
-        <v>11.27417789836512</v>
+        <v>8.599923028379022</v>
       </c>
       <c r="D4">
-        <v>5.817322312425629</v>
+        <v>6.259416762903521</v>
       </c>
       <c r="E4">
-        <v>13.48574196875131</v>
+        <v>8.430068188201336</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>36.74940450299063</v>
+        <v>26.95362344820693</v>
       </c>
       <c r="H4">
-        <v>16.41157924747806</v>
+        <v>10.35130029083949</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.868044384719405</v>
+        <v>10.19007120967395</v>
       </c>
       <c r="L4">
-        <v>9.957612756420435</v>
+        <v>6.065763605442812</v>
       </c>
       <c r="M4">
-        <v>13.76042088930586</v>
+        <v>8.925750281324232</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.02077372946392</v>
+        <v>17.28429533010823</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.33128010793875</v>
+        <v>11.43885362640988</v>
       </c>
       <c r="C5">
-        <v>11.27701547338697</v>
+        <v>8.608741972044633</v>
       </c>
       <c r="D5">
-        <v>5.788788126726148</v>
+        <v>6.147403269733767</v>
       </c>
       <c r="E5">
-        <v>13.49523592726935</v>
+        <v>8.438456431867241</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>36.77518212331665</v>
+        <v>26.90966075176267</v>
       </c>
       <c r="H5">
-        <v>16.42504110842975</v>
+        <v>10.37030769792649</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.821835246801857</v>
+        <v>10.03838381529304</v>
       </c>
       <c r="L5">
-        <v>9.960354030462163</v>
+        <v>6.047473344435926</v>
       </c>
       <c r="M5">
-        <v>13.75359627839503</v>
+        <v>8.841578842144166</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.04289066905024</v>
+        <v>17.29805647179761</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.32172548606094</v>
+        <v>11.39836054208865</v>
       </c>
       <c r="C6">
-        <v>11.27749504641391</v>
+        <v>8.610225891101067</v>
       </c>
       <c r="D6">
-        <v>5.784062780616382</v>
+        <v>6.128652030351065</v>
       </c>
       <c r="E6">
-        <v>13.49684044129009</v>
+        <v>8.439910832184534</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>36.7796087880248</v>
+        <v>26.90273688227957</v>
       </c>
       <c r="H6">
-        <v>16.42731293379129</v>
+        <v>10.37354768377341</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.814152932158462</v>
+        <v>10.01295681503174</v>
       </c>
       <c r="L6">
-        <v>9.960829336984659</v>
+        <v>6.044470623694148</v>
       </c>
       <c r="M6">
-        <v>13.75249299083396</v>
+        <v>8.827574472869964</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.04663770953776</v>
+        <v>17.30052736551657</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.38806490246525</v>
+        <v>11.67655952579175</v>
       </c>
       <c r="C7">
-        <v>11.27421560433277</v>
+        <v>8.600040652766687</v>
       </c>
       <c r="D7">
-        <v>5.816936665128004</v>
+        <v>6.257916336528709</v>
       </c>
       <c r="E7">
-        <v>13.48586812733572</v>
+        <v>8.430177173208643</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>36.74974233568998</v>
+        <v>26.95300522029416</v>
       </c>
       <c r="H7">
-        <v>16.41175835240531</v>
+        <v>10.35155098368989</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.867421859599949</v>
+        <v>10.18804161183022</v>
       </c>
       <c r="L7">
-        <v>9.957648377688585</v>
+        <v>6.065514638039896</v>
       </c>
       <c r="M7">
-        <v>13.76032684664346</v>
+        <v>8.924617061100511</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.02106700811865</v>
+        <v>17.28446838312235</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.68073997079394</v>
+        <v>12.83354172149156</v>
       </c>
       <c r="C8">
-        <v>11.26096145994407</v>
+        <v>8.557947294614841</v>
       </c>
       <c r="D8">
-        <v>5.963545564203976</v>
+        <v>6.881203185815981</v>
       </c>
       <c r="E8">
-        <v>13.44152536585524</v>
+        <v>8.396347450142686</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>36.63926609865904</v>
+        <v>27.23072698697016</v>
       </c>
       <c r="H8">
-        <v>16.34842362281221</v>
+        <v>10.26698269890995</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.100676487973546</v>
+        <v>10.92525127008747</v>
       </c>
       <c r="L8">
-        <v>9.946532528010888</v>
+        <v>6.163312723441913</v>
       </c>
       <c r="M8">
-        <v>13.79921165794972</v>
+        <v>9.34793069471047</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.9190758379073</v>
+        <v>17.24142827158474</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.24928770342155</v>
+        <v>14.85147539560164</v>
       </c>
       <c r="C9">
-        <v>11.239316399204</v>
+        <v>8.485779086542394</v>
       </c>
       <c r="D9">
-        <v>6.253712474446947</v>
+        <v>7.997765013338273</v>
       </c>
       <c r="E9">
-        <v>13.36920309100168</v>
+        <v>8.364533838634824</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>36.49967452783036</v>
+        <v>27.98664855875792</v>
       </c>
       <c r="H9">
-        <v>16.24328530793875</v>
+        <v>10.14924713349824</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.547469410355896</v>
+        <v>12.23938000238453</v>
       </c>
       <c r="L9">
-        <v>9.935195797227211</v>
+        <v>6.372191369425314</v>
       </c>
       <c r="M9">
-        <v>13.8906149423153</v>
+        <v>10.15291796343049</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>25.75816627420974</v>
+        <v>17.26482285605135</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.65934234957739</v>
+        <v>16.18403809877376</v>
       </c>
       <c r="C10">
-        <v>11.22603755718194</v>
+        <v>8.439219387292814</v>
       </c>
       <c r="D10">
-        <v>6.466033415426374</v>
+        <v>8.738848713828883</v>
       </c>
       <c r="E10">
-        <v>13.32497494498386</v>
+        <v>8.363841249671273</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>36.44442202024636</v>
+        <v>28.67870744980376</v>
       </c>
       <c r="H10">
-        <v>16.17765664783385</v>
+        <v>10.09519781369205</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.865846460581373</v>
+        <v>13.12224331022498</v>
       </c>
       <c r="L10">
-        <v>9.9332075928361</v>
+        <v>6.535447916439098</v>
       </c>
       <c r="M10">
-        <v>13.96665558145867</v>
+        <v>10.72341197271118</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>25.6638744765734</v>
+        <v>17.35486685003043</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.84336162808595</v>
+        <v>16.75834313095333</v>
       </c>
       <c r="C11">
-        <v>11.22056097546352</v>
+        <v>8.419476067233457</v>
       </c>
       <c r="D11">
-        <v>6.561937210918146</v>
+        <v>9.059208652743628</v>
       </c>
       <c r="E11">
-        <v>13.30678528180057</v>
+        <v>8.368808906519778</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>36.42961088292196</v>
+        <v>29.0245465178246</v>
       </c>
       <c r="H11">
-        <v>16.15032210250898</v>
+        <v>10.07837527270487</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.007883942235797</v>
+        <v>13.50566795680678</v>
       </c>
       <c r="L11">
-        <v>9.933670812102156</v>
+        <v>6.611704045710452</v>
       </c>
       <c r="M11">
-        <v>14.00309668214421</v>
+        <v>10.97897657763919</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>25.62619304317847</v>
+        <v>17.41316646263481</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.91261612541975</v>
+        <v>16.97128768007393</v>
       </c>
       <c r="C12">
-        <v>11.21856780552615</v>
+        <v>8.412209727304543</v>
       </c>
       <c r="D12">
-        <v>6.598116345797635</v>
+        <v>9.17814615525343</v>
       </c>
       <c r="E12">
-        <v>13.30017458457236</v>
+        <v>8.371479517871142</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>36.42548947872058</v>
+        <v>29.16005265949544</v>
       </c>
       <c r="H12">
-        <v>16.14033360230207</v>
+        <v>10.07318421431306</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.061218323828852</v>
+        <v>13.64823403223195</v>
       </c>
       <c r="L12">
-        <v>9.934041974371976</v>
+        <v>6.640854524026524</v>
       </c>
       <c r="M12">
-        <v>14.01715455088374</v>
+        <v>11.10811594791898</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>25.61267495952634</v>
+        <v>17.4378588920052</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.89772107292905</v>
+        <v>16.9256269797457</v>
       </c>
       <c r="C13">
-        <v>11.21899348807164</v>
+        <v>8.413765265029262</v>
       </c>
       <c r="D13">
-        <v>6.590331245382942</v>
+        <v>9.152635939043755</v>
       </c>
       <c r="E13">
-        <v>13.30158598522643</v>
+        <v>8.370868763236921</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>36.42631091802006</v>
+        <v>29.13066567272245</v>
       </c>
       <c r="H13">
-        <v>16.14246868097375</v>
+        <v>10.07424872715941</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.049752682248558</v>
+        <v>13.61764688710461</v>
       </c>
       <c r="L13">
-        <v>9.933953347257027</v>
+        <v>6.634564453028323</v>
       </c>
       <c r="M13">
-        <v>14.01411556829536</v>
+        <v>11.08041589378642</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>25.61555289427508</v>
+        <v>17.43242267129393</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.84906822093311</v>
+        <v>16.77595273354896</v>
       </c>
       <c r="C14">
-        <v>11.22039538133356</v>
+        <v>8.418874031197586</v>
       </c>
       <c r="D14">
-        <v>6.564916665430053</v>
+        <v>9.069041125901045</v>
       </c>
       <c r="E14">
-        <v>13.30623585873264</v>
+        <v>8.369012625044842</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>36.42924199365819</v>
+        <v>29.03560317787505</v>
       </c>
       <c r="H14">
-        <v>16.14949307708846</v>
+        <v>10.07792419846266</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.012281130798115</v>
+        <v>13.51744967333207</v>
       </c>
       <c r="L14">
-        <v>9.933697430221146</v>
+        <v>6.614096851333391</v>
       </c>
       <c r="M14">
-        <v>14.00424809698942</v>
+        <v>10.98965163772227</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>25.62506584170134</v>
+        <v>17.41514480659206</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.81920905483675</v>
+        <v>16.68368428829036</v>
       </c>
       <c r="C15">
-        <v>11.22126457776186</v>
+        <v>8.42203075609658</v>
       </c>
       <c r="D15">
-        <v>6.549330452647768</v>
+        <v>9.017528529814301</v>
       </c>
       <c r="E15">
-        <v>13.3091201515979</v>
+        <v>8.3679793903553</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>36.43123111039716</v>
+        <v>28.97796874059141</v>
       </c>
       <c r="H15">
-        <v>16.15384293308544</v>
+        <v>10.0803310120392</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.98926841029359</v>
+        <v>13.45573345683165</v>
       </c>
       <c r="L15">
-        <v>9.933566137724448</v>
+        <v>6.60159517410345</v>
       </c>
       <c r="M15">
-        <v>13.99823740873758</v>
+        <v>10.94416170084024</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>25.63099064965311</v>
+        <v>17.40490585610609</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.64725973599892</v>
+        <v>16.14586877859962</v>
       </c>
       <c r="C16">
-        <v>11.22640677894092</v>
+        <v>8.440538857516341</v>
       </c>
       <c r="D16">
-        <v>6.459748730263826</v>
+        <v>8.71757806136549</v>
       </c>
       <c r="E16">
-        <v>13.32620250177164</v>
+        <v>8.363625443689477</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>36.44559795589913</v>
+        <v>28.65673770423122</v>
       </c>
       <c r="H16">
-        <v>16.17949374647215</v>
+        <v>10.09645875519053</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.856503367672266</v>
+        <v>13.09681825552445</v>
       </c>
       <c r="L16">
-        <v>9.933204764573254</v>
+        <v>6.530503388354322</v>
       </c>
       <c r="M16">
-        <v>13.96431065145031</v>
+        <v>10.7066940407379</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>25.66644206627086</v>
+        <v>17.35141621978456</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.54108038674736</v>
+        <v>15.80780693118182</v>
       </c>
       <c r="C17">
-        <v>11.22970551893088</v>
+        <v>8.452263326543898</v>
       </c>
       <c r="D17">
-        <v>6.404589811904566</v>
+        <v>8.529299089121505</v>
       </c>
       <c r="E17">
-        <v>13.33717614496787</v>
+        <v>8.362328564835558</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>36.45705792020408</v>
+        <v>28.46768144662752</v>
       </c>
       <c r="H17">
-        <v>16.19587525414943</v>
+        <v>10.10838515212692</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.774303737523631</v>
+        <v>12.87196400081043</v>
       </c>
       <c r="L17">
-        <v>9.933332736620413</v>
+        <v>6.487391741498963</v>
       </c>
       <c r="M17">
-        <v>13.94396616956331</v>
+        <v>10.55955920160884</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>25.6895264997917</v>
+        <v>17.32313033717929</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.4797757588071</v>
+        <v>15.61035833394002</v>
       </c>
       <c r="C18">
-        <v>11.23165598069973</v>
+        <v>8.459141958378853</v>
       </c>
       <c r="D18">
-        <v>6.372801895688156</v>
+        <v>8.419426078006358</v>
       </c>
       <c r="E18">
-        <v>13.34366956199095</v>
+        <v>8.362078062287601</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>36.46462098482562</v>
+        <v>28.36185676418081</v>
       </c>
       <c r="H18">
-        <v>16.2055346781224</v>
+        <v>10.11597184726922</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.726764495838349</v>
+        <v>12.74092139722462</v>
       </c>
       <c r="L18">
-        <v>9.93353513334608</v>
+        <v>6.462783078604375</v>
       </c>
       <c r="M18">
-        <v>13.93243915076289</v>
+        <v>10.47441779773579</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>25.70329458546221</v>
+        <v>17.30848575653509</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.45898116285258</v>
+        <v>15.54298805335438</v>
       </c>
       <c r="C19">
-        <v>11.23232550854564</v>
+        <v>8.461494037610354</v>
       </c>
       <c r="D19">
-        <v>6.362029647539716</v>
+        <v>8.381952574587784</v>
       </c>
       <c r="E19">
-        <v>13.34589932853806</v>
+        <v>8.362077434292635</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>36.467348481045</v>
+        <v>28.32652429839804</v>
       </c>
       <c r="H19">
-        <v>16.20884593205209</v>
+        <v>10.11866355694021</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.710625432946371</v>
+        <v>12.69625903127991</v>
       </c>
       <c r="L19">
-        <v>9.933625808017657</v>
+        <v>6.454483678316975</v>
       </c>
       <c r="M19">
-        <v>13.92856651230464</v>
+        <v>10.44550440329083</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>25.70804042332421</v>
+        <v>17.30380264476892</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.5524079852841</v>
+        <v>15.84410475631454</v>
       </c>
       <c r="C20">
-        <v>11.22934886836047</v>
+        <v>8.451001238378945</v>
       </c>
       <c r="D20">
-        <v>6.410468278667603</v>
+        <v>8.549504976389642</v>
       </c>
       <c r="E20">
-        <v>13.33598918131653</v>
+        <v>8.362415130130543</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>36.45573740776047</v>
+        <v>28.48750441630032</v>
       </c>
       <c r="H20">
-        <v>16.19410686325777</v>
+        <v>10.10703988449069</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.783081333589337</v>
+        <v>12.89607746034018</v>
       </c>
       <c r="L20">
-        <v>9.933305790841603</v>
+        <v>6.491961680694545</v>
       </c>
       <c r="M20">
-        <v>13.94611385907984</v>
+        <v>10.57527559709257</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>25.68701834297437</v>
+        <v>17.32597237479435</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.86337092224328</v>
+        <v>16.82003826500394</v>
       </c>
       <c r="C21">
-        <v>11.21998142461086</v>
+        <v>8.417367733967714</v>
       </c>
       <c r="D21">
-        <v>6.572385580818585</v>
+        <v>9.093659147227372</v>
       </c>
       <c r="E21">
-        <v>13.30486255301631</v>
+        <v>8.369536152350499</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>36.4283406852537</v>
+        <v>29.06340139786012</v>
       </c>
       <c r="H21">
-        <v>16.14742000289181</v>
+        <v>10.07681210577775</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.023300087775796</v>
+        <v>13.54695141698541</v>
       </c>
       <c r="L21">
-        <v>9.933767294310366</v>
+        <v>6.620101342594293</v>
       </c>
       <c r="M21">
-        <v>14.00713946117532</v>
+        <v>11.01637993424922</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>25.62225126342727</v>
+        <v>17.42014777855479</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.06407052257598</v>
+        <v>17.43147520133233</v>
       </c>
       <c r="C22">
-        <v>11.21432940713268</v>
+        <v>8.396612304583531</v>
       </c>
       <c r="D22">
-        <v>6.677389351076005</v>
+        <v>9.435463984012554</v>
       </c>
       <c r="E22">
-        <v>13.28613591350909</v>
+        <v>8.378805884893049</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>36.41910473875808</v>
+        <v>29.46630196926393</v>
       </c>
       <c r="H22">
-        <v>16.11902039731285</v>
+        <v>10.06396114264904</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.177640786816896</v>
+        <v>13.95701418771851</v>
       </c>
       <c r="L22">
-        <v>9.93520942245981</v>
+        <v>6.705439451195428</v>
       </c>
       <c r="M22">
-        <v>14.0485257300272</v>
+        <v>11.38756555909922</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.58430058925865</v>
+        <v>17.49699844769173</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.95720643891705</v>
+        <v>17.10753682134585</v>
       </c>
       <c r="C23">
-        <v>11.21730311275257</v>
+        <v>8.407576479490526</v>
       </c>
       <c r="D23">
-        <v>6.621434248802038</v>
+        <v>9.254290135439437</v>
       </c>
       <c r="E23">
-        <v>13.29598283880749</v>
+        <v>8.373426161727741</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>36.42324024346298</v>
+        <v>29.24881535197595</v>
       </c>
       <c r="H23">
-        <v>16.13398443835685</v>
+        <v>10.07016678013185</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.09552498496029</v>
+        <v>13.73955976184703</v>
       </c>
       <c r="L23">
-        <v>9.934335697372438</v>
+        <v>6.659751183948372</v>
       </c>
       <c r="M23">
-        <v>14.02630220379002</v>
+        <v>11.19080128045996</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>25.60415448695599</v>
+        <v>17.45454165085334</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.54728758483349</v>
+        <v>15.82770414547736</v>
       </c>
       <c r="C24">
-        <v>11.22950994193423</v>
+        <v>8.451571398608719</v>
       </c>
       <c r="D24">
-        <v>6.407810858549054</v>
+        <v>8.540374971088807</v>
       </c>
       <c r="E24">
-        <v>13.33652523280074</v>
+        <v>8.362374454118042</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>36.45633137589118</v>
+        <v>28.478533530394</v>
       </c>
       <c r="H24">
-        <v>16.19490560058899</v>
+        <v>10.10764581076099</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.779113855598284</v>
+        <v>12.8851812802188</v>
       </c>
       <c r="L24">
-        <v>9.933317571689741</v>
+        <v>6.489895059566919</v>
       </c>
       <c r="M24">
-        <v>13.94514236074252</v>
+        <v>10.5681719277504</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>25.68815073408915</v>
+        <v>17.32468246119632</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.09652057481058</v>
+        <v>14.33213306253181</v>
       </c>
       <c r="C25">
-        <v>11.24470934242761</v>
+        <v>8.504178458087527</v>
       </c>
       <c r="D25">
-        <v>6.175191431766942</v>
+        <v>7.70976579596732</v>
       </c>
       <c r="E25">
-        <v>13.38720294245529</v>
+        <v>8.369276768964966</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>36.52915094179532</v>
+        <v>27.75864878678707</v>
       </c>
       <c r="H25">
-        <v>16.26968776122887</v>
+        <v>10.17563391756308</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.428101451402945</v>
+        <v>11.89825597305728</v>
       </c>
       <c r="L25">
-        <v>9.937146221302276</v>
+        <v>6.313916818206013</v>
       </c>
       <c r="M25">
-        <v>13.86430066223908</v>
+        <v>9.938461210759611</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>25.79750097638654</v>
+        <v>17.24621470108429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.12993979380431</v>
+        <v>13.76296591143844</v>
       </c>
       <c r="C2">
-        <v>8.547239825356053</v>
+        <v>7.056203435340941</v>
       </c>
       <c r="D2">
-        <v>7.04479575735659</v>
+        <v>9.593457786807754</v>
       </c>
       <c r="E2">
-        <v>8.389458022454276</v>
+        <v>8.927416380285585</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>27.31994223500641</v>
+        <v>26.95227993689776</v>
       </c>
       <c r="H2">
-        <v>10.24721326450429</v>
+        <v>3.044498711792927</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.54961275195966</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>10.33176046449252</v>
       </c>
       <c r="K2">
-        <v>11.1162177823348</v>
+        <v>16.91652937916229</v>
       </c>
       <c r="L2">
-        <v>6.190990103525343</v>
+        <v>5.061008472365945</v>
       </c>
       <c r="M2">
-        <v>9.461161712150012</v>
+        <v>10.84962752267068</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.622789363330557</v>
       </c>
       <c r="O2">
-        <v>17.23679565841833</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>13.40028266685561</v>
+      </c>
+      <c r="Q2">
+        <v>17.26024823428052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.25120420826565</v>
+        <v>12.93185732062805</v>
       </c>
       <c r="C3">
-        <v>8.579077728046137</v>
+        <v>6.866872918949005</v>
       </c>
       <c r="D3">
-        <v>6.560185199513622</v>
+        <v>9.31338258403129</v>
       </c>
       <c r="E3">
-        <v>8.412014632958392</v>
+        <v>8.753067402626192</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>27.07700146100198</v>
+        <v>26.65194623609345</v>
       </c>
       <c r="H3">
-        <v>10.30811629602591</v>
+        <v>3.234096609500281</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.68734571717042</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>10.34681608628567</v>
       </c>
       <c r="K3">
-        <v>10.55246741139173</v>
+        <v>16.93817605921938</v>
       </c>
       <c r="L3">
-        <v>6.112033086110098</v>
+        <v>5.011504270185386</v>
       </c>
       <c r="M3">
-        <v>9.131020450593683</v>
+        <v>10.2015834114995</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.416110079878906</v>
       </c>
       <c r="O3">
-        <v>17.25821635834653</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>13.52955527762392</v>
+      </c>
+      <c r="Q3">
+        <v>17.21470265244453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.67977599402753</v>
+        <v>12.39212371678703</v>
       </c>
       <c r="C4">
-        <v>8.599923028379022</v>
+        <v>6.748213066940084</v>
       </c>
       <c r="D4">
-        <v>6.259416762903521</v>
+        <v>9.139033784876881</v>
       </c>
       <c r="E4">
-        <v>8.430068188201336</v>
+        <v>8.643710604457295</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.95362344820693</v>
+        <v>26.47526213920916</v>
       </c>
       <c r="H4">
-        <v>10.35130029083949</v>
+        <v>3.355032661506578</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.77589697245403</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>10.35855896973857</v>
       </c>
       <c r="K4">
-        <v>10.19007120967395</v>
+        <v>16.95486272437691</v>
       </c>
       <c r="L4">
-        <v>6.065763605442812</v>
+        <v>4.979918755416509</v>
       </c>
       <c r="M4">
-        <v>8.925750281324232</v>
+        <v>9.781139012326543</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.287201165549422</v>
       </c>
       <c r="O4">
-        <v>17.28429533010823</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>13.61055320133408</v>
+      </c>
+      <c r="Q4">
+        <v>17.19169367991351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.43885362640988</v>
+        <v>12.16015396633623</v>
       </c>
       <c r="C5">
-        <v>8.608741972044633</v>
+        <v>6.702738569823744</v>
       </c>
       <c r="D5">
-        <v>6.147403269733767</v>
+        <v>9.066611891427105</v>
       </c>
       <c r="E5">
-        <v>8.438456431867241</v>
+        <v>8.597310023028683</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.90966075176267</v>
+        <v>26.39603779886446</v>
       </c>
       <c r="H5">
-        <v>10.37030769792649</v>
+        <v>3.405765322862099</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.815501697670125</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>10.36243873470884</v>
       </c>
       <c r="K5">
-        <v>10.03838381529304</v>
+        <v>16.95839232436845</v>
       </c>
       <c r="L5">
-        <v>6.047473344435926</v>
+        <v>4.966495185640108</v>
       </c>
       <c r="M5">
-        <v>8.841578842144166</v>
+        <v>9.603955645983527</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.23520013654796</v>
       </c>
       <c r="O5">
-        <v>17.29805647179761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>13.64367413196776</v>
+      </c>
+      <c r="Q5">
+        <v>17.17974671608141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.39836054208865</v>
+        <v>12.11543023326336</v>
       </c>
       <c r="C6">
-        <v>8.610225891101067</v>
+        <v>6.699422321697885</v>
       </c>
       <c r="D6">
-        <v>6.128652030351065</v>
+        <v>9.053493817510178</v>
       </c>
       <c r="E6">
-        <v>8.439910832184534</v>
+        <v>8.587993951185032</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.90273688227957</v>
+        <v>26.37176956040395</v>
       </c>
       <c r="H6">
-        <v>10.37354768377341</v>
+        <v>3.414625762832958</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.825354521535423</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>10.3612573237094</v>
       </c>
       <c r="K6">
-        <v>10.01295681503174</v>
+        <v>16.95400641148365</v>
       </c>
       <c r="L6">
-        <v>6.044470623694148</v>
+        <v>4.963943075662763</v>
       </c>
       <c r="M6">
-        <v>8.827574472869964</v>
+        <v>9.573929535654178</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.227738357294056</v>
       </c>
       <c r="O6">
-        <v>17.30052736551657</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>13.64883372816591</v>
+      </c>
+      <c r="Q6">
+        <v>17.17319416666241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.67655952579175</v>
+        <v>12.37361928467266</v>
       </c>
       <c r="C7">
-        <v>8.600040652766687</v>
+        <v>6.759195350754851</v>
       </c>
       <c r="D7">
-        <v>6.257916336528709</v>
+        <v>9.135182889187423</v>
       </c>
       <c r="E7">
-        <v>8.430177173208643</v>
+        <v>8.638812452557666</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.95300522029416</v>
+        <v>26.44364629918506</v>
       </c>
       <c r="H7">
-        <v>10.35155098368989</v>
+        <v>3.356695127120978</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.784926062159144</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>10.35353439435259</v>
       </c>
       <c r="K7">
-        <v>10.18804161183022</v>
+        <v>16.94121477414913</v>
       </c>
       <c r="L7">
-        <v>6.065514638039896</v>
+        <v>4.978918937824257</v>
       </c>
       <c r="M7">
-        <v>8.924617061100511</v>
+        <v>9.778060487290247</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.289747420414705</v>
       </c>
       <c r="O7">
-        <v>17.28446838312235</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>13.61004901329375</v>
+      </c>
+      <c r="Q7">
+        <v>17.17888385087767</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.83354172149156</v>
+        <v>13.46363035316007</v>
       </c>
       <c r="C8">
-        <v>8.557947294614841</v>
+        <v>7.006497849397684</v>
       </c>
       <c r="D8">
-        <v>6.881203185815981</v>
+        <v>9.493781169027745</v>
       </c>
       <c r="E8">
-        <v>8.396347450142686</v>
+        <v>8.862320113972281</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>27.23072698697016</v>
+        <v>26.80741337283283</v>
       </c>
       <c r="H8">
-        <v>10.26698269890995</v>
+        <v>3.110164205638835</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.607059041334354</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>10.3297682568274</v>
       </c>
       <c r="K8">
-        <v>10.92525127008747</v>
+        <v>16.90528424444721</v>
       </c>
       <c r="L8">
-        <v>6.163312723441913</v>
+        <v>5.043151827441892</v>
       </c>
       <c r="M8">
-        <v>9.34793069471047</v>
+        <v>10.63000158903497</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.556147167529742</v>
       </c>
       <c r="O8">
-        <v>17.24142827158474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>13.44348065179588</v>
+      </c>
+      <c r="Q8">
+        <v>17.22694076030989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.85147539560164</v>
+        <v>15.38951707221922</v>
       </c>
       <c r="C9">
-        <v>8.485779086542394</v>
+        <v>7.451671303483544</v>
       </c>
       <c r="D9">
-        <v>7.997765013338273</v>
+        <v>10.17907445009551</v>
       </c>
       <c r="E9">
-        <v>8.364533838634824</v>
+        <v>9.288227447539308</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.98664855875792</v>
+        <v>27.63455323498993</v>
       </c>
       <c r="H9">
-        <v>10.14924713349824</v>
+        <v>2.660395412585663</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.275627392718165</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>10.31247401702234</v>
       </c>
       <c r="K9">
-        <v>12.23938000238453</v>
+        <v>16.88679476079811</v>
       </c>
       <c r="L9">
-        <v>6.372191369425314</v>
+        <v>5.161207372929043</v>
       </c>
       <c r="M9">
-        <v>10.15291796343049</v>
+        <v>12.12189058577134</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.054752340562258</v>
       </c>
       <c r="O9">
-        <v>17.26482285605135</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>13.1307027063831</v>
+      </c>
+      <c r="Q9">
+        <v>17.38377812674844</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.18403809877376</v>
+        <v>16.61112248661832</v>
       </c>
       <c r="C10">
-        <v>8.439219387292814</v>
+        <v>7.788615273909963</v>
       </c>
       <c r="D10">
-        <v>8.738848713828883</v>
+        <v>10.59880603245276</v>
       </c>
       <c r="E10">
-        <v>8.363841249671273</v>
+        <v>9.492376958119022</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.67870744980376</v>
+        <v>28.12071468498488</v>
       </c>
       <c r="H10">
-        <v>10.09519781369205</v>
+        <v>2.378083441795693</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.060840467152192</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>10.28620532420781</v>
       </c>
       <c r="K10">
-        <v>13.12224331022498</v>
+        <v>16.83091387628346</v>
       </c>
       <c r="L10">
-        <v>6.535447916439098</v>
+        <v>5.231498174374146</v>
       </c>
       <c r="M10">
-        <v>10.72341197271118</v>
+        <v>13.09277314315252</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.327872439420481</v>
       </c>
       <c r="O10">
-        <v>17.35486685003043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.90722782713237</v>
+      </c>
+      <c r="Q10">
+        <v>17.45837164130265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75834313095333</v>
+        <v>16.76867974533138</v>
       </c>
       <c r="C11">
-        <v>8.419476067233457</v>
+        <v>8.110865041486303</v>
       </c>
       <c r="D11">
-        <v>9.059208652743628</v>
+        <v>10.23012905289877</v>
       </c>
       <c r="E11">
-        <v>8.368808906519778</v>
+        <v>8.812190014562715</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>29.0245465178246</v>
+        <v>27.06890984431298</v>
       </c>
       <c r="H11">
-        <v>10.07837527270487</v>
+        <v>3.194582264817072</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.023516653701785</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10.05909126184628</v>
       </c>
       <c r="K11">
-        <v>13.50566795680678</v>
+        <v>16.32793348765672</v>
       </c>
       <c r="L11">
-        <v>6.611704045710452</v>
+        <v>5.210672513104334</v>
       </c>
       <c r="M11">
-        <v>10.97897657763919</v>
+        <v>13.38627356978323</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.767567925480671</v>
       </c>
       <c r="O11">
-        <v>17.41316646263481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.81229807131817</v>
+      </c>
+      <c r="Q11">
+        <v>16.95508867947043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.97128768007393</v>
+        <v>16.66699554165312</v>
       </c>
       <c r="C12">
-        <v>8.412209727304543</v>
+        <v>8.306125035958162</v>
       </c>
       <c r="D12">
-        <v>9.17814615525343</v>
+        <v>9.828921748455569</v>
       </c>
       <c r="E12">
-        <v>8.371479517871142</v>
+        <v>8.257978367979389</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>29.16005265949544</v>
+        <v>26.10648638927239</v>
       </c>
       <c r="H12">
-        <v>10.07318421431306</v>
+        <v>4.453198636050581</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.01798985011779</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>9.878135055344359</v>
       </c>
       <c r="K12">
-        <v>13.64823403223195</v>
+        <v>15.93756424868241</v>
       </c>
       <c r="L12">
-        <v>6.640854524026524</v>
+        <v>5.2347636317532</v>
       </c>
       <c r="M12">
-        <v>11.10811594791898</v>
+        <v>13.43705579125881</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.244340011333363</v>
       </c>
       <c r="O12">
-        <v>17.4378588920052</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.79141200276568</v>
+      </c>
+      <c r="Q12">
+        <v>16.52731325543975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.9256269797457</v>
+        <v>16.33839039260549</v>
       </c>
       <c r="C13">
-        <v>8.413765265029262</v>
+        <v>8.433285143514352</v>
       </c>
       <c r="D13">
-        <v>9.152635939043755</v>
+        <v>9.367770590069785</v>
       </c>
       <c r="E13">
-        <v>8.370868763236921</v>
+        <v>7.770538627668231</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>29.13066567272245</v>
+        <v>25.10164851723486</v>
       </c>
       <c r="H13">
-        <v>10.07424872715941</v>
+        <v>5.812916881043381</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.050763955672403</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.714070782278583</v>
       </c>
       <c r="K13">
-        <v>13.61764688710461</v>
+        <v>15.5905434093524</v>
       </c>
       <c r="L13">
-        <v>6.634564453028323</v>
+        <v>5.29082383151325</v>
       </c>
       <c r="M13">
-        <v>11.08041589378642</v>
+        <v>13.30520368992037</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.72058902549105</v>
       </c>
       <c r="O13">
-        <v>17.43242267129393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.82264399934052</v>
+      </c>
+      <c r="Q13">
+        <v>16.11177548493199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.77595273354896</v>
+        <v>15.99719376776932</v>
       </c>
       <c r="C14">
-        <v>8.418874031197586</v>
+        <v>8.496775958695531</v>
       </c>
       <c r="D14">
-        <v>9.069041125901045</v>
+        <v>9.014689886036169</v>
       </c>
       <c r="E14">
-        <v>8.369012625044842</v>
+        <v>7.477385874616493</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>29.03560317787505</v>
+        <v>24.37197367799456</v>
       </c>
       <c r="H14">
-        <v>10.07792419846266</v>
+        <v>6.793683886722568</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.093784593622574</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.606463724334255</v>
       </c>
       <c r="K14">
-        <v>13.51744967333207</v>
+        <v>15.36708096480962</v>
       </c>
       <c r="L14">
-        <v>6.614096851333391</v>
+        <v>5.349953490234446</v>
       </c>
       <c r="M14">
-        <v>10.98965163772227</v>
+        <v>13.12840975764749</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.35965049818151</v>
       </c>
       <c r="O14">
-        <v>17.41514480659206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.86848735540862</v>
+      </c>
+      <c r="Q14">
+        <v>15.82499662044782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68368428829036</v>
+        <v>15.85976952984076</v>
       </c>
       <c r="C15">
-        <v>8.42203075609658</v>
+        <v>8.501835155574495</v>
       </c>
       <c r="D15">
-        <v>9.017528529814301</v>
+        <v>8.915394328731143</v>
       </c>
       <c r="E15">
-        <v>8.3679793903553</v>
+        <v>7.412306327212334</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>28.97796874059141</v>
+        <v>24.17771075923777</v>
       </c>
       <c r="H15">
-        <v>10.0803310120392</v>
+        <v>7.024292626327838</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.116970112745021</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>9.582730028909904</v>
       </c>
       <c r="K15">
-        <v>13.45573345683165</v>
+        <v>15.31803105700612</v>
       </c>
       <c r="L15">
-        <v>6.60159517410345</v>
+        <v>5.363746632543616</v>
       </c>
       <c r="M15">
-        <v>10.94416170084024</v>
+        <v>13.04532478916102</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.271300323265646</v>
       </c>
       <c r="O15">
-        <v>17.40490585610609</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.88927399005318</v>
+      </c>
+      <c r="Q15">
+        <v>15.75486294981223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.14586877859962</v>
+        <v>15.3926885607199</v>
       </c>
       <c r="C16">
-        <v>8.440538857516341</v>
+        <v>8.345018430512329</v>
       </c>
       <c r="D16">
-        <v>8.71757806136549</v>
+        <v>8.812792607871032</v>
       </c>
       <c r="E16">
-        <v>8.363625443689477</v>
+        <v>7.416084756704771</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>28.65673770423122</v>
+        <v>24.13734747197927</v>
       </c>
       <c r="H16">
-        <v>10.09645875519053</v>
+        <v>6.84201127551095</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.20730400361269</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>9.624198348918913</v>
       </c>
       <c r="K16">
-        <v>13.09681825552445</v>
+        <v>15.40657127058803</v>
       </c>
       <c r="L16">
-        <v>6.530503388354322</v>
+        <v>5.318306001302121</v>
       </c>
       <c r="M16">
-        <v>10.7066940407379</v>
+        <v>12.66544422199972</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.25049544633838</v>
       </c>
       <c r="O16">
-        <v>17.35141621978456</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.97044388663181</v>
+      </c>
+      <c r="Q16">
+        <v>15.79769871669769</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.80780693118182</v>
+        <v>15.21745084239512</v>
       </c>
       <c r="C17">
-        <v>8.452263326543898</v>
+        <v>8.188456571037101</v>
       </c>
       <c r="D17">
-        <v>8.529299089121505</v>
+        <v>8.925952297947513</v>
       </c>
       <c r="E17">
-        <v>8.362328564835558</v>
+        <v>7.565202940152746</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28.46768144662752</v>
+        <v>24.49774045260575</v>
       </c>
       <c r="H17">
-        <v>10.10838515212692</v>
+        <v>6.153903393796518</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.25451399102043</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>9.713040802326327</v>
       </c>
       <c r="K17">
-        <v>12.87196400081043</v>
+        <v>15.59137309700651</v>
       </c>
       <c r="L17">
-        <v>6.487391741498963</v>
+        <v>5.247620763604399</v>
       </c>
       <c r="M17">
-        <v>10.55955920160884</v>
+        <v>12.46633218886377</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.425394525957226</v>
       </c>
       <c r="O17">
-        <v>17.32313033717929</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>13.00931289480643</v>
+      </c>
+      <c r="Q17">
+        <v>15.98294514906483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.61035833394002</v>
+        <v>15.29023907065806</v>
       </c>
       <c r="C18">
-        <v>8.459141958378853</v>
+        <v>8.008075431646496</v>
       </c>
       <c r="D18">
-        <v>8.419426078006358</v>
+        <v>9.239749713433412</v>
       </c>
       <c r="E18">
-        <v>8.362078062287601</v>
+        <v>7.906863128984496</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>28.36185676418081</v>
+        <v>25.26338169981621</v>
       </c>
       <c r="H18">
-        <v>10.11597184726922</v>
+        <v>4.995291467338951</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.258694134851209</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>9.856128579129637</v>
       </c>
       <c r="K18">
-        <v>12.74092139722462</v>
+        <v>15.89310820116018</v>
       </c>
       <c r="L18">
-        <v>6.462783078604375</v>
+        <v>5.172527705840567</v>
       </c>
       <c r="M18">
-        <v>10.47441779773579</v>
+        <v>12.40654302567075</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.802718269762892</v>
       </c>
       <c r="O18">
-        <v>17.30848575653509</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>13.02080771285292</v>
+      </c>
+      <c r="Q18">
+        <v>16.3203218564089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.54298805335438</v>
+        <v>15.53109919621307</v>
       </c>
       <c r="C19">
-        <v>8.461494037610354</v>
+        <v>7.853860356670804</v>
       </c>
       <c r="D19">
-        <v>8.381952574587784</v>
+        <v>9.685406807142787</v>
       </c>
       <c r="E19">
-        <v>8.362077434292635</v>
+        <v>8.435053003977606</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>28.32652429839804</v>
+        <v>26.24916764984838</v>
       </c>
       <c r="H19">
-        <v>10.11866355694021</v>
+        <v>3.683321464194061</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.244020664398484</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>10.02505944466643</v>
       </c>
       <c r="K19">
-        <v>12.69625903127991</v>
+        <v>16.25297156059338</v>
       </c>
       <c r="L19">
-        <v>6.454483678316975</v>
+        <v>5.138374608477878</v>
       </c>
       <c r="M19">
-        <v>10.44550440329083</v>
+        <v>12.46352248672018</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.338591280176679</v>
       </c>
       <c r="O19">
-        <v>17.30380264476892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>13.01750032686003</v>
+      </c>
+      <c r="Q19">
+        <v>16.73672005153892</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.84410475631454</v>
+        <v>16.26047638708196</v>
       </c>
       <c r="C20">
-        <v>8.451001238378945</v>
+        <v>7.735872358129053</v>
       </c>
       <c r="D20">
-        <v>8.549504976389642</v>
+        <v>10.47914423832663</v>
       </c>
       <c r="E20">
-        <v>8.362415130130543</v>
+        <v>9.423520605608987</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>28.48750441630032</v>
+        <v>27.89556805033319</v>
       </c>
       <c r="H20">
-        <v>10.10703988449069</v>
+        <v>2.453096771914746</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.144889459960738</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>10.27581152210279</v>
       </c>
       <c r="K20">
-        <v>12.89607746034018</v>
+        <v>16.80054969638067</v>
       </c>
       <c r="L20">
-        <v>6.491961680694545</v>
+        <v>5.210711821717919</v>
       </c>
       <c r="M20">
-        <v>10.57527559709257</v>
+        <v>12.84274018534819</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.262304598050321</v>
       </c>
       <c r="O20">
-        <v>17.32597237479435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.96403807210424</v>
+      </c>
+      <c r="Q20">
+        <v>17.39652949204474</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.82003826500394</v>
+        <v>17.22449817057509</v>
       </c>
       <c r="C21">
-        <v>8.417367733967714</v>
+        <v>7.956144169386683</v>
       </c>
       <c r="D21">
-        <v>9.093659147227372</v>
+        <v>10.89532254616703</v>
       </c>
       <c r="E21">
-        <v>8.369536152350499</v>
+        <v>9.722619147669123</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>29.06340139786012</v>
+        <v>28.52129923353539</v>
       </c>
       <c r="H21">
-        <v>10.07681210577775</v>
+        <v>2.201656019087397</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.973005888028193</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>10.30089436616164</v>
       </c>
       <c r="K21">
-        <v>13.54695141698541</v>
+        <v>16.85573713538942</v>
       </c>
       <c r="L21">
-        <v>6.620101342594293</v>
+        <v>5.280137831146304</v>
       </c>
       <c r="M21">
-        <v>11.01637993424922</v>
+        <v>13.57584252230584</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.590034956239979</v>
       </c>
       <c r="O21">
-        <v>17.42014777855479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.79628630776888</v>
+      </c>
+      <c r="Q21">
+        <v>17.56430387766003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.43147520133233</v>
+        <v>17.82077262726541</v>
       </c>
       <c r="C22">
-        <v>8.396612304583531</v>
+        <v>8.093044930495886</v>
       </c>
       <c r="D22">
-        <v>9.435463984012554</v>
+        <v>11.13299877751715</v>
       </c>
       <c r="E22">
-        <v>8.378805884893049</v>
+        <v>9.872154421708462</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>29.46630196926393</v>
+        <v>28.89865383125759</v>
       </c>
       <c r="H22">
-        <v>10.06396114264904</v>
+        <v>2.052719167281106</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.854498118963961</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>10.31386866405823</v>
       </c>
       <c r="K22">
-        <v>13.95701418771851</v>
+        <v>16.8852408768751</v>
       </c>
       <c r="L22">
-        <v>6.705439451195428</v>
+        <v>5.3199756761867</v>
       </c>
       <c r="M22">
-        <v>11.38756555909922</v>
+        <v>14.02808795396479</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.75592788143531</v>
       </c>
       <c r="O22">
-        <v>17.49699844769173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.68784268020041</v>
+      </c>
+      <c r="Q22">
+        <v>17.66361350169466</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.10753682134585</v>
+        <v>17.51837863490729</v>
       </c>
       <c r="C23">
-        <v>8.407576479490526</v>
+        <v>8.007691852660537</v>
       </c>
       <c r="D23">
-        <v>9.254290135439437</v>
+        <v>11.00939474786766</v>
       </c>
       <c r="E23">
-        <v>8.373426161727741</v>
+        <v>9.796986166057401</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>29.24881535197595</v>
+        <v>28.72949021042805</v>
       </c>
       <c r="H23">
-        <v>10.07016678013185</v>
+        <v>2.130988698475717</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.906063957810641</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>10.31247141500464</v>
       </c>
       <c r="K23">
-        <v>13.73955976184703</v>
+        <v>16.88478962781377</v>
       </c>
       <c r="L23">
-        <v>6.659751183948372</v>
+        <v>5.299587553443082</v>
       </c>
       <c r="M23">
-        <v>11.19080128045996</v>
+        <v>13.78918752263478</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.664371713967101</v>
       </c>
       <c r="O23">
-        <v>17.45454165085334</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.74600901584587</v>
+      </c>
+      <c r="Q23">
+        <v>17.62429003255058</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.82770414547736</v>
+        <v>16.29877851270992</v>
       </c>
       <c r="C24">
-        <v>8.451571398608719</v>
+        <v>7.698899263463418</v>
       </c>
       <c r="D24">
-        <v>8.540374971088807</v>
+        <v>10.52787478752198</v>
       </c>
       <c r="E24">
-        <v>8.362374454118042</v>
+        <v>9.499686072756031</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.478533530394</v>
+        <v>28.05051615481846</v>
       </c>
       <c r="H24">
-        <v>10.10764581076099</v>
+        <v>2.4358004651509</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.126215561079757</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>10.30355232708387</v>
       </c>
       <c r="K24">
-        <v>12.8851812802188</v>
+        <v>16.86625690020317</v>
       </c>
       <c r="L24">
-        <v>6.489895059566919</v>
+        <v>5.219347609151168</v>
       </c>
       <c r="M24">
-        <v>10.5681719277504</v>
+        <v>12.84312318948443</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.316217956656779</v>
       </c>
       <c r="O24">
-        <v>17.32468246119632</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.96808387046439</v>
+      </c>
+      <c r="Q24">
+        <v>17.46377094447541</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.33213306253181</v>
+        <v>14.87066806159077</v>
       </c>
       <c r="C25">
-        <v>8.504178458087527</v>
+        <v>7.353488915665494</v>
       </c>
       <c r="D25">
-        <v>7.70976579596732</v>
+        <v>9.991917309654456</v>
       </c>
       <c r="E25">
-        <v>8.369276768964966</v>
+        <v>9.168144992161915</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.75864878678707</v>
+        <v>27.3516598443031</v>
       </c>
       <c r="H25">
-        <v>10.17563391756308</v>
+        <v>2.779921075268989</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.377454797582108</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10.30590613017564</v>
       </c>
       <c r="K25">
-        <v>11.89825597305728</v>
+        <v>16.86438574364109</v>
       </c>
       <c r="L25">
-        <v>6.313916818206013</v>
+        <v>5.128915036572881</v>
       </c>
       <c r="M25">
-        <v>9.938461210759611</v>
+        <v>11.73656343606683</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.92758441191857</v>
       </c>
       <c r="O25">
-        <v>17.24621470108429</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>13.21296154858235</v>
+      </c>
+      <c r="Q25">
+        <v>17.31462042286068</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_18/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.76296591143844</v>
+        <v>13.4036097732278</v>
       </c>
       <c r="C2">
-        <v>7.056203435340941</v>
+        <v>6.863047737672304</v>
       </c>
       <c r="D2">
-        <v>9.593457786807754</v>
+        <v>9.525840246449565</v>
       </c>
       <c r="E2">
-        <v>8.927416380285585</v>
+        <v>8.81222155362347</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>26.95227993689776</v>
+        <v>25.61837030608276</v>
       </c>
       <c r="H2">
-        <v>3.044498711792927</v>
+        <v>2.923633544947093</v>
       </c>
       <c r="I2">
-        <v>3.54961275195966</v>
+        <v>3.394026040309194</v>
       </c>
       <c r="J2">
-        <v>10.33176046449252</v>
+        <v>10.31436444324003</v>
       </c>
       <c r="K2">
-        <v>16.91652937916229</v>
+        <v>16.26944540123457</v>
       </c>
       <c r="L2">
-        <v>5.061008472365945</v>
+        <v>13.08056777056195</v>
       </c>
       <c r="M2">
-        <v>10.84962752267068</v>
+        <v>10.97590419280128</v>
       </c>
       <c r="N2">
-        <v>7.622789363330557</v>
+        <v>5.023318627809243</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.87155003859413</v>
       </c>
       <c r="P2">
-        <v>13.40028266685561</v>
+        <v>7.798569756457165</v>
       </c>
       <c r="Q2">
-        <v>17.26024823428052</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>13.24013854486374</v>
+      </c>
+      <c r="S2">
+        <v>16.77456090441801</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.93185732062805</v>
+        <v>12.60236421012464</v>
       </c>
       <c r="C3">
-        <v>6.866872918949005</v>
+        <v>6.602404164496692</v>
       </c>
       <c r="D3">
-        <v>9.31338258403129</v>
+        <v>9.254253240804386</v>
       </c>
       <c r="E3">
-        <v>8.753067402626192</v>
+        <v>8.652287854711615</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>26.65194623609345</v>
+        <v>25.42857609763189</v>
       </c>
       <c r="H3">
-        <v>3.234096609500281</v>
+        <v>3.101617377197461</v>
       </c>
       <c r="I3">
-        <v>3.68734571717042</v>
+        <v>3.517429673622519</v>
       </c>
       <c r="J3">
-        <v>10.34681608628567</v>
+        <v>10.30570235697064</v>
       </c>
       <c r="K3">
-        <v>16.93817605921938</v>
+        <v>16.31623681142158</v>
       </c>
       <c r="L3">
-        <v>5.011504270185386</v>
+        <v>13.19762751513654</v>
       </c>
       <c r="M3">
-        <v>10.2015834114995</v>
+        <v>10.96217269587779</v>
       </c>
       <c r="N3">
-        <v>7.416110079878906</v>
+        <v>4.976590373443734</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.2292163976637</v>
       </c>
       <c r="P3">
-        <v>13.52955527762392</v>
+        <v>7.58927728191558</v>
       </c>
       <c r="Q3">
-        <v>17.21470265244453</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>13.36040142390205</v>
+      </c>
+      <c r="S3">
+        <v>16.75425066974217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.39212371678703</v>
+        <v>12.0808971168352</v>
       </c>
       <c r="C4">
-        <v>6.748213066940084</v>
+        <v>6.43893372889843</v>
       </c>
       <c r="D4">
-        <v>9.139033784876881</v>
+        <v>9.085199438694366</v>
       </c>
       <c r="E4">
-        <v>8.643710604457295</v>
+        <v>8.55190676656615</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>26.47526213920916</v>
+        <v>25.32144575596846</v>
       </c>
       <c r="H4">
-        <v>3.355032661506578</v>
+        <v>3.215189428464322</v>
       </c>
       <c r="I4">
-        <v>3.77589697245403</v>
+        <v>3.597060886539403</v>
       </c>
       <c r="J4">
-        <v>10.35855896973857</v>
+        <v>10.30127234654122</v>
       </c>
       <c r="K4">
-        <v>16.95486272437691</v>
+        <v>16.34737297964239</v>
       </c>
       <c r="L4">
-        <v>4.979918755416509</v>
+        <v>13.27047292095131</v>
       </c>
       <c r="M4">
-        <v>9.781139012326543</v>
+        <v>10.969918481659</v>
       </c>
       <c r="N4">
-        <v>7.287201165549422</v>
+        <v>4.9467589726958</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.812558221006574</v>
       </c>
       <c r="P4">
-        <v>13.61055320133408</v>
+        <v>7.459055838988471</v>
       </c>
       <c r="Q4">
-        <v>17.19169367991351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>13.43603154798931</v>
+      </c>
+      <c r="S4">
+        <v>16.74584446170552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.16015396633623</v>
+        <v>11.85626219469079</v>
       </c>
       <c r="C5">
-        <v>6.702738569823744</v>
+        <v>6.375824887246213</v>
       </c>
       <c r="D5">
-        <v>9.066611891427105</v>
+        <v>9.014950919229769</v>
       </c>
       <c r="E5">
-        <v>8.597310023028683</v>
+        <v>8.509198373905056</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>26.39603779886446</v>
+        <v>25.27096686658838</v>
       </c>
       <c r="H5">
-        <v>3.405765322862099</v>
+        <v>3.262853942638689</v>
       </c>
       <c r="I5">
-        <v>3.815501697670125</v>
+        <v>3.633428219311979</v>
       </c>
       <c r="J5">
-        <v>10.36243873470884</v>
+        <v>10.29810966911978</v>
       </c>
       <c r="K5">
-        <v>16.95839232436845</v>
+        <v>16.35661085278718</v>
       </c>
       <c r="L5">
-        <v>4.966495185640108</v>
+        <v>13.29647028588735</v>
       </c>
       <c r="M5">
-        <v>9.603955645983527</v>
+        <v>10.97497077592311</v>
       </c>
       <c r="N5">
-        <v>7.23520013654796</v>
+        <v>4.934074104769678</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.636997912361009</v>
       </c>
       <c r="P5">
-        <v>13.64367413196776</v>
+        <v>7.406596571010748</v>
       </c>
       <c r="Q5">
-        <v>17.17974671608141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>13.46707726636074</v>
+      </c>
+      <c r="S5">
+        <v>16.73963235437501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.11543023326336</v>
+        <v>11.81267879275659</v>
       </c>
       <c r="C6">
-        <v>6.699422321697885</v>
+        <v>6.370606535608951</v>
       </c>
       <c r="D6">
-        <v>9.053493817510178</v>
+        <v>9.00219311793327</v>
       </c>
       <c r="E6">
-        <v>8.587993951185032</v>
+        <v>8.500506925655548</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>26.37176956040395</v>
+        <v>25.25154047959218</v>
       </c>
       <c r="H6">
-        <v>3.414625762832958</v>
+        <v>3.271192173740173</v>
       </c>
       <c r="I6">
-        <v>3.825354521535423</v>
+        <v>3.64330669554325</v>
       </c>
       <c r="J6">
-        <v>10.3612573237094</v>
+        <v>10.29566704491154</v>
       </c>
       <c r="K6">
-        <v>16.95400641148365</v>
+        <v>16.35324042718296</v>
       </c>
       <c r="L6">
-        <v>4.963943075662763</v>
+        <v>13.29600116836615</v>
       </c>
       <c r="M6">
-        <v>9.573929535654178</v>
+        <v>10.97339969331954</v>
       </c>
       <c r="N6">
-        <v>7.227738357294056</v>
+        <v>4.931659438667568</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.607250617745144</v>
       </c>
       <c r="P6">
-        <v>13.64883372816591</v>
+        <v>7.399061722693519</v>
       </c>
       <c r="Q6">
-        <v>17.17319416666241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>13.47198579639676</v>
+      </c>
+      <c r="S6">
+        <v>16.73403115924906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.37361928467266</v>
+        <v>12.05917806473642</v>
       </c>
       <c r="C7">
-        <v>6.759195350754851</v>
+        <v>6.448509055608113</v>
       </c>
       <c r="D7">
-        <v>9.135182889187423</v>
+        <v>9.081838767736214</v>
       </c>
       <c r="E7">
-        <v>8.638812452557666</v>
+        <v>8.547591417591075</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>26.44364629918506</v>
+        <v>25.35964096069248</v>
       </c>
       <c r="H7">
-        <v>3.356695127120978</v>
+        <v>3.217315279308545</v>
       </c>
       <c r="I7">
-        <v>3.784926062159144</v>
+        <v>3.608000806928212</v>
       </c>
       <c r="J7">
-        <v>10.35353439435259</v>
+        <v>10.26361599454534</v>
       </c>
       <c r="K7">
-        <v>16.94121477414913</v>
+        <v>16.3288844027006</v>
       </c>
       <c r="L7">
-        <v>4.978918937824257</v>
+        <v>13.25311389658744</v>
       </c>
       <c r="M7">
-        <v>9.778060487290247</v>
+        <v>10.9595126364708</v>
       </c>
       <c r="N7">
-        <v>7.289747420414705</v>
+        <v>4.945701555056615</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.805388598056609</v>
       </c>
       <c r="P7">
-        <v>13.61004901329375</v>
+        <v>7.460655727628341</v>
       </c>
       <c r="Q7">
-        <v>17.17888385087767</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>13.43549731642464</v>
+      </c>
+      <c r="S7">
+        <v>16.72530763681698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.46363035316007</v>
+        <v>13.10473189787359</v>
       </c>
       <c r="C8">
-        <v>7.006497849397684</v>
+        <v>6.779802821221699</v>
       </c>
       <c r="D8">
-        <v>9.493781169027745</v>
+        <v>9.43059847891314</v>
       </c>
       <c r="E8">
-        <v>8.862320113972281</v>
+        <v>8.753838152799482</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>26.80741337283283</v>
+        <v>25.74065739647494</v>
       </c>
       <c r="H8">
-        <v>3.110164205638835</v>
+        <v>2.986938422903531</v>
       </c>
       <c r="I8">
-        <v>3.607059041334354</v>
+        <v>3.449900596916478</v>
       </c>
       <c r="J8">
-        <v>10.3297682568274</v>
+        <v>10.19885920763183</v>
       </c>
       <c r="K8">
-        <v>16.90528424444721</v>
+        <v>16.25058806386627</v>
       </c>
       <c r="L8">
-        <v>5.043151827441892</v>
+        <v>13.09027272712318</v>
       </c>
       <c r="M8">
-        <v>10.63000158903497</v>
+        <v>10.94568464278832</v>
       </c>
       <c r="N8">
-        <v>7.556147167529742</v>
+        <v>5.006152418455636</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.6411119559504</v>
       </c>
       <c r="P8">
-        <v>13.44348065179588</v>
+        <v>7.727970279521188</v>
       </c>
       <c r="Q8">
-        <v>17.22694076030989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>13.28003812827203</v>
+      </c>
+      <c r="S8">
+        <v>16.7244242845442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.38951707221922</v>
+        <v>14.95565608004233</v>
       </c>
       <c r="C9">
-        <v>7.451671303483544</v>
+        <v>7.390002394621556</v>
       </c>
       <c r="D9">
-        <v>10.17907445009551</v>
+        <v>10.09568077570251</v>
       </c>
       <c r="E9">
-        <v>9.288227447539308</v>
+        <v>9.145148018158686</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>27.63455323498993</v>
+        <v>26.360739238834</v>
       </c>
       <c r="H9">
-        <v>2.660395412585663</v>
+        <v>2.565191455164917</v>
       </c>
       <c r="I9">
-        <v>3.275627392718165</v>
+        <v>3.152224936292266</v>
       </c>
       <c r="J9">
-        <v>10.31247401702234</v>
+        <v>10.203474948928</v>
       </c>
       <c r="K9">
-        <v>16.88679476079811</v>
+        <v>16.15916868364156</v>
       </c>
       <c r="L9">
-        <v>5.161207372929043</v>
+        <v>12.81677000850218</v>
       </c>
       <c r="M9">
-        <v>12.12189058577134</v>
+        <v>11.07287164076144</v>
       </c>
       <c r="N9">
-        <v>8.054752340562258</v>
+        <v>5.117484704634374</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.11831514770896</v>
       </c>
       <c r="P9">
-        <v>13.1307027063831</v>
+        <v>8.233921598746635</v>
       </c>
       <c r="Q9">
-        <v>17.38377812674844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.99091490476066</v>
+      </c>
+      <c r="S9">
+        <v>16.80675937902795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.61112248661832</v>
+        <v>16.11370198913411</v>
       </c>
       <c r="C10">
-        <v>7.788615273909963</v>
+        <v>7.821112736978892</v>
       </c>
       <c r="D10">
-        <v>10.59880603245276</v>
+        <v>10.50470585938831</v>
       </c>
       <c r="E10">
-        <v>9.492376958119022</v>
+        <v>9.330374489330735</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>28.12071468498488</v>
+        <v>27.1088793436285</v>
       </c>
       <c r="H10">
-        <v>2.378083441795693</v>
+        <v>2.304660984668481</v>
       </c>
       <c r="I10">
-        <v>3.060840467152192</v>
+        <v>2.964333072095752</v>
       </c>
       <c r="J10">
-        <v>10.28620532420781</v>
+        <v>10.01211330824694</v>
       </c>
       <c r="K10">
-        <v>16.83091387628346</v>
+        <v>16.02331781699895</v>
       </c>
       <c r="L10">
-        <v>5.231498174374146</v>
+        <v>12.56022180601394</v>
       </c>
       <c r="M10">
-        <v>13.09277314315252</v>
+        <v>11.17736298810326</v>
       </c>
       <c r="N10">
-        <v>8.327872439420481</v>
+        <v>5.184196474678837</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.06103197794564</v>
       </c>
       <c r="P10">
-        <v>12.90722782713237</v>
+        <v>8.507661379138234</v>
       </c>
       <c r="Q10">
-        <v>17.45837164130265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.78854190261549</v>
+      </c>
+      <c r="S10">
+        <v>16.78417354399588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.76867974533138</v>
+        <v>16.25546843988677</v>
       </c>
       <c r="C11">
-        <v>8.110865041486303</v>
+        <v>8.142131505350491</v>
       </c>
       <c r="D11">
-        <v>10.23012905289877</v>
+        <v>10.14377650931469</v>
       </c>
       <c r="E11">
-        <v>8.812190014562715</v>
+        <v>8.667355950462714</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>27.06890984431298</v>
+        <v>26.93541456106168</v>
       </c>
       <c r="H11">
-        <v>3.194582264817072</v>
+        <v>3.147167858632832</v>
       </c>
       <c r="I11">
-        <v>3.023516653701785</v>
+        <v>2.940758715391241</v>
       </c>
       <c r="J11">
-        <v>10.05909126184628</v>
+        <v>9.485805711838314</v>
       </c>
       <c r="K11">
-        <v>16.32793348765672</v>
+        <v>15.50216145156301</v>
       </c>
       <c r="L11">
-        <v>5.210672513104334</v>
+        <v>12.11861914308395</v>
       </c>
       <c r="M11">
-        <v>13.38627356978323</v>
+        <v>10.85841750150262</v>
       </c>
       <c r="N11">
-        <v>7.767567925480671</v>
+        <v>5.173129286187727</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.31301643520848</v>
       </c>
       <c r="P11">
-        <v>12.81229807131817</v>
+        <v>7.930793760858</v>
       </c>
       <c r="Q11">
-        <v>16.95508867947043</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.72568809790679</v>
+      </c>
+      <c r="S11">
+        <v>16.21409731082056</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.66699554165312</v>
+        <v>16.16290504929549</v>
       </c>
       <c r="C12">
-        <v>8.306125035958162</v>
+        <v>8.320670682654532</v>
       </c>
       <c r="D12">
-        <v>9.828921748455569</v>
+        <v>9.749733130247177</v>
       </c>
       <c r="E12">
-        <v>8.257978367979389</v>
+        <v>8.129563383192725</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>26.10648638927239</v>
+        <v>26.40691500538992</v>
       </c>
       <c r="H12">
-        <v>4.453198636050581</v>
+        <v>4.42009246413105</v>
       </c>
       <c r="I12">
-        <v>3.01798985011779</v>
+        <v>2.937383721167031</v>
       </c>
       <c r="J12">
-        <v>9.878135055344359</v>
+        <v>9.218748764429808</v>
       </c>
       <c r="K12">
-        <v>15.93756424868241</v>
+        <v>15.13424154754798</v>
       </c>
       <c r="L12">
-        <v>5.2347636317532</v>
+        <v>11.84094768088088</v>
       </c>
       <c r="M12">
-        <v>13.43705579125881</v>
+        <v>10.58945343618294</v>
       </c>
       <c r="N12">
-        <v>7.244340011333363</v>
+        <v>5.205032566752712</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.34569925185562</v>
       </c>
       <c r="P12">
-        <v>12.79141200276568</v>
+        <v>7.396337657661996</v>
       </c>
       <c r="Q12">
-        <v>16.52731325543975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.72727627696192</v>
+      </c>
+      <c r="S12">
+        <v>15.78103468339203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.33839039260549</v>
+        <v>15.86961887238035</v>
       </c>
       <c r="C13">
-        <v>8.433285143514352</v>
+        <v>8.433346587812455</v>
       </c>
       <c r="D13">
-        <v>9.367770590069785</v>
+        <v>9.294677822621788</v>
       </c>
       <c r="E13">
-        <v>7.770538627668231</v>
+        <v>7.658992841563435</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>25.10164851723486</v>
+        <v>25.3452196929415</v>
       </c>
       <c r="H13">
-        <v>5.812916881043381</v>
+        <v>5.78540581740249</v>
       </c>
       <c r="I13">
-        <v>3.050763955672403</v>
+        <v>2.965435432908463</v>
       </c>
       <c r="J13">
-        <v>9.714070782278583</v>
+        <v>9.142331658648002</v>
       </c>
       <c r="K13">
-        <v>15.5905434093524</v>
+        <v>14.85068029909097</v>
       </c>
       <c r="L13">
-        <v>5.29082383151325</v>
+        <v>11.65157676594192</v>
       </c>
       <c r="M13">
-        <v>13.30520368992037</v>
+        <v>10.34077941697746</v>
       </c>
       <c r="N13">
-        <v>6.72058902549105</v>
+        <v>5.268768050691885</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.22026111762655</v>
       </c>
       <c r="P13">
-        <v>12.82264399934052</v>
+        <v>6.866455769296212</v>
       </c>
       <c r="Q13">
-        <v>16.11177548493199</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.77043124608488</v>
+      </c>
+      <c r="S13">
+        <v>15.42332608225183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.99719376776932</v>
+        <v>15.56519069566969</v>
       </c>
       <c r="C14">
-        <v>8.496775958695531</v>
+        <v>8.488334020065103</v>
       </c>
       <c r="D14">
-        <v>9.014689886036169</v>
+        <v>8.945510545412271</v>
       </c>
       <c r="E14">
-        <v>7.477385874616493</v>
+        <v>7.378724677523809</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>24.37197367799456</v>
+        <v>24.37017846382109</v>
       </c>
       <c r="H14">
-        <v>6.793683886722568</v>
+        <v>6.767728883145038</v>
       </c>
       <c r="I14">
-        <v>3.093784593622574</v>
+        <v>3.002630796194087</v>
       </c>
       <c r="J14">
-        <v>9.606463724334255</v>
+        <v>9.159372967609817</v>
       </c>
       <c r="K14">
-        <v>15.36708096480962</v>
+        <v>14.68681161197691</v>
       </c>
       <c r="L14">
-        <v>5.349953490234446</v>
+        <v>11.55214005563746</v>
       </c>
       <c r="M14">
-        <v>13.12840975764749</v>
+        <v>10.17689117866515</v>
       </c>
       <c r="N14">
-        <v>6.35965049818151</v>
+        <v>5.333347760325256</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.05880671785527</v>
       </c>
       <c r="P14">
-        <v>12.86848735540862</v>
+        <v>6.503247916341934</v>
       </c>
       <c r="Q14">
-        <v>15.82499662044782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.81827900484451</v>
+      </c>
+      <c r="S14">
+        <v>15.20235548292307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.85976952984076</v>
+        <v>15.44188452639859</v>
       </c>
       <c r="C15">
-        <v>8.501835155574495</v>
+        <v>8.492637388124571</v>
       </c>
       <c r="D15">
-        <v>8.915394328731143</v>
+        <v>8.847071056149961</v>
       </c>
       <c r="E15">
-        <v>7.412306327212334</v>
+        <v>7.317272966377096</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>24.17771075923777</v>
+        <v>24.03175689384701</v>
       </c>
       <c r="H15">
-        <v>7.024292626327838</v>
+        <v>6.998041413575172</v>
       </c>
       <c r="I15">
-        <v>3.116970112745021</v>
+        <v>3.023694476219422</v>
       </c>
       <c r="J15">
-        <v>9.582730028909904</v>
+        <v>9.193502321829756</v>
       </c>
       <c r="K15">
-        <v>15.31803105700612</v>
+        <v>14.6587785837878</v>
       </c>
       <c r="L15">
-        <v>5.363746632543616</v>
+        <v>11.53959513270572</v>
       </c>
       <c r="M15">
-        <v>13.04532478916102</v>
+        <v>10.13913538876293</v>
       </c>
       <c r="N15">
-        <v>6.271300323265646</v>
+        <v>5.348723253459798</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>12.98417275194194</v>
       </c>
       <c r="P15">
-        <v>12.88927399005318</v>
+        <v>6.415210670068965</v>
       </c>
       <c r="Q15">
-        <v>15.75486294981223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.83703472156522</v>
+      </c>
+      <c r="S15">
+        <v>15.15889658318569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.3926885607199</v>
+        <v>15.01846215901521</v>
       </c>
       <c r="C16">
-        <v>8.345018430512329</v>
+        <v>8.338004728606748</v>
       </c>
       <c r="D16">
-        <v>8.812792607871032</v>
+        <v>8.744154270249597</v>
       </c>
       <c r="E16">
-        <v>7.416084756704771</v>
+        <v>7.324371744075735</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>24.13734747197927</v>
+        <v>23.3150403126369</v>
       </c>
       <c r="H16">
-        <v>6.84201127551095</v>
+        <v>6.809274627092027</v>
       </c>
       <c r="I16">
-        <v>3.20730400361269</v>
+        <v>3.101419344891824</v>
       </c>
       <c r="J16">
-        <v>9.624198348918913</v>
+        <v>9.478614701722982</v>
       </c>
       <c r="K16">
-        <v>15.40657127058803</v>
+        <v>14.80097201425085</v>
       </c>
       <c r="L16">
-        <v>5.318306001302121</v>
+        <v>11.67450101754283</v>
       </c>
       <c r="M16">
-        <v>12.66544422199972</v>
+        <v>10.18444925384619</v>
       </c>
       <c r="N16">
-        <v>6.25049544633838</v>
+        <v>5.305490898707918</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>12.643807412261</v>
       </c>
       <c r="P16">
-        <v>12.97044388663181</v>
+        <v>6.40195730355599</v>
       </c>
       <c r="Q16">
-        <v>15.79769871669769</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.8969279095834</v>
+      </c>
+      <c r="S16">
+        <v>15.29022077638455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.21745084239512</v>
+        <v>14.85279362256989</v>
       </c>
       <c r="C17">
-        <v>8.188456571037101</v>
+        <v>8.180735322016947</v>
       </c>
       <c r="D17">
-        <v>8.925952297947513</v>
+        <v>8.85556269014187</v>
       </c>
       <c r="E17">
-        <v>7.565202940152746</v>
+        <v>7.468456181889827</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>24.49774045260575</v>
+        <v>23.38186294782369</v>
       </c>
       <c r="H17">
-        <v>6.153903393796518</v>
+        <v>6.114104826618536</v>
       </c>
       <c r="I17">
-        <v>3.25451399102043</v>
+        <v>3.142635065159185</v>
       </c>
       <c r="J17">
-        <v>9.713040802326327</v>
+        <v>9.670705766782579</v>
       </c>
       <c r="K17">
-        <v>15.59137309700651</v>
+        <v>14.99221891966624</v>
       </c>
       <c r="L17">
-        <v>5.247620763604399</v>
+        <v>11.8352385701762</v>
       </c>
       <c r="M17">
-        <v>12.46633218886377</v>
+        <v>10.29789805870824</v>
       </c>
       <c r="N17">
-        <v>6.425394525957226</v>
+        <v>5.232888139304599</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>12.46189872115771</v>
       </c>
       <c r="P17">
-        <v>13.00931289480643</v>
+        <v>6.583103785360854</v>
       </c>
       <c r="Q17">
-        <v>15.98294514906483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.92187763138276</v>
+      </c>
+      <c r="S17">
+        <v>15.50023239727632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.29023907065806</v>
+        <v>14.91218285832275</v>
       </c>
       <c r="C18">
-        <v>8.008075431646496</v>
+        <v>8.00225972289406</v>
       </c>
       <c r="D18">
-        <v>9.239749713433412</v>
+        <v>9.16512336769283</v>
       </c>
       <c r="E18">
-        <v>7.906863128984496</v>
+        <v>7.796919070407304</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>25.26338169981621</v>
+        <v>23.98667835269276</v>
       </c>
       <c r="H18">
-        <v>4.995291467338951</v>
+        <v>4.945140681958096</v>
       </c>
       <c r="I18">
-        <v>3.258694134851209</v>
+        <v>3.143627680526946</v>
       </c>
       <c r="J18">
-        <v>9.856128579129637</v>
+        <v>9.849444060152333</v>
       </c>
       <c r="K18">
-        <v>15.89310820116018</v>
+        <v>15.27002951286494</v>
       </c>
       <c r="L18">
-        <v>5.172527705840567</v>
+        <v>12.05610271220315</v>
       </c>
       <c r="M18">
-        <v>12.40654302567075</v>
+        <v>10.49393829969632</v>
       </c>
       <c r="N18">
-        <v>6.802718269762892</v>
+        <v>5.152017287714665</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.40861994594851</v>
       </c>
       <c r="P18">
-        <v>13.02080771285292</v>
+        <v>6.967514270741428</v>
       </c>
       <c r="Q18">
-        <v>16.3203218564089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.92133261044831</v>
+      </c>
+      <c r="S18">
+        <v>15.82675030404305</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.53109919621307</v>
+        <v>15.12479310078344</v>
       </c>
       <c r="C19">
-        <v>7.853860356670804</v>
+        <v>7.856914362215192</v>
       </c>
       <c r="D19">
-        <v>9.685406807142787</v>
+        <v>9.604447473391804</v>
       </c>
       <c r="E19">
-        <v>8.435053003977606</v>
+        <v>8.306871767528316</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>26.24916764984838</v>
+        <v>24.86918070134389</v>
       </c>
       <c r="H19">
-        <v>3.683321464194061</v>
+        <v>3.617588448591302</v>
       </c>
       <c r="I19">
-        <v>3.244020664398484</v>
+        <v>3.13177779911946</v>
       </c>
       <c r="J19">
-        <v>10.02505944466643</v>
+        <v>10.01716400308197</v>
       </c>
       <c r="K19">
-        <v>16.25297156059338</v>
+        <v>15.58687718703203</v>
       </c>
       <c r="L19">
-        <v>5.138374608477878</v>
+        <v>12.30134194527368</v>
       </c>
       <c r="M19">
-        <v>12.46352248672018</v>
+        <v>10.73243805751561</v>
       </c>
       <c r="N19">
-        <v>7.338591280176679</v>
+        <v>5.108953055093527</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.46592118546918</v>
       </c>
       <c r="P19">
-        <v>13.01750032686003</v>
+        <v>7.511159805357899</v>
       </c>
       <c r="Q19">
-        <v>16.73672005153892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.90691565067724</v>
+      </c>
+      <c r="S19">
+        <v>16.21059158538923</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.26047638708196</v>
+        <v>15.7882874561988</v>
       </c>
       <c r="C20">
-        <v>7.735872358129053</v>
+        <v>7.76445285512362</v>
       </c>
       <c r="D20">
-        <v>10.47914423832663</v>
+        <v>10.3862770863796</v>
       </c>
       <c r="E20">
-        <v>9.423520605608987</v>
+        <v>9.264718647692311</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>27.89556805033319</v>
+        <v>26.572115282868</v>
       </c>
       <c r="H20">
-        <v>2.453096771914746</v>
+        <v>2.372414334525929</v>
       </c>
       <c r="I20">
-        <v>3.144889459960738</v>
+        <v>3.045365584316657</v>
       </c>
       <c r="J20">
-        <v>10.27581152210279</v>
+        <v>10.15408134884384</v>
       </c>
       <c r="K20">
-        <v>16.80054969638067</v>
+        <v>16.03413944243134</v>
       </c>
       <c r="L20">
-        <v>5.210711821717919</v>
+        <v>12.60868350096328</v>
       </c>
       <c r="M20">
-        <v>12.84274018534819</v>
+        <v>11.12684202945642</v>
       </c>
       <c r="N20">
-        <v>8.262304598050321</v>
+        <v>5.164822260779441</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.8298799335452</v>
       </c>
       <c r="P20">
-        <v>12.96403807210424</v>
+        <v>8.444816913095458</v>
       </c>
       <c r="Q20">
-        <v>17.39652949204474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.8408756931176</v>
+      </c>
+      <c r="S20">
+        <v>16.77627670856554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.22449817057509</v>
+        <v>16.65326141078232</v>
       </c>
       <c r="C21">
-        <v>7.956144169386683</v>
+        <v>7.988629194113113</v>
       </c>
       <c r="D21">
-        <v>10.89532254616703</v>
+        <v>10.80140261828339</v>
       </c>
       <c r="E21">
-        <v>9.722619147669123</v>
+        <v>9.556706469436133</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>28.52129923353539</v>
+        <v>28.6828267682519</v>
       </c>
       <c r="H21">
-        <v>2.201656019087397</v>
+        <v>2.14486704511503</v>
       </c>
       <c r="I21">
-        <v>2.973005888028193</v>
+        <v>2.90033714159321</v>
       </c>
       <c r="J21">
-        <v>10.30089436616164</v>
+        <v>9.523128777285192</v>
       </c>
       <c r="K21">
-        <v>16.85573713538942</v>
+        <v>15.9207892503168</v>
       </c>
       <c r="L21">
-        <v>5.280137831146304</v>
+        <v>12.40965671875981</v>
       </c>
       <c r="M21">
-        <v>13.57584252230584</v>
+        <v>11.21399122222088</v>
       </c>
       <c r="N21">
-        <v>8.590034956239979</v>
+        <v>5.228236138558978</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.4826040377936</v>
       </c>
       <c r="P21">
-        <v>12.79628630776888</v>
+        <v>8.759604788534316</v>
       </c>
       <c r="Q21">
-        <v>17.56430387766003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.6887590897892</v>
+      </c>
+      <c r="S21">
+        <v>16.71518478673097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.82077262726541</v>
+        <v>17.18581612403985</v>
       </c>
       <c r="C22">
-        <v>8.093044930495886</v>
+        <v>8.121420753422312</v>
       </c>
       <c r="D22">
-        <v>11.13299877751715</v>
+        <v>11.03977983434436</v>
       </c>
       <c r="E22">
-        <v>9.872154421708462</v>
+        <v>9.704529852123228</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>28.89865383125759</v>
+        <v>30.16561740732259</v>
       </c>
       <c r="H22">
-        <v>2.052719167281106</v>
+        <v>2.01110419165096</v>
       </c>
       <c r="I22">
-        <v>2.854498118963961</v>
+        <v>2.796652336851301</v>
       </c>
       <c r="J22">
-        <v>10.31386866405823</v>
+        <v>9.130190828752681</v>
       </c>
       <c r="K22">
-        <v>16.8852408768751</v>
+        <v>15.83315992320546</v>
       </c>
       <c r="L22">
-        <v>5.3199756761867</v>
+        <v>12.2719104496282</v>
       </c>
       <c r="M22">
-        <v>14.02808795396479</v>
+        <v>11.26822844873429</v>
       </c>
       <c r="N22">
-        <v>8.75592788143531</v>
+        <v>5.265249278764725</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>13.88070899533811</v>
       </c>
       <c r="P22">
-        <v>12.68784268020041</v>
+        <v>8.915706915750704</v>
       </c>
       <c r="Q22">
-        <v>17.66361350169466</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.59259646867654</v>
+      </c>
+      <c r="S22">
+        <v>16.65381549896177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.51837863490729</v>
+        <v>16.92350587713451</v>
       </c>
       <c r="C23">
-        <v>8.007691852660537</v>
+        <v>8.04443474640971</v>
       </c>
       <c r="D23">
-        <v>11.00939474786766</v>
+        <v>10.91457635121312</v>
       </c>
       <c r="E23">
-        <v>9.796986166057401</v>
+        <v>9.628572823560653</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>28.72949021042805</v>
+        <v>29.21994927380128</v>
       </c>
       <c r="H23">
-        <v>2.130988698475717</v>
+        <v>2.080474668544944</v>
       </c>
       <c r="I23">
-        <v>2.906063957810641</v>
+        <v>2.837440497836397</v>
       </c>
       <c r="J23">
-        <v>10.31247141500464</v>
+        <v>9.400078560338546</v>
       </c>
       <c r="K23">
-        <v>16.88478962781377</v>
+        <v>15.90771389780967</v>
       </c>
       <c r="L23">
-        <v>5.299587553443082</v>
+        <v>12.36436847472761</v>
       </c>
       <c r="M23">
-        <v>13.78918752263478</v>
+        <v>11.26175246085123</v>
       </c>
       <c r="N23">
-        <v>8.664371713967101</v>
+        <v>5.246357030048307</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.67856745438978</v>
       </c>
       <c r="P23">
-        <v>12.74600901584587</v>
+        <v>8.831458323795552</v>
       </c>
       <c r="Q23">
-        <v>17.62429003255058</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.64297691893444</v>
+      </c>
+      <c r="S23">
+        <v>16.72026959818363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.29877851270992</v>
+        <v>15.82453006921179</v>
       </c>
       <c r="C24">
-        <v>7.698899263463418</v>
+        <v>7.722831295790023</v>
       </c>
       <c r="D24">
-        <v>10.52787478752198</v>
+        <v>10.4343553942492</v>
       </c>
       <c r="E24">
-        <v>9.499686072756031</v>
+        <v>9.339132494043971</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>28.05051615481846</v>
+        <v>26.70763299407898</v>
       </c>
       <c r="H24">
-        <v>2.4358004651509</v>
+        <v>2.355021881736569</v>
       </c>
       <c r="I24">
-        <v>3.126215561079757</v>
+        <v>3.023443773393433</v>
       </c>
       <c r="J24">
-        <v>10.30355232708387</v>
+        <v>10.18533616388277</v>
       </c>
       <c r="K24">
-        <v>16.86625690020317</v>
+        <v>16.09496131284916</v>
       </c>
       <c r="L24">
-        <v>5.219347609151168</v>
+        <v>12.65619835162619</v>
       </c>
       <c r="M24">
-        <v>12.84312318948443</v>
+        <v>11.17185810957366</v>
       </c>
       <c r="N24">
-        <v>8.316217956656779</v>
+        <v>5.172252496251807</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.83077461654368</v>
       </c>
       <c r="P24">
-        <v>12.96808387046439</v>
+        <v>8.499599087060259</v>
       </c>
       <c r="Q24">
-        <v>17.46377094447541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.84240287097277</v>
+      </c>
+      <c r="S24">
+        <v>16.84094013849963</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.87066806159077</v>
+        <v>14.46051024498462</v>
       </c>
       <c r="C25">
-        <v>7.353488915665494</v>
+        <v>7.258375258436854</v>
       </c>
       <c r="D25">
-        <v>9.991917309654456</v>
+        <v>9.913244606024122</v>
       </c>
       <c r="E25">
-        <v>9.168144992161915</v>
+        <v>9.033582722359176</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>27.3516598443031</v>
+        <v>26.03469719109128</v>
       </c>
       <c r="H25">
-        <v>2.779921075268989</v>
+        <v>2.676624816503006</v>
       </c>
       <c r="I25">
-        <v>3.377454797582108</v>
+        <v>3.247250548991694</v>
       </c>
       <c r="J25">
-        <v>10.30590613017564</v>
+        <v>10.23709432553825</v>
       </c>
       <c r="K25">
-        <v>16.86438574364109</v>
+        <v>16.16542201097648</v>
       </c>
       <c r="L25">
-        <v>5.128915036572881</v>
+        <v>12.87694620133166</v>
       </c>
       <c r="M25">
-        <v>11.73656343606683</v>
+        <v>11.01295888428385</v>
       </c>
       <c r="N25">
-        <v>7.92758441191857</v>
+        <v>5.08717624640208</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.74180059469527</v>
       </c>
       <c r="P25">
-        <v>13.21296154858235</v>
+        <v>8.105816973706055</v>
       </c>
       <c r="Q25">
-        <v>17.31462042286068</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>13.06737718741573</v>
+      </c>
+      <c r="S25">
+        <v>16.76977249763636</v>
       </c>
     </row>
   </sheetData>
